--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,6 +754,1427 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7217593</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45187.54166666666</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>['63', '87']</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7217598</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45188.41666666666</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Masr</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>6</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>8</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7217596</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45188.54166666666</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>['44', '69', '74', '88']</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>7</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7</v>
+      </c>
+      <c r="S4" t="n">
+        <v>14</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7217594</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45189.41666666666</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>10</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7217592</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45189.54166666666</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Baladiyyat Al Mehalla</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>['16', '75']</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6</v>
+      </c>
+      <c r="S6" t="n">
+        <v>8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7217599</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45189.54166666666</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>El Gounah</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>9</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7217595</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45190.41666666666</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>['45+2', '68']</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK8"/>
+  <dimension ref="A1:BK10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2175,6 +2175,412 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7217600</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45190.54166666666</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>['24', '77']</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>['56', '62']</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>13</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>16</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>4</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7217597</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45190.54166666666</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7</v>
+      </c>
+      <c r="S10" t="n">
+        <v>9</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK10"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2581,6 +2581,209 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7217601</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45194.41666666666</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>9</v>
+      </c>
+      <c r="T11" t="n">
+        <v>6</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2784,6 +2784,412 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7217609</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45194.54166666666</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>['90+9']</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>8</v>
+      </c>
+      <c r="R12" t="n">
+        <v>9</v>
+      </c>
+      <c r="S12" t="n">
+        <v>17</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7217608</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45195.41666666666</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Baladiyyat Al Mehalla</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>['43', '56']</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>13</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ14"/>
+  <dimension ref="A1:AZ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2909,6 +2909,686 @@
         <v>7</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7217602</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45196.41666666666</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X15" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7217607</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45196.54166666666</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>El Gounah</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Masr</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>7217604</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45197.41666666666</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>7217606</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45197.54166666666</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>['7', '38', '51']</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ18"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,86 @@
           <t>Shots_A</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_H_FT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_A_FT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCorners_FT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -868,6 +948,54 @@
       <c r="AZ2" t="n">
         <v>9</v>
       </c>
+      <c r="BA2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1006,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
@@ -1037,6 +1165,54 @@
       </c>
       <c r="AZ3" t="n">
         <v>5</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1208,6 +1384,54 @@
       <c r="AZ4" t="n">
         <v>4</v>
       </c>
+      <c r="BA4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1378,6 +1602,54 @@
       <c r="AZ5" t="n">
         <v>12</v>
       </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1519,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -1547,6 +1819,54 @@
       </c>
       <c r="AZ6" t="n">
         <v>15</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.21</v>
       </c>
     </row>
     <row r="7">
@@ -1718,6 +2038,54 @@
       <c r="AZ7" t="n">
         <v>21</v>
       </c>
+      <c r="BA7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1888,6 +2256,54 @@
       <c r="AZ8" t="n">
         <v>9</v>
       </c>
+      <c r="BA8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2058,6 +2474,54 @@
       <c r="AZ9" t="n">
         <v>7</v>
       </c>
+      <c r="BA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2228,6 +2692,54 @@
       <c r="AZ10" t="n">
         <v>12</v>
       </c>
+      <c r="BA10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2398,6 +2910,54 @@
       <c r="AZ11" t="n">
         <v>16</v>
       </c>
+      <c r="BA11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2568,6 +3128,54 @@
       <c r="AZ12" t="n">
         <v>10</v>
       </c>
+      <c r="BA12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2738,6 +3346,54 @@
       <c r="AZ13" t="n">
         <v>10</v>
       </c>
+      <c r="BA13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2908,6 +3564,54 @@
       <c r="AZ14" t="n">
         <v>7</v>
       </c>
+      <c r="BA14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3078,6 +3782,54 @@
       <c r="AZ15" t="n">
         <v>10</v>
       </c>
+      <c r="BA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3248,6 +4000,54 @@
       <c r="AZ16" t="n">
         <v>16</v>
       </c>
+      <c r="BA16" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3418,6 +4218,54 @@
       <c r="AZ17" t="n">
         <v>8</v>
       </c>
+      <c r="BA17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3587,6 +4435,272 @@
       </c>
       <c r="AZ18" t="n">
         <v>11</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7217618</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45204.41666666666</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Masr</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Baladiyyat Al Mehalla</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>['13', '24', '44']</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>['11', '26', '62']</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>4</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X19" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -4701,6 +4701,1750 @@
       </c>
       <c r="BP19" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7217617</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45204.54166666666</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>['17', '39']</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X20" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7217611</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45205.41666666666</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>El Gounah</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>['70', '90+9']</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>['13', '50']</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X21" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7217613</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45205.54166666666</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>['41', '44']</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>['10', '19']</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>7217614</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45206.41666666666</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>['8', '49', '66']</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7217610</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45206.54166666666</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>['45+9']</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>['54', '90']</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X24" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7217615</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45206.54166666666</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>['44', '86']</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X25" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7217616</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45207.54166666666</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>6</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X26" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7217612</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45207.54166666666</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>['23', '38', '65']</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U27" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X27" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -6402,10 +6402,10 @@
         <v>3</v>
       </c>
       <c r="BB27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD27" t="n">
         <v>1.22</v>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP27"/>
+  <dimension ref="A1:BP29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3753,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -6445,6 +6445,442 @@
       </c>
       <c r="BP27" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7217621</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45219.41666666666</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X28" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7217622</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45219.58333333334</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>['8', '22', '34', '36']</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP29"/>
+  <dimension ref="A1:BP33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.5</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.5</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -6881,6 +6881,878 @@
       </c>
       <c r="BP29" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7217625</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45220.41666666666</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Baladiyyat Al Mehalla</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>['13', '39']</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>['45+1', '81']</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7217627</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>['3', '13', '45+5', '81', '88']</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U31" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X31" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>7217619</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['29', '79', '90+6']</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>7217626</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45221.41666666666</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Masr</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>['5', '17', '90+11']</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>['45+4', '81', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP33"/>
+  <dimension ref="A1:BP35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>3</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.5</v>
@@ -7753,6 +7753,442 @@
       </c>
       <c r="BP33" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>7217620</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X34" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>7217623</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X35" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP35"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ9" t="n">
         <v>2</v>
@@ -5497,7 +5497,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR23" t="n">
         <v>0.84</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26" t="n">
         <v>0</v>
@@ -8189,6 +8189,224 @@
       </c>
       <c r="BP35" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7217632</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45226.45833333334</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['45+2', '48', '85']</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['82', '88']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X36" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -2445,7 +2445,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.5</v>
@@ -5061,7 +5061,7 @@
         <v>2</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR21" t="n">
         <v>1.45</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.5</v>
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR24" t="n">
         <v>0.5</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ32" t="n">
         <v>0</v>
@@ -8407,6 +8407,442 @@
       </c>
       <c r="BP36" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>7217628</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45226.58333333334</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['22', '68']</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X37" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>7217629</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45227.45833333334</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>El Gounah</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X38" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP38"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>2</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
         <v>2</v>
@@ -4843,7 +4843,7 @@
         <v>2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR20" t="n">
         <v>1.49</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.67</v>
@@ -5279,7 +5279,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR22" t="n">
         <v>1.48</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ25" t="n">
         <v>3</v>
@@ -7241,7 +7241,7 @@
         <v>2</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR31" t="n">
         <v>1.64</v>
@@ -8843,6 +8843,660 @@
       </c>
       <c r="BP38" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7217634</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Masr</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X39" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>7217635</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['8', '21', '87']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['3', '27']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X40" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7217631</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23" t="n">
         <v>1</v>
@@ -6369,7 +6369,7 @@
         <v>3</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR27" t="n">
         <v>1.86</v>
@@ -9497,6 +9497,442 @@
       </c>
       <c r="BP41" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7217630</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45229.45833333334</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X42" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7217633</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45229.58333333334</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['42', '87']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X43" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.67</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.33</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.33</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>3</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.33</v>
@@ -6016,7 +6016,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>7217616</v>
+        <v>7217612</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -6036,197 +6036,197 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>['13']</t>
+          <t>['23', '38', '65']</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90']</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="R26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S26" t="n">
+        <v>7</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U26" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X26" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI26" t="n">
         <v>2.2</v>
       </c>
-      <c r="S26" t="n">
-        <v>6</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X26" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AJ26" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AK26" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="AL26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD26" t="n">
         <v>1.22</v>
       </c>
-      <c r="AM26" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>1.38</v>
-      </c>
       <c r="BE26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF26" t="n">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="BG26" t="n">
         <v>1.29</v>
       </c>
       <c r="BH26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BI26" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BJ26" t="n">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="BK26" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="BL26" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="BM26" t="n">
-        <v>2.28</v>
+        <v>2.23</v>
       </c>
       <c r="BN26" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="BO26" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="BP26" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="27">
@@ -6234,7 +6234,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>7217612</v>
+        <v>7217616</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -6254,197 +6254,197 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>6</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X27" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV27" t="n">
         <v>4</v>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>['23', '38', '65']</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>['90']</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S27" t="n">
+      <c r="AW27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ27" t="n">
         <v>7</v>
       </c>
-      <c r="T27" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="U27" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X27" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA27" t="n">
+      <c r="BA27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF27" t="n">
         <v>4</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>5.75</v>
       </c>
       <c r="BG27" t="n">
         <v>1.29</v>
       </c>
       <c r="BH27" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BI27" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BJ27" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="BK27" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="BL27" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="BM27" t="n">
-        <v>2.23</v>
+        <v>2.28</v>
       </c>
       <c r="BN27" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="BO27" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="BP27" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="28">
@@ -7020,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR30" t="n">
         <v>1.43</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.33</v>
@@ -7674,10 +7674,10 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR33" t="n">
         <v>1.37</v>
@@ -7760,7 +7760,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>7217620</v>
+        <v>7217623</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -7780,12 +7780,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -7813,62 +7813,62 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>['57']</t>
+          <t>['90+1']</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S34" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="U34" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V34" t="n">
-        <v>3.34</v>
+        <v>3.54</v>
       </c>
       <c r="W34" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X34" t="n">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Y34" t="n">
         <v>1.04</v>
       </c>
       <c r="Z34" t="n">
-        <v>5.25</v>
+        <v>1.91</v>
       </c>
       <c r="AA34" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.73</v>
+        <v>4</v>
       </c>
       <c r="AC34" t="n">
         <v>1.07</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.45</v>
+        <v>6.35</v>
       </c>
       <c r="AE34" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AG34" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AH34" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AI34" t="n">
         <v>2.1</v>
@@ -7877,100 +7877,100 @@
         <v>1.67</v>
       </c>
       <c r="AK34" t="n">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="AL34" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AM34" t="n">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="AN34" t="n">
         <v>3</v>
       </c>
       <c r="AO34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP34" t="n">
         <v>1.5</v>
       </c>
       <c r="AQ34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR34" t="n">
-        <v>1.64</v>
+        <v>1.3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.07</v>
+        <v>1.02</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.71</v>
+        <v>2.32</v>
       </c>
       <c r="AU34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV34" t="n">
         <v>2</v>
       </c>
       <c r="AW34" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ34" t="n">
         <v>6</v>
       </c>
-      <c r="AY34" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>8</v>
-      </c>
       <c r="BA34" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BB34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC34" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD34" t="n">
-        <v>2.88</v>
+        <v>1.78</v>
       </c>
       <c r="BE34" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="BF34" t="n">
-        <v>1.62</v>
+        <v>2.6</v>
       </c>
       <c r="BG34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP34" t="n">
         <v>1.29</v>
-      </c>
-      <c r="BH34" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BI34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BJ34" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BK34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BL34" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="BM34" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BN34" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BO34" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BP34" t="n">
-        <v>1.36</v>
       </c>
     </row>
     <row r="35">
@@ -7978,7 +7978,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>7217623</v>
+        <v>7217620</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -7998,12 +7998,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -8031,62 +8031,62 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>['57']</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="R35" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S35" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U35" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V35" t="n">
-        <v>3.54</v>
+        <v>3.34</v>
       </c>
       <c r="W35" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X35" t="n">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="Y35" t="n">
         <v>1.04</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.91</v>
+        <v>5.25</v>
       </c>
       <c r="AA35" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB35" t="n">
-        <v>4</v>
+        <v>1.73</v>
       </c>
       <c r="AC35" t="n">
         <v>1.07</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.35</v>
+        <v>6.45</v>
       </c>
       <c r="AE35" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AF35" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AG35" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AH35" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AI35" t="n">
         <v>2.1</v>
@@ -8095,100 +8095,100 @@
         <v>1.67</v>
       </c>
       <c r="AK35" t="n">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="AL35" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AM35" t="n">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="AN35" t="n">
         <v>3</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP35" t="n">
         <v>1.5</v>
       </c>
       <c r="AQ35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI35" t="n">
         <v>1.5</v>
       </c>
-      <c r="AR35" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BG35" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BH35" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BI35" t="n">
-        <v>1.65</v>
-      </c>
       <c r="BJ35" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="BK35" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="BL35" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="BM35" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="BN35" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="BO35" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="BP35" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="36">
@@ -8850,7 +8850,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>7217634</v>
+        <v>7217635</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -8870,95 +8870,95 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Masr</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>['60']</t>
+          <t>['8', '21', '87']</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>['71']</t>
+          <t>['3', '27']</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="R39" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S39" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="T39" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="U39" t="n">
-        <v>2.51</v>
+        <v>2.41</v>
       </c>
       <c r="V39" t="n">
-        <v>3.28</v>
+        <v>3.34</v>
       </c>
       <c r="W39" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X39" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="AA39" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AB39" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="AC39" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD39" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AF39" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="AG39" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AH39" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AI39" t="n">
         <v>2</v>
@@ -8967,100 +8967,100 @@
         <v>1.73</v>
       </c>
       <c r="AK39" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="AL39" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM39" t="n">
-        <v>1.84</v>
+        <v>1.52</v>
       </c>
       <c r="AN39" t="n">
         <v>2</v>
       </c>
       <c r="AO39" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="AR39" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.52</v>
+        <v>3.61</v>
       </c>
       <c r="AU39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV39" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW39" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX39" t="n">
         <v>4</v>
       </c>
       <c r="AY39" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ39" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA39" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BB39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC39" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD39" t="n">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="BE39" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="BF39" t="n">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="BG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI39" t="n">
         <v>1.33</v>
       </c>
-      <c r="BH39" t="n">
+      <c r="BJ39" t="n">
         <v>2.93</v>
       </c>
-      <c r="BI39" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BJ39" t="n">
-        <v>2.14</v>
-      </c>
       <c r="BK39" t="n">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="BL39" t="n">
-        <v>1.7</v>
+        <v>2.17</v>
       </c>
       <c r="BM39" t="n">
-        <v>2.64</v>
+        <v>2.06</v>
       </c>
       <c r="BN39" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="BO39" t="n">
-        <v>3.65</v>
+        <v>2.6</v>
       </c>
       <c r="BP39" t="n">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="40">
@@ -9068,7 +9068,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>7217635</v>
+        <v>7217634</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -9088,95 +9088,95 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Masr</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X40" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB40" t="n">
         <v>4</v>
       </c>
-      <c r="L40" t="n">
-        <v>3</v>
-      </c>
-      <c r="M40" t="n">
-        <v>2</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>['8', '21', '87']</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>['3', '27']</t>
-        </is>
-      </c>
-      <c r="Q40" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="V40" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X40" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>2.8</v>
-      </c>
       <c r="AC40" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD40" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="AE40" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AF40" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AG40" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AH40" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AI40" t="n">
         <v>2</v>
@@ -9185,100 +9185,100 @@
         <v>1.73</v>
       </c>
       <c r="AK40" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="AL40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ40" t="n">
         <v>1.33</v>
       </c>
-      <c r="AM40" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>0.33</v>
-      </c>
       <c r="AR40" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.61</v>
+        <v>3.52</v>
       </c>
       <c r="AU40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV40" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW40" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX40" t="n">
         <v>4</v>
       </c>
       <c r="AY40" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ40" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BA40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB40" t="n">
         <v>4</v>
       </c>
-      <c r="BB40" t="n">
-        <v>6</v>
-      </c>
       <c r="BC40" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD40" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="BE40" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF40" t="n">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="BG40" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BH40" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="BI40" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="BJ40" t="n">
-        <v>2.93</v>
+        <v>2.14</v>
       </c>
       <c r="BK40" t="n">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="BL40" t="n">
-        <v>2.17</v>
+        <v>1.7</v>
       </c>
       <c r="BM40" t="n">
-        <v>2.06</v>
+        <v>2.64</v>
       </c>
       <c r="BN40" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="BO40" t="n">
-        <v>2.6</v>
+        <v>3.65</v>
       </c>
       <c r="BP40" t="n">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="41">
@@ -9933,6 +9933,1314 @@
       </c>
       <c r="BP43" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7217644</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45233.45833333334</v>
+      </c>
+      <c r="F44" t="n">
+        <v>6</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V44" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X44" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7217639</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45233.58333333334</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['21', '90+2']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X45" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>7217645</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45233.58333333334</v>
+      </c>
+      <c r="F46" t="n">
+        <v>6</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Masr</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['32', '81']</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>7217641</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45234.45833333334</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>El Gounah</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['21', '23']</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X47" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7217642</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Baladiyyat Al Mehalla</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="n">
+        <v>5</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['28', '34', '45+3']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['58', '76']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X48" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7217643</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['45+4', '84']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X49" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ14" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.33</v>
@@ -6369,7 +6369,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR27" t="n">
         <v>1.96</v>
@@ -6584,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR28" t="n">
         <v>1.47</v>
@@ -7459,7 +7459,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR32" t="n">
         <v>0.71</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ34" t="n">
         <v>1</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ35" t="n">
         <v>2</v>
@@ -10977,13 +10977,13 @@
         <v>27</v>
       </c>
       <c r="BA48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB48" t="n">
         <v>4</v>
       </c>
       <c r="BC48" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD48" t="n">
         <v>1.97</v>
@@ -11241,6 +11241,660 @@
       </c>
       <c r="BP49" t="n">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>7217637</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X50" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>7217640</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="n">
+        <v>5</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['40', '75']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>['45', '52', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X51" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>7217638</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="n">
+        <v>4</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>['1', '15', '54', '62']</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X52" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ29" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>3</v>
       </c>
       <c r="AP45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ45" t="n">
         <v>2</v>
@@ -11895,6 +11895,224 @@
       </c>
       <c r="BP52" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>7217605</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45238.45833333334</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['33', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U53" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X53" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ16" t="n">
         <v>2.33</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ47" t="n">
         <v>0</v>
@@ -11165,7 +11165,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ49" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR49" t="n">
         <v>1.25</v>
@@ -12037,7 +12037,7 @@
         <v>2</v>
       </c>
       <c r="AQ53" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR53" t="n">
         <v>1.7</v>
@@ -12113,6 +12113,224 @@
       </c>
       <c r="BP53" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>7217624</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45241.5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>El Gounah</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X54" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP54"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4" t="n">
         <v>1</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.33</v>
@@ -3317,7 +3317,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR26" t="n">
         <v>1.86</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -7241,7 +7241,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR31" t="n">
         <v>1.64</v>
@@ -8328,7 +8328,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -9203,7 +9203,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR40" t="n">
         <v>1.93</v>
@@ -9639,7 +9639,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR42" t="n">
         <v>0.87</v>
@@ -12331,6 +12331,442 @@
       </c>
       <c r="BP54" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>7217648</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45258.45833333334</v>
+      </c>
+      <c r="F55" t="n">
+        <v>7</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['66', '86']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S55" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X55" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>7217652</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45258.58333333334</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X56" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
@@ -2009,7 +2009,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -2445,7 +2445,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.33</v>
@@ -3099,7 +3099,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ14" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR20" t="n">
         <v>1.49</v>
@@ -5058,10 +5058,10 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR21" t="n">
         <v>1.45</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.33</v>
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR24" t="n">
         <v>0.5</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25" t="n">
         <v>3</v>
@@ -7677,7 +7677,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR33" t="n">
         <v>1.37</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ35" t="n">
         <v>2</v>
@@ -8549,7 +8549,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR37" t="n">
         <v>1.09</v>
@@ -8764,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR38" t="n">
         <v>1.53</v>
@@ -8982,10 +8982,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR39" t="n">
         <v>1.88</v>
@@ -9418,7 +9418,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.33</v>
@@ -10511,7 +10511,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR46" t="n">
         <v>1.64</v>
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ50" t="n">
         <v>1</v>
@@ -12767,6 +12767,878 @@
       </c>
       <c r="BP56" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>7217646</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45259.58333333334</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['39', '45+3']</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X57" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>7217651</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45260.45833333334</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Masr</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V58" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X58" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>7217647</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45260.58333333334</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>El Gounah</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X59" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>7217653</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45260.58333333334</v>
+      </c>
+      <c r="F60" t="n">
+        <v>7</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X60" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ5" t="n">
         <v>1</v>
@@ -1791,7 +1791,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.5</v>
@@ -2663,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.33</v>
@@ -4189,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR19" t="n">
         <v>1.91</v>
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.5</v>
@@ -5279,7 +5279,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>1.48</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR23" t="n">
         <v>0.84</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
@@ -7895,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR34" t="n">
         <v>1.3</v>
@@ -8331,7 +8331,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR36" t="n">
         <v>1.58</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.75</v>
@@ -9421,7 +9421,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR41" t="n">
         <v>1.51</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.25</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.33</v>
@@ -10947,7 +10947,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR48" t="n">
         <v>1.29</v>
@@ -13639,6 +13639,878 @@
       </c>
       <c r="BP60" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>7217650</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45261.45833333334</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['36', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X61" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>7217654</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45261.45833333334</v>
+      </c>
+      <c r="F62" t="n">
+        <v>7</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Baladiyyat Al Mehalla</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V62" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X62" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>7217649</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45261.58333333334</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X63" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>7217661</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45264.58333333334</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['53', '59']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X64" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.25</v>
@@ -3753,7 +3753,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.33</v>
@@ -6369,7 +6369,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR27" t="n">
         <v>1.96</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR28" t="n">
         <v>1.47</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29" t="n">
         <v>0</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.33</v>
@@ -7459,7 +7459,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR32" t="n">
         <v>0.71</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.75</v>
@@ -10290,7 +10290,7 @@
         <v>3</v>
       </c>
       <c r="AP45" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ45" t="n">
         <v>2</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.75</v>
@@ -11383,7 +11383,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR50" t="n">
         <v>1.03</v>
@@ -11598,10 +11598,10 @@
         <v>0.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR51" t="n">
         <v>1.4</v>
@@ -11819,7 +11819,7 @@
         <v>2</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR52" t="n">
         <v>1.33</v>
@@ -12034,7 +12034,7 @@
         <v>3</v>
       </c>
       <c r="AP53" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ53" t="n">
         <v>2.33</v>
@@ -14510,6 +14510,660 @@
         <v>3.14</v>
       </c>
       <c r="BP64" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>7217659</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45265.45833333334</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Baladiyyat Al Mehalla</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['22', '27']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X65" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>7217656</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45265.58333333334</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['41', '73', '76', '88']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['87', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X66" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>7217657</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45265.58333333334</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['16', '67']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X67" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP67" t="n">
         <v>1.29</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.67</v>
@@ -3535,7 +3535,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -6805,7 +6805,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ33" t="n">
         <v>2</v>
@@ -10729,7 +10729,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR47" t="n">
         <v>1.25</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ49" t="n">
         <v>2.33</v>
@@ -14901,13 +14901,13 @@
         <v>13</v>
       </c>
       <c r="BA66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB66" t="n">
         <v>4</v>
       </c>
       <c r="BC66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD66" t="n">
         <v>1.66</v>
@@ -15165,6 +15165,224 @@
       </c>
       <c r="BP67" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>7217660</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45266.58333333334</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X68" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.75</v>
@@ -1791,7 +1791,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.25</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.75</v>
@@ -4625,7 +4625,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR19" t="n">
         <v>1.91</v>
@@ -5061,7 +5061,7 @@
         <v>2</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR21" t="n">
         <v>1.45</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.5</v>
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR24" t="n">
         <v>0.5</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.75</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.75</v>
@@ -7241,7 +7241,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR31" t="n">
         <v>1.64</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ35" t="n">
         <v>2</v>
@@ -8328,7 +8328,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.5</v>
@@ -8549,7 +8549,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR37" t="n">
         <v>1.09</v>
@@ -8767,7 +8767,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR38" t="n">
         <v>1.53</v>
@@ -9203,7 +9203,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR40" t="n">
         <v>1.93</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.25</v>
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.75</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.75</v>
@@ -12470,7 +12470,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.25</v>
@@ -12691,7 +12691,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR56" t="n">
         <v>1.65</v>
@@ -12906,10 +12906,10 @@
         <v>1.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR57" t="n">
         <v>1.03</v>
@@ -13345,7 +13345,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR59" t="n">
         <v>1.57</v>
@@ -13996,10 +13996,10 @@
         <v>2</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR62" t="n">
         <v>0.72</v>
@@ -15383,6 +15383,1096 @@
       </c>
       <c r="BP68" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>7217665</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45274.45833333334</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>El Gounah</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>2</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="n">
+        <v>5</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['52', '58']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['46', '62', '63']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X69" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>7217667</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45274.45833333334</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X70" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>7217672</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45274.58333333334</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Baladiyyat Al Mehalla</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="n">
+        <v>4</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['22', '46']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['32', '75']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S71" t="n">
+        <v>8</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V71" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X71" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>7217664</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45274.58333333334</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['45+6']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X72" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>7217670</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45275.45833333334</v>
+      </c>
+      <c r="F73" t="n">
+        <v>9</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X73" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.75</v>
@@ -1137,7 +1137,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -3099,7 +3099,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.75</v>
@@ -3971,7 +3971,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
         <v>1.49</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ25" t="n">
         <v>3</v>
@@ -6151,7 +6151,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR26" t="n">
         <v>1.86</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.75</v>
@@ -7677,7 +7677,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR33" t="n">
         <v>1.37</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.4</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.8</v>
@@ -8985,7 +8985,7 @@
         <v>2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR39" t="n">
         <v>1.88</v>
@@ -9418,7 +9418,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41" t="n">
         <v>1</v>
@@ -9639,7 +9639,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR42" t="n">
         <v>0.87</v>
@@ -10511,7 +10511,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR46" t="n">
         <v>1.64</v>
@@ -12473,7 +12473,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR55" t="n">
         <v>1.77</v>
@@ -13127,7 +13127,7 @@
         <v>2</v>
       </c>
       <c r="AQ58" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR58" t="n">
         <v>1.87</v>
@@ -13342,7 +13342,7 @@
         <v>1.67</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.8</v>
@@ -13560,10 +13560,10 @@
         <v>0.33</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR60" t="n">
         <v>1.6</v>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.5</v>
@@ -16473,6 +16473,660 @@
       </c>
       <c r="BP73" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>7217671</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45275.54166666666</v>
+      </c>
+      <c r="F74" t="n">
+        <v>9</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['45+3', '62']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X74" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7217669</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45275.54166666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>9</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Masr</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['60', '66']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X75" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>7217666</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45276.58333333334</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="V76" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X76" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -13646,7 +13646,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>7217650</v>
+        <v>7217654</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -13666,197 +13666,197 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>El Daklyeh FC</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Baladiyyat Al Mehalla</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>['50']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>['36', '90+3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R61" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="S61" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="T61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X61" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK61" t="n">
         <v>1.48</v>
       </c>
-      <c r="U61" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="V61" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="W61" t="n">
+      <c r="AL61" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AN61" t="n">
         <v>1.33</v>
       </c>
-      <c r="X61" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>2.33</v>
-      </c>
       <c r="AO61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP61" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.5</v>
       </c>
       <c r="AR61" t="n">
-        <v>1.25</v>
+        <v>0.72</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.04</v>
+        <v>1.47</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.29</v>
+        <v>2.19</v>
       </c>
       <c r="AU61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV61" t="n">
         <v>4</v>
       </c>
       <c r="AW61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX61" t="n">
         <v>3</v>
       </c>
       <c r="AY61" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ61" t="n">
         <v>7</v>
       </c>
       <c r="BA61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD61" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="BE61" t="n">
-        <v>8.300000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="BF61" t="n">
-        <v>2.03</v>
+        <v>2.22</v>
       </c>
       <c r="BG61" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="BH61" t="n">
-        <v>3.04</v>
+        <v>2.6</v>
       </c>
       <c r="BI61" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="BJ61" t="n">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="BK61" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="BL61" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="BM61" t="n">
-        <v>2.64</v>
+        <v>2.85</v>
       </c>
       <c r="BN61" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="BO61" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="BP61" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="62">
@@ -13864,7 +13864,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>7217654</v>
+        <v>7217650</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -13884,197 +13884,197 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>El Daklyeh FC</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Baladiyyat Al Mehalla</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['50']</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['36', '90+3']</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R62" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="S62" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V62" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X62" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB62" t="n">
         <v>3.2</v>
       </c>
-      <c r="T62" t="n">
+      <c r="AC62" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE62" t="n">
         <v>1.44</v>
       </c>
-      <c r="U62" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="V62" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="W62" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X62" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AF62" t="n">
-        <v>2.93</v>
+        <v>3.1</v>
       </c>
       <c r="AG62" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AH62" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AI62" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AK62" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AL62" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="AM62" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AN62" t="n">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AO62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.5</v>
       </c>
       <c r="AR62" t="n">
-        <v>0.72</v>
+        <v>1.25</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.47</v>
+        <v>1.04</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.19</v>
+        <v>2.29</v>
       </c>
       <c r="AU62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV62" t="n">
         <v>4</v>
       </c>
       <c r="AW62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX62" t="n">
         <v>3</v>
       </c>
       <c r="AY62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ62" t="n">
         <v>7</v>
       </c>
       <c r="BA62" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC62" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD62" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="BE62" t="n">
-        <v>6.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF62" t="n">
-        <v>2.22</v>
+        <v>2.03</v>
       </c>
       <c r="BG62" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="BH62" t="n">
-        <v>2.6</v>
+        <v>3.04</v>
       </c>
       <c r="BI62" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="BJ62" t="n">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="BK62" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="BL62" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="BM62" t="n">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="BN62" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="BO62" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="BP62" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="63">
@@ -16480,7 +16480,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>7217671</v>
+        <v>7217669</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -16500,22 +16500,22 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Masr</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
         <v>1</v>
@@ -16533,164 +16533,164 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>['45+3', '62']</t>
+          <t>['60', '66']</t>
         </is>
       </c>
       <c r="Q74" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S74" t="n">
         <v>3.25</v>
       </c>
-      <c r="R74" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S74" t="n">
-        <v>4</v>
-      </c>
       <c r="T74" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="U74" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V74" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="W74" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X74" t="n">
-        <v>10.5</v>
+        <v>9.9</v>
       </c>
       <c r="Y74" t="n">
         <v>1.03</v>
       </c>
       <c r="Z74" t="n">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="AA74" t="n">
         <v>2.75</v>
       </c>
       <c r="AB74" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="AC74" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AD74" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV74" t="n">
         <v>6</v>
       </c>
-      <c r="AE74" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AU74" t="n">
+      <c r="AW74" t="n">
         <v>5</v>
       </c>
-      <c r="AV74" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>6</v>
-      </c>
       <c r="AX74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY74" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC74" t="n">
         <v>11</v>
       </c>
-      <c r="AZ74" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA74" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC74" t="n">
-        <v>9</v>
-      </c>
       <c r="BD74" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI74" t="n">
         <v>1.9</v>
       </c>
-      <c r="BE74" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BF74" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="BG74" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BH74" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI74" t="n">
-        <v>1.63</v>
-      </c>
       <c r="BJ74" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="BK74" t="n">
-        <v>2.01</v>
+        <v>2.4</v>
       </c>
       <c r="BL74" t="n">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="BM74" t="n">
-        <v>2.56</v>
+        <v>3.34</v>
       </c>
       <c r="BN74" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="BO74" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="BP74" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="75">
@@ -16698,7 +16698,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>7217669</v>
+        <v>7217671</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -16718,22 +16718,22 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Masr</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L75" t="n">
         <v>1</v>
@@ -16751,164 +16751,164 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>['60', '66']</t>
+          <t>['45+3', '62']</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="R75" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S75" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T75" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="U75" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V75" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="W75" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X75" t="n">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="Y75" t="n">
         <v>1.03</v>
       </c>
       <c r="Z75" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="AA75" t="n">
         <v>2.75</v>
       </c>
       <c r="AB75" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="AC75" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AD75" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="AE75" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AF75" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="AG75" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AH75" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AI75" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AJ75" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AK75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BN75" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL75" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC75" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD75" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BE75" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF75" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BG75" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BH75" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="BI75" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BJ75" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BK75" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BL75" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BM75" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="BN75" t="n">
-        <v>1.26</v>
-      </c>
       <c r="BO75" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="BP75" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="76">

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.2</v>
@@ -1573,7 +1573,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ10" t="n">
         <v>1</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.2</v>
@@ -3535,7 +3535,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ16" t="n">
         <v>2.2</v>
@@ -4189,7 +4189,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.5</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.8</v>
@@ -6369,7 +6369,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR27" t="n">
         <v>1.96</v>
@@ -6805,7 +6805,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.33</v>
@@ -7459,7 +7459,7 @@
         <v>2</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR32" t="n">
         <v>0.71</v>
@@ -7895,7 +7895,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR34" t="n">
         <v>1.3</v>
@@ -8982,7 +8982,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ39" t="n">
         <v>1</v>
@@ -9200,7 +9200,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.2</v>
@@ -10726,10 +10726,10 @@
         <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR47" t="n">
         <v>1.25</v>
@@ -10944,10 +10944,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR48" t="n">
         <v>1.29</v>
@@ -11383,7 +11383,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR50" t="n">
         <v>1.03</v>
@@ -11819,7 +11819,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR52" t="n">
         <v>1.33</v>
@@ -12252,7 +12252,7 @@
         <v>3</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ54" t="n">
         <v>2.33</v>
@@ -13124,7 +13124,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ58" t="n">
         <v>2.2</v>
@@ -13646,7 +13646,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>7217654</v>
+        <v>7217650</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -13666,197 +13666,197 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>El Daklyeh FC</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Baladiyyat Al Mehalla</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['50']</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['36', '90+3']</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R61" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="S61" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X61" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB61" t="n">
         <v>3.2</v>
       </c>
-      <c r="T61" t="n">
+      <c r="AC61" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE61" t="n">
         <v>1.44</v>
       </c>
-      <c r="U61" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="V61" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="W61" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X61" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AF61" t="n">
-        <v>2.93</v>
+        <v>3.1</v>
       </c>
       <c r="AG61" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AH61" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AI61" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AK61" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AL61" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="AM61" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AN61" t="n">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AO61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.5</v>
       </c>
       <c r="AR61" t="n">
-        <v>0.72</v>
+        <v>1.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.47</v>
+        <v>1.04</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.19</v>
+        <v>2.29</v>
       </c>
       <c r="AU61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV61" t="n">
         <v>4</v>
       </c>
       <c r="AW61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX61" t="n">
         <v>3</v>
       </c>
       <c r="AY61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ61" t="n">
         <v>7</v>
       </c>
       <c r="BA61" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD61" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="BE61" t="n">
-        <v>6.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF61" t="n">
-        <v>2.22</v>
+        <v>2.03</v>
       </c>
       <c r="BG61" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="BH61" t="n">
-        <v>2.6</v>
+        <v>3.04</v>
       </c>
       <c r="BI61" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="BJ61" t="n">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="BK61" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="BL61" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="BM61" t="n">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="BN61" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="BO61" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="BP61" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="62">
@@ -13864,7 +13864,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>7217650</v>
+        <v>7217654</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -13884,197 +13884,197 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>El Daklyeh FC</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Baladiyyat Al Mehalla</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['50']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>['36', '90+3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R62" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="S62" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="T62" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V62" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X62" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK62" t="n">
         <v>1.48</v>
       </c>
-      <c r="U62" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="V62" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="W62" t="n">
+      <c r="AL62" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AN62" t="n">
         <v>1.33</v>
       </c>
-      <c r="X62" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>2.33</v>
-      </c>
       <c r="AO62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP62" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.5</v>
       </c>
       <c r="AR62" t="n">
-        <v>1.25</v>
+        <v>0.72</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.04</v>
+        <v>1.47</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.29</v>
+        <v>2.19</v>
       </c>
       <c r="AU62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV62" t="n">
         <v>4</v>
       </c>
       <c r="AW62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX62" t="n">
         <v>3</v>
       </c>
       <c r="AY62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ62" t="n">
         <v>7</v>
       </c>
       <c r="BA62" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD62" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="BE62" t="n">
-        <v>8.300000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="BF62" t="n">
-        <v>2.03</v>
+        <v>2.22</v>
       </c>
       <c r="BG62" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="BH62" t="n">
-        <v>3.04</v>
+        <v>2.6</v>
       </c>
       <c r="BI62" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="BJ62" t="n">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="BK62" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="BL62" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="BM62" t="n">
-        <v>2.64</v>
+        <v>2.85</v>
       </c>
       <c r="BN62" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="BO62" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="BP62" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="63">
@@ -14435,7 +14435,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR64" t="n">
         <v>1.99</v>
@@ -14650,7 +14650,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.75</v>
@@ -14871,7 +14871,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR66" t="n">
         <v>1.79</v>
@@ -15089,7 +15089,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR67" t="n">
         <v>1.58</v>
@@ -15307,7 +15307,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR68" t="n">
         <v>1.09</v>
@@ -16480,7 +16480,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>7217669</v>
+        <v>7217671</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -16500,22 +16500,22 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Masr</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74" t="n">
         <v>1</v>
@@ -16533,164 +16533,164 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>['60', '66']</t>
+          <t>['45+3', '62']</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="R74" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S74" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T74" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="U74" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V74" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="W74" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X74" t="n">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="Y74" t="n">
         <v>1.03</v>
       </c>
       <c r="Z74" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="AA74" t="n">
         <v>2.75</v>
       </c>
       <c r="AB74" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="AC74" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AD74" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="AE74" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AF74" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="AG74" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AH74" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AI74" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AJ74" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AK74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BN74" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL74" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ74" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA74" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC74" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD74" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BE74" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF74" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BG74" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BH74" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="BI74" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BJ74" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BK74" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BL74" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BM74" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="BN74" t="n">
-        <v>1.26</v>
-      </c>
       <c r="BO74" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="BP74" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="75">
@@ -16698,7 +16698,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>7217671</v>
+        <v>7217669</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -16718,22 +16718,22 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Masr</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
         <v>1</v>
@@ -16751,164 +16751,164 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>['45+3', '62']</t>
+          <t>['60', '66']</t>
         </is>
       </c>
       <c r="Q75" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S75" t="n">
         <v>3.25</v>
       </c>
-      <c r="R75" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S75" t="n">
-        <v>4</v>
-      </c>
       <c r="T75" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="U75" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V75" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="W75" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X75" t="n">
-        <v>10.5</v>
+        <v>9.9</v>
       </c>
       <c r="Y75" t="n">
         <v>1.03</v>
       </c>
       <c r="Z75" t="n">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="AA75" t="n">
         <v>2.75</v>
       </c>
       <c r="AB75" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="AC75" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AD75" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV75" t="n">
         <v>6</v>
       </c>
-      <c r="AE75" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AU75" t="n">
+      <c r="AW75" t="n">
         <v>5</v>
       </c>
-      <c r="AV75" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>6</v>
-      </c>
       <c r="AX75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY75" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC75" t="n">
         <v>11</v>
       </c>
-      <c r="AZ75" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC75" t="n">
-        <v>9</v>
-      </c>
       <c r="BD75" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI75" t="n">
         <v>1.9</v>
       </c>
-      <c r="BE75" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BF75" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="BG75" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BH75" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI75" t="n">
-        <v>1.63</v>
-      </c>
       <c r="BJ75" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="BK75" t="n">
-        <v>2.01</v>
+        <v>2.4</v>
       </c>
       <c r="BL75" t="n">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="BM75" t="n">
-        <v>2.56</v>
+        <v>3.34</v>
       </c>
       <c r="BN75" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="BO75" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="BP75" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="76">
@@ -17127,6 +17127,878 @@
       </c>
       <c r="BP76" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>7217675</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45285.45833333334</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>El Gounah</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="n">
+        <v>3</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['8', '85']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X77" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>7217676</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45285.58333333334</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Baladiyyat Al Mehalla</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['68', '84']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X78" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>7217680</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45286.58333333334</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>2</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2</v>
+      </c>
+      <c r="L79" t="n">
+        <v>3</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>4</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['14', '23', '84']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V79" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X79" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>7217679</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45287.45833333334</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Masr</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>4</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['45+6', '67', '73']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S80" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X80" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.2</v>
@@ -1791,7 +1791,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.8</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -3099,7 +3099,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR19" t="n">
         <v>1.91</v>
@@ -4840,10 +4840,10 @@
         <v>1</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR20" t="n">
         <v>1.49</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.4</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25" t="n">
         <v>3</v>
@@ -6587,7 +6587,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR28" t="n">
         <v>1.47</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.2</v>
@@ -7677,7 +7677,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR33" t="n">
         <v>1.37</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.4</v>
@@ -8985,7 +8985,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR39" t="n">
         <v>1.88</v>
@@ -9418,7 +9418,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41" t="n">
         <v>1</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ43" t="n">
         <v>3</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.33</v>
@@ -10511,7 +10511,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR46" t="n">
         <v>1.64</v>
@@ -11601,7 +11601,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR51" t="n">
         <v>1.4</v>
@@ -13127,7 +13127,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ58" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR58" t="n">
         <v>1.87</v>
@@ -13342,7 +13342,7 @@
         <v>1.67</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.8</v>
@@ -13563,7 +13563,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR60" t="n">
         <v>1.6</v>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.5</v>
@@ -13999,7 +13999,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR62" t="n">
         <v>0.72</v>
@@ -14214,7 +14214,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ63" t="n">
         <v>1</v>
@@ -14432,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.6</v>
@@ -14653,7 +14653,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR65" t="n">
         <v>1.29</v>
@@ -15522,7 +15522,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.8</v>
@@ -15961,7 +15961,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR71" t="n">
         <v>1.79</v>
@@ -16612,10 +16612,10 @@
         <v>0.5</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR74" t="n">
         <v>1.43</v>
@@ -16833,7 +16833,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR75" t="n">
         <v>1.58</v>
@@ -17048,7 +17048,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.2</v>
@@ -17999,6 +17999,878 @@
       </c>
       <c r="BP80" t="n">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>7217678</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45287.58333333334</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V81" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X81" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>7217689</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45290.45833333334</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>4</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['58', '62', '90+5']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X82" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>7217687</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45290.58333333334</v>
+      </c>
+      <c r="F83" t="n">
+        <v>11</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Masr</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V83" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X83" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>7217690</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45290.58333333334</v>
+      </c>
+      <c r="F84" t="n">
+        <v>11</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Baladiyyat Al Mehalla</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>3</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3</v>
+      </c>
+      <c r="L84" t="n">
+        <v>3</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>3</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['10', '19', '44']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X84" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.2</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.6</v>
@@ -4407,7 +4407,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.5</v>
@@ -6151,7 +6151,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR26" t="n">
         <v>1.86</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.4</v>
@@ -7023,7 +7023,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR30" t="n">
         <v>1.43</v>
@@ -9636,10 +9636,10 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR42" t="n">
         <v>0.87</v>
@@ -10075,7 +10075,7 @@
         <v>2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR44" t="n">
         <v>1.77</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.2</v>
@@ -12473,7 +12473,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR55" t="n">
         <v>1.77</v>
@@ -13996,7 +13996,7 @@
         <v>2</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.2</v>
@@ -16176,7 +16176,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.4</v>
@@ -16394,7 +16394,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.2</v>
@@ -17051,7 +17051,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR76" t="n">
         <v>1.18</v>
@@ -18871,6 +18871,442 @@
       </c>
       <c r="BP84" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>7217686</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45292.45833333334</v>
+      </c>
+      <c r="F85" t="n">
+        <v>11</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V85" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X85" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>7217684</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45292.58333333334</v>
+      </c>
+      <c r="F86" t="n">
+        <v>11</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V86" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X86" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -16480,7 +16480,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>7217671</v>
+        <v>7217669</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -16500,22 +16500,22 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Masr</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
         <v>1</v>
@@ -16533,164 +16533,164 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>['45+3', '62']</t>
+          <t>['60', '66']</t>
         </is>
       </c>
       <c r="Q74" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S74" t="n">
         <v>3.25</v>
       </c>
-      <c r="R74" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S74" t="n">
-        <v>4</v>
-      </c>
       <c r="T74" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="U74" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V74" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="W74" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X74" t="n">
-        <v>10.5</v>
+        <v>9.9</v>
       </c>
       <c r="Y74" t="n">
         <v>1.03</v>
       </c>
       <c r="Z74" t="n">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="AA74" t="n">
         <v>2.75</v>
       </c>
       <c r="AB74" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="AC74" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AD74" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV74" t="n">
         <v>6</v>
       </c>
-      <c r="AE74" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AU74" t="n">
+      <c r="AW74" t="n">
         <v>5</v>
       </c>
-      <c r="AV74" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>6</v>
-      </c>
       <c r="AX74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY74" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC74" t="n">
         <v>11</v>
       </c>
-      <c r="AZ74" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA74" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC74" t="n">
-        <v>9</v>
-      </c>
       <c r="BD74" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI74" t="n">
         <v>1.9</v>
       </c>
-      <c r="BE74" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BF74" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="BG74" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BH74" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI74" t="n">
-        <v>1.63</v>
-      </c>
       <c r="BJ74" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="BK74" t="n">
-        <v>2.01</v>
+        <v>2.4</v>
       </c>
       <c r="BL74" t="n">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="BM74" t="n">
-        <v>2.56</v>
+        <v>3.34</v>
       </c>
       <c r="BN74" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="BO74" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="BP74" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="75">
@@ -16698,7 +16698,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>7217669</v>
+        <v>7217671</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -16718,22 +16718,22 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Masr</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L75" t="n">
         <v>1</v>
@@ -16751,164 +16751,164 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>['60', '66']</t>
+          <t>['45+3', '62']</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="R75" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S75" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T75" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="U75" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V75" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="W75" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X75" t="n">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="Y75" t="n">
         <v>1.03</v>
       </c>
       <c r="Z75" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="AA75" t="n">
         <v>2.75</v>
       </c>
       <c r="AB75" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="AC75" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AD75" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="AE75" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AF75" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="AG75" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AH75" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AI75" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AJ75" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AK75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BN75" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL75" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC75" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD75" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BE75" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF75" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BG75" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BH75" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="BI75" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BJ75" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BK75" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BL75" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BM75" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="BN75" t="n">
-        <v>1.26</v>
-      </c>
       <c r="BO75" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="BP75" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="76">
@@ -18442,7 +18442,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>7217687</v>
+        <v>7217690</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -18462,35 +18462,35 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Masr</t>
+          <t>Baladiyyat Al Mehalla</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>['90+5']</t>
+          <t>['10', '19', '44']</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -18499,160 +18499,160 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="R83" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S83" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V83" t="n">
         <v>3.25</v>
       </c>
-      <c r="T83" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U83" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V83" t="n">
-        <v>3.7</v>
-      </c>
       <c r="W83" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="X83" t="n">
         <v>9</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z83" t="n">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="AA83" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AB83" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="AC83" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AD83" t="n">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="AE83" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO83" t="n">
         <v>1.5</v>
       </c>
-      <c r="AF83" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL83" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM83" t="n">
+      <c r="AP83" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN83" t="n">
         <v>1.38</v>
       </c>
-      <c r="AN83" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AO83" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AP83" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AQ83" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AR83" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS83" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AT83" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AU83" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV83" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW83" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX83" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY83" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ83" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA83" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB83" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC83" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD83" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE83" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="BF83" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BG83" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="BH83" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BI83" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ83" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="BK83" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BL83" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="BM83" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BN83" t="n">
-        <v>1.25</v>
-      </c>
       <c r="BO83" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="BP83" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="84">
@@ -18660,7 +18660,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>7217690</v>
+        <v>7217687</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -18680,35 +18680,35 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Baladiyyat Al Mehalla</t>
+          <t>Masr</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>['10', '19', '44']</t>
+          <t>['90+5']</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -18717,160 +18717,160 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="R84" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S84" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="T84" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="U84" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="V84" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="W84" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="X84" t="n">
         <v>9</v>
       </c>
       <c r="Y84" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Z84" t="n">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="AA84" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV84" t="n">
         <v>3</v>
       </c>
-      <c r="AB84" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK84" t="n">
+      <c r="AW84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN84" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL84" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO84" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AP84" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AQ84" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AR84" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AS84" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AT84" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AU84" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV84" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW84" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX84" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY84" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ84" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA84" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB84" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC84" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD84" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="BE84" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BF84" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="BG84" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BH84" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="BI84" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BJ84" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK84" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BL84" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BM84" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BN84" t="n">
-        <v>1.38</v>
-      </c>
       <c r="BO84" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="BP84" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="85">

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -934,19 +934,19 @@
         <v>4</v>
       </c>
       <c r="AV2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW2" t="n">
         <v>3</v>
       </c>
-      <c r="AW2" t="n">
-        <v>4</v>
-      </c>
       <c r="AX2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA2" t="n">
         <v>4</v>
@@ -1367,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>2</v>
       </c>
       <c r="AW4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
         <v>2</v>
@@ -1588,19 +1588,19 @@
         <v>3</v>
       </c>
       <c r="AV5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA5" t="n">
         <v>0</v>
@@ -1803,31 +1803,31 @@
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC6" t="n">
         <v>9</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>8</v>
       </c>
       <c r="BD6" t="n">
         <v>1.83</v>
@@ -2024,19 +2024,19 @@
         <v>5</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>13</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>21</v>
       </c>
       <c r="BA7" t="n">
         <v>5</v>
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV8" t="n">
         <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
         <v>5</v>
       </c>
       <c r="AY8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AZ8" t="n">
         <v>9</v>
@@ -2260,10 +2260,10 @@
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>2.3</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX9" t="n">
         <v>2</v>
@@ -2472,7 +2472,7 @@
         <v>18</v>
       </c>
       <c r="AZ9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA9" t="n">
         <v>13</v>
@@ -2675,22 +2675,22 @@
         <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV10" t="n">
         <v>5</v>
       </c>
       <c r="AW10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX10" t="n">
         <v>5</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AY10" t="n">
         <v>7</v>
       </c>
-      <c r="AY10" t="n">
-        <v>11</v>
-      </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA10" t="n">
         <v>2</v>
@@ -2896,19 +2896,19 @@
         <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA11" t="n">
         <v>4</v>
@@ -3117,25 +3117,25 @@
         <v>4</v>
       </c>
       <c r="AW12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
         <v>6</v>
       </c>
       <c r="AY12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ12" t="n">
         <v>10</v>
       </c>
       <c r="BA12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB12" t="n">
         <v>9</v>
       </c>
       <c r="BC12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD12" t="n">
         <v>1.48</v>
@@ -3329,13 +3329,13 @@
         <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX13" t="n">
         <v>5</v>
@@ -3344,16 +3344,16 @@
         <v>9</v>
       </c>
       <c r="AZ13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB13" t="n">
         <v>6</v>
       </c>
       <c r="BC13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD13" t="n">
         <v>1.78</v>
@@ -3547,22 +3547,22 @@
         <v>0</v>
       </c>
       <c r="AU14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV14" t="n">
         <v>5</v>
       </c>
-      <c r="AV14" t="n">
-        <v>4</v>
-      </c>
       <c r="AW14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3765,19 +3765,19 @@
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AZ15" t="n">
         <v>10</v>
@@ -3989,16 +3989,16 @@
         <v>8</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
         <v>6</v>
@@ -4419,10 +4419,10 @@
         <v>0</v>
       </c>
       <c r="AU18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV18" t="n">
         <v>6</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>5</v>
       </c>
       <c r="AW18" t="n">
         <v>4</v>
@@ -4431,10 +4431,10 @@
         <v>6</v>
       </c>
       <c r="AY18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA18" t="n">
         <v>4</v>
@@ -4631,10 +4631,10 @@
         <v>1.91</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.55</v>
+        <v>3.57</v>
       </c>
       <c r="AU19" t="n">
         <v>8</v>
@@ -4846,31 +4846,31 @@
         <v>0.83</v>
       </c>
       <c r="AR20" t="n">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
       <c r="AS20" t="n">
         <v>1.25</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.74</v>
+        <v>2.56</v>
       </c>
       <c r="AU20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX20" t="n">
         <v>7</v>
       </c>
-      <c r="AW20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX20" t="n">
+      <c r="AY20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>13</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>20</v>
       </c>
       <c r="BA20" t="n">
         <v>7</v>
@@ -5064,13 +5064,13 @@
         <v>1.8</v>
       </c>
       <c r="AR21" t="n">
-        <v>1.45</v>
+        <v>1.13</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.3</v>
+        <v>1.66</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.75</v>
+        <v>2.79</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
@@ -5282,31 +5282,31 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.16</v>
+        <v>2.78</v>
       </c>
       <c r="AU22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV22" t="n">
         <v>14</v>
       </c>
       <c r="AW22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX22" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AY22" t="n">
         <v>12</v>
       </c>
       <c r="AZ22" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -5500,16 +5500,16 @@
         <v>1.5</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.84</v>
+        <v>0.65</v>
       </c>
       <c r="AS23" t="n">
         <v>0.64</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="AU23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV23" t="n">
         <v>6</v>
@@ -5518,13 +5518,13 @@
         <v>4</v>
       </c>
       <c r="AX23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
         <v>3</v>
@@ -5718,16 +5718,16 @@
         <v>1.4</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AU24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV24" t="n">
         <v>9</v>
@@ -5739,7 +5739,7 @@
         <v>7</v>
       </c>
       <c r="AY24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ24" t="n">
         <v>16</v>
@@ -5936,13 +5936,13 @@
         <v>3</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AS25" t="n">
         <v>1.34</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="AU25" t="n">
         <v>5</v>
@@ -6154,31 +6154,31 @@
         <v>0.33</v>
       </c>
       <c r="AR26" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AS26" t="n">
         <v>1.1</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="AU26" t="n">
         <v>7</v>
       </c>
       <c r="AV26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX26" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ26" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BA26" t="n">
         <v>3</v>
@@ -6372,31 +6372,31 @@
         <v>1.2</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.61</v>
+        <v>4.01</v>
       </c>
       <c r="AU27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
       </c>
       <c r="AW27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ27" t="n">
         <v>8</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>7</v>
       </c>
       <c r="BA27" t="n">
         <v>3</v>
@@ -6593,28 +6593,28 @@
         <v>1.47</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.77</v>
+        <v>2.84</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY28" t="n">
         <v>8</v>
       </c>
-      <c r="AX28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>10</v>
-      </c>
       <c r="AZ28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA28" t="n">
         <v>3</v>
@@ -6811,10 +6811,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AU29" t="n">
         <v>10</v>
@@ -6823,16 +6823,16 @@
         <v>3</v>
       </c>
       <c r="AW29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ29" t="n">
         <v>7</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>9</v>
       </c>
       <c r="BA29" t="n">
         <v>1</v>
@@ -7026,28 +7026,28 @@
         <v>1.75</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.99</v>
+        <v>3.2</v>
       </c>
       <c r="AU30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV30" t="n">
         <v>5</v>
       </c>
       <c r="AW30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX30" t="n">
         <v>8</v>
       </c>
       <c r="AY30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ30" t="n">
         <v>13</v>
@@ -7244,13 +7244,13 @@
         <v>1.2</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.11</v>
+        <v>2.86</v>
       </c>
       <c r="AU31" t="n">
         <v>7</v>
@@ -7262,13 +7262,13 @@
         <v>6</v>
       </c>
       <c r="AX31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY31" t="n">
         <v>13</v>
       </c>
       <c r="AZ31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA31" t="n">
         <v>5</v>
@@ -7462,31 +7462,31 @@
         <v>1.2</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.71</v>
+        <v>0.38</v>
       </c>
       <c r="AS32" t="n">
         <v>1.47</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.18</v>
+        <v>1.85</v>
       </c>
       <c r="AU32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV32" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW32" t="n">
         <v>5</v>
       </c>
       <c r="AX32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ32" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA32" t="n">
         <v>6</v>
@@ -7680,13 +7680,13 @@
         <v>1.83</v>
       </c>
       <c r="AR33" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.38</v>
+        <v>3.19</v>
       </c>
       <c r="AU33" t="n">
         <v>5</v>
@@ -7898,13 +7898,13 @@
         <v>0.6</v>
       </c>
       <c r="AR34" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AS34" t="n">
         <v>1.02</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.32</v>
+        <v>2.19</v>
       </c>
       <c r="AU34" t="n">
         <v>4</v>
@@ -7925,13 +7925,13 @@
         <v>6</v>
       </c>
       <c r="BA34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB34" t="n">
         <v>2</v>
       </c>
       <c r="BC34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD34" t="n">
         <v>1.78</v>
@@ -8116,13 +8116,13 @@
         <v>2</v>
       </c>
       <c r="AR35" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.07</v>
+        <v>1.74</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.71</v>
+        <v>3.46</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -8334,31 +8334,31 @@
         <v>1.5</v>
       </c>
       <c r="AR36" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="AU36" t="n">
         <v>8</v>
       </c>
       <c r="AV36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY36" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ36" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA36" t="n">
         <v>5</v>
@@ -8552,31 +8552,31 @@
         <v>1.4</v>
       </c>
       <c r="AR37" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="AU37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX37" t="n">
         <v>8</v>
       </c>
-      <c r="AW37" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>9</v>
-      </c>
       <c r="AY37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ37" t="n">
         <v>14</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>17</v>
       </c>
       <c r="BA37" t="n">
         <v>4</v>
@@ -8770,28 +8770,28 @@
         <v>1.8</v>
       </c>
       <c r="AR38" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.97</v>
+        <v>1.65</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.5</v>
+        <v>3.02</v>
       </c>
       <c r="AU38" t="n">
         <v>6</v>
       </c>
       <c r="AV38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW38" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY38" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ38" t="n">
         <v>11</v>
@@ -8988,31 +8988,31 @@
         <v>0.83</v>
       </c>
       <c r="AR39" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.61</v>
+        <v>3.2</v>
       </c>
       <c r="AU39" t="n">
         <v>6</v>
       </c>
       <c r="AV39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW39" t="n">
         <v>8</v>
       </c>
-      <c r="AW39" t="n">
-        <v>11</v>
-      </c>
       <c r="AX39" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY39" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA39" t="n">
         <v>4</v>
@@ -9209,28 +9209,28 @@
         <v>1.93</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.52</v>
+        <v>3.48</v>
       </c>
       <c r="AU40" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW40" t="n">
         <v>13</v>
       </c>
       <c r="AX40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY40" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ40" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA40" t="n">
         <v>9</v>
@@ -9424,31 +9424,31 @@
         <v>1</v>
       </c>
       <c r="AR41" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="AT41" t="n">
-        <v>3.85</v>
+        <v>3.64</v>
       </c>
       <c r="AU41" t="n">
         <v>8</v>
       </c>
       <c r="AV41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX41" t="n">
         <v>6</v>
       </c>
       <c r="AY41" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ41" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA41" t="n">
         <v>2</v>
@@ -9642,31 +9642,31 @@
         <v>0.33</v>
       </c>
       <c r="AR42" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="AU42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY42" t="n">
         <v>5</v>
       </c>
-      <c r="AW42" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>3</v>
-      </c>
       <c r="AZ42" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA42" t="n">
         <v>2</v>
@@ -9860,16 +9860,16 @@
         <v>3</v>
       </c>
       <c r="AR43" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="AS43" t="n">
         <v>1.29</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="AU43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV43" t="n">
         <v>4</v>
@@ -9878,13 +9878,13 @@
         <v>4</v>
       </c>
       <c r="AX43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ43" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>9</v>
       </c>
       <c r="BA43" t="n">
         <v>3</v>
@@ -10078,28 +10078,28 @@
         <v>1.75</v>
       </c>
       <c r="AR44" t="n">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="AT44" t="n">
-        <v>3.4</v>
+        <v>3.02</v>
       </c>
       <c r="AU44" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV44" t="n">
         <v>4</v>
       </c>
       <c r="AW44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX44" t="n">
         <v>4</v>
       </c>
       <c r="AY44" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ44" t="n">
         <v>8</v>
@@ -10296,31 +10296,31 @@
         <v>2</v>
       </c>
       <c r="AR45" t="n">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.84</v>
+        <v>3.49</v>
       </c>
       <c r="AU45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV45" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX45" t="n">
         <v>9</v>
       </c>
-      <c r="AW45" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>15</v>
-      </c>
       <c r="AY45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ45" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="BA45" t="n">
         <v>0</v>
@@ -10514,31 +10514,31 @@
         <v>1.83</v>
       </c>
       <c r="AR46" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="AT46" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
       <c r="AU46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW46" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AX46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ46" t="n">
         <v>10</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>13</v>
       </c>
       <c r="BA46" t="n">
         <v>4</v>
@@ -10732,13 +10732,13 @@
         <v>0.2</v>
       </c>
       <c r="AR47" t="n">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.36</v>
+        <v>2.13</v>
       </c>
       <c r="AU47" t="n">
         <v>9</v>
@@ -10950,19 +10950,19 @@
         <v>0.6</v>
       </c>
       <c r="AR48" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AS48" t="n">
         <v>0.89</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="AU48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV48" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AW48" t="n">
         <v>2</v>
@@ -10971,10 +10971,10 @@
         <v>16</v>
       </c>
       <c r="AY48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ48" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BA48" t="n">
         <v>3</v>
@@ -11168,19 +11168,19 @@
         <v>2.33</v>
       </c>
       <c r="AR49" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AS49" t="n">
         <v>0</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU49" t="n">
         <v>3</v>
       </c>
       <c r="AV49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW49" t="n">
         <v>3</v>
@@ -11192,7 +11192,7 @@
         <v>6</v>
       </c>
       <c r="AZ49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA49" t="n">
         <v>2</v>
@@ -11386,13 +11386,13 @@
         <v>1.2</v>
       </c>
       <c r="AR50" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="AU50" t="n">
         <v>3</v>
@@ -11604,13 +11604,13 @@
         <v>1.4</v>
       </c>
       <c r="AR51" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.59</v>
+        <v>2.4</v>
       </c>
       <c r="AU51" t="n">
         <v>8</v>
@@ -11822,31 +11822,31 @@
         <v>1.2</v>
       </c>
       <c r="AR52" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.84</v>
+        <v>2.51</v>
       </c>
       <c r="AU52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW52" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ52" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA52" t="n">
         <v>8</v>
@@ -12040,40 +12040,40 @@
         <v>2.33</v>
       </c>
       <c r="AR53" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="AT53" t="n">
-        <v>3.18</v>
+        <v>2.96</v>
       </c>
       <c r="AU53" t="n">
         <v>7</v>
       </c>
       <c r="AV53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW53" t="n">
         <v>6</v>
       </c>
-      <c r="AW53" t="n">
-        <v>7</v>
-      </c>
       <c r="AX53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA53" t="n">
         <v>5</v>
-      </c>
-      <c r="AY53" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ53" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA53" t="n">
-        <v>6</v>
       </c>
       <c r="BB53" t="n">
         <v>9</v>
       </c>
       <c r="BC53" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD53" t="n">
         <v>2.93</v>
@@ -12258,31 +12258,31 @@
         <v>2.33</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="AU54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV54" t="n">
         <v>4</v>
       </c>
       <c r="AW54" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY54" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AZ54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA54" t="n">
         <v>1</v>
@@ -12476,31 +12476,31 @@
         <v>0.33</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="AT55" t="n">
-        <v>3.57</v>
+        <v>3.43</v>
       </c>
       <c r="AU55" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX55" t="n">
         <v>4</v>
       </c>
-      <c r="AV55" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>1</v>
-      </c>
       <c r="AY55" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ55" t="n">
         <v>10</v>
-      </c>
-      <c r="AZ55" t="n">
-        <v>5</v>
       </c>
       <c r="BA55" t="n">
         <v>11</v>
@@ -12694,13 +12694,13 @@
         <v>1.2</v>
       </c>
       <c r="AR56" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="AT56" t="n">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="AU56" t="n">
         <v>3</v>
@@ -12709,13 +12709,13 @@
         <v>3</v>
       </c>
       <c r="AW56" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AX56" t="n">
         <v>3</v>
       </c>
       <c r="AY56" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ56" t="n">
         <v>6</v>
@@ -12912,31 +12912,31 @@
         <v>1.4</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AU57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV57" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW57" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX57" t="n">
         <v>4</v>
       </c>
       <c r="AY57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ57" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA57" t="n">
         <v>6</v>
@@ -13130,13 +13130,13 @@
         <v>1.83</v>
       </c>
       <c r="AR58" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT58" t="n">
-        <v>3.51</v>
+        <v>3.28</v>
       </c>
       <c r="AU58" t="n">
         <v>3</v>
@@ -13348,31 +13348,31 @@
         <v>1.8</v>
       </c>
       <c r="AR59" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.77</v>
+        <v>1.58</v>
       </c>
       <c r="AT59" t="n">
-        <v>3.34</v>
+        <v>3.09</v>
       </c>
       <c r="AU59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV59" t="n">
         <v>2</v>
       </c>
       <c r="AW59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX59" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AY59" t="n">
         <v>5</v>
       </c>
       <c r="AZ59" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA59" t="n">
         <v>7</v>
@@ -13566,31 +13566,31 @@
         <v>0.83</v>
       </c>
       <c r="AR60" t="n">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="AT60" t="n">
-        <v>3.3</v>
+        <v>2.89</v>
       </c>
       <c r="AU60" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX60" t="n">
         <v>7</v>
       </c>
-      <c r="AV60" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>8</v>
-      </c>
       <c r="AY60" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ60" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA60" t="n">
         <v>7</v>
@@ -13784,13 +13784,13 @@
         <v>1.5</v>
       </c>
       <c r="AR61" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AS61" t="n">
         <v>1.04</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.29</v>
+        <v>2.27</v>
       </c>
       <c r="AU61" t="n">
         <v>4</v>
@@ -14002,13 +14002,13 @@
         <v>1.2</v>
       </c>
       <c r="AR62" t="n">
-        <v>0.72</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.19</v>
+        <v>2.29</v>
       </c>
       <c r="AU62" t="n">
         <v>2</v>
@@ -14220,16 +14220,16 @@
         <v>1</v>
       </c>
       <c r="AR63" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AT63" t="n">
-        <v>3.01</v>
+        <v>3.03</v>
       </c>
       <c r="AU63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV63" t="n">
         <v>7</v>
@@ -14238,13 +14238,13 @@
         <v>4</v>
       </c>
       <c r="AX63" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AY63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ63" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA63" t="n">
         <v>2</v>
@@ -14438,13 +14438,13 @@
         <v>0.6</v>
       </c>
       <c r="AR64" t="n">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="AT64" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="AU64" t="n">
         <v>5</v>
@@ -14453,16 +14453,16 @@
         <v>4</v>
       </c>
       <c r="AW64" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY64" t="n">
         <v>13</v>
       </c>
-      <c r="AX64" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY64" t="n">
-        <v>18</v>
-      </c>
       <c r="AZ64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA64" t="n">
         <v>4</v>
@@ -14656,19 +14656,19 @@
         <v>1.4</v>
       </c>
       <c r="AR65" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.73</v>
+        <v>2.6</v>
       </c>
       <c r="AU65" t="n">
         <v>4</v>
       </c>
       <c r="AV65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW65" t="n">
         <v>3</v>
@@ -14680,7 +14680,7 @@
         <v>7</v>
       </c>
       <c r="AZ65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA65" t="n">
         <v>7</v>
@@ -14874,31 +14874,31 @@
         <v>1.2</v>
       </c>
       <c r="AR66" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AT66" t="n">
-        <v>3.24</v>
+        <v>3.27</v>
       </c>
       <c r="AU66" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV66" t="n">
         <v>6</v>
       </c>
-      <c r="AV66" t="n">
+      <c r="AW66" t="n">
         <v>5</v>
       </c>
-      <c r="AW66" t="n">
-        <v>7</v>
-      </c>
       <c r="AX66" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA66" t="n">
         <v>5</v>
@@ -15092,28 +15092,28 @@
         <v>1.2</v>
       </c>
       <c r="AR67" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.49</v>
+        <v>1.25</v>
       </c>
       <c r="AT67" t="n">
-        <v>3.07</v>
+        <v>2.79</v>
       </c>
       <c r="AU67" t="n">
         <v>5</v>
       </c>
       <c r="AV67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ67" t="n">
         <v>8</v>
@@ -15310,13 +15310,13 @@
         <v>0.2</v>
       </c>
       <c r="AR68" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AT68" t="n">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AU68" t="n">
         <v>4</v>
@@ -15325,16 +15325,16 @@
         <v>2</v>
       </c>
       <c r="AW68" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY68" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA68" t="n">
         <v>2</v>
@@ -15528,16 +15528,16 @@
         <v>1.8</v>
       </c>
       <c r="AR69" t="n">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.65</v>
+        <v>2.53</v>
       </c>
       <c r="AU69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV69" t="n">
         <v>8</v>
@@ -15546,22 +15546,22 @@
         <v>3</v>
       </c>
       <c r="AX69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA69" t="n">
         <v>5</v>
       </c>
       <c r="BB69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC69" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD69" t="n">
         <v>1.77</v>
@@ -15746,13 +15746,13 @@
         <v>1</v>
       </c>
       <c r="AR70" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="AT70" t="n">
-        <v>3.19</v>
+        <v>3.15</v>
       </c>
       <c r="AU70" t="n">
         <v>2</v>
@@ -15764,13 +15764,13 @@
         <v>4</v>
       </c>
       <c r="AX70" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY70" t="n">
         <v>6</v>
       </c>
       <c r="AZ70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA70" t="n">
         <v>7</v>
@@ -15964,31 +15964,31 @@
         <v>1.2</v>
       </c>
       <c r="AR71" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="AS71" t="n">
         <v>1.36</v>
       </c>
       <c r="AT71" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="AU71" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV71" t="n">
         <v>5</v>
       </c>
       <c r="AW71" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY71" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA71" t="n">
         <v>4</v>
@@ -16182,28 +16182,28 @@
         <v>1.4</v>
       </c>
       <c r="AR72" t="n">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="AT72" t="n">
-        <v>3.33</v>
+        <v>3.21</v>
       </c>
       <c r="AU72" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV72" t="n">
         <v>4</v>
       </c>
-      <c r="AV72" t="n">
+      <c r="AW72" t="n">
         <v>5</v>
       </c>
-      <c r="AW72" t="n">
-        <v>7</v>
-      </c>
       <c r="AX72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ72" t="n">
         <v>8</v>
@@ -16400,31 +16400,31 @@
         <v>1.2</v>
       </c>
       <c r="AR73" t="n">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="AU73" t="n">
         <v>2</v>
       </c>
       <c r="AV73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW73" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX73" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY73" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AZ73" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA73" t="n">
         <v>3</v>
@@ -16618,31 +16618,31 @@
         <v>1.83</v>
       </c>
       <c r="AR74" t="n">
-        <v>1.58</v>
+        <v>1.39</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.93</v>
+        <v>2.7</v>
       </c>
       <c r="AU74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV74" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX74" t="n">
         <v>2</v>
       </c>
       <c r="AY74" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ74" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA74" t="n">
         <v>2</v>
@@ -16836,31 +16836,31 @@
         <v>0.83</v>
       </c>
       <c r="AR75" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.69</v>
+        <v>1.44</v>
       </c>
       <c r="AT75" t="n">
-        <v>3.12</v>
+        <v>2.81</v>
       </c>
       <c r="AU75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV75" t="n">
         <v>5</v>
       </c>
       <c r="AW75" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY75" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ75" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA75" t="n">
         <v>7</v>
@@ -17054,13 +17054,13 @@
         <v>0.33</v>
       </c>
       <c r="AR76" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="AU76" t="n">
         <v>2</v>
@@ -17072,13 +17072,13 @@
         <v>2</v>
       </c>
       <c r="AX76" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY76" t="n">
         <v>4</v>
       </c>
       <c r="AZ76" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA76" t="n">
         <v>2</v>
@@ -17272,31 +17272,31 @@
         <v>1.2</v>
       </c>
       <c r="AR77" t="n">
-        <v>1.56</v>
+        <v>1.32</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="AT77" t="n">
-        <v>3.02</v>
+        <v>2.91</v>
       </c>
       <c r="AU77" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV77" t="n">
         <v>6</v>
       </c>
-      <c r="AV77" t="n">
-        <v>5</v>
-      </c>
       <c r="AW77" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX77" t="n">
         <v>4</v>
       </c>
       <c r="AY77" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ77" t="n">
         <v>10</v>
-      </c>
-      <c r="AZ77" t="n">
-        <v>9</v>
       </c>
       <c r="BA77" t="n">
         <v>6</v>
@@ -17490,28 +17490,28 @@
         <v>1.2</v>
       </c>
       <c r="AR78" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.72</v>
+        <v>2.53</v>
       </c>
       <c r="AU78" t="n">
         <v>5</v>
       </c>
       <c r="AV78" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW78" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX78" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY78" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ78" t="n">
         <v>14</v>
@@ -17708,31 +17708,31 @@
         <v>0.6</v>
       </c>
       <c r="AR79" t="n">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT79" t="n">
-        <v>3.12</v>
+        <v>2.87</v>
       </c>
       <c r="AU79" t="n">
         <v>5</v>
       </c>
       <c r="AV79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX79" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY79" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ79" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA79" t="n">
         <v>3</v>
@@ -17926,31 +17926,31 @@
         <v>0.2</v>
       </c>
       <c r="AR80" t="n">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AT80" t="n">
-        <v>3.18</v>
+        <v>3.23</v>
       </c>
       <c r="AU80" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ80" t="n">
         <v>3</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY80" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ80" t="n">
-        <v>7</v>
       </c>
       <c r="BA80" t="n">
         <v>7</v>
@@ -18144,31 +18144,31 @@
         <v>1.4</v>
       </c>
       <c r="AR81" t="n">
-        <v>1.98</v>
+        <v>1.59</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="AT81" t="n">
-        <v>3.43</v>
+        <v>2.94</v>
       </c>
       <c r="AU81" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV81" t="n">
         <v>7</v>
       </c>
       <c r="AW81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX81" t="n">
         <v>5</v>
       </c>
-      <c r="AX81" t="n">
-        <v>6</v>
-      </c>
       <c r="AY81" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA81" t="n">
         <v>4</v>
@@ -18362,31 +18362,31 @@
         <v>0.83</v>
       </c>
       <c r="AR82" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.62</v>
+        <v>2.53</v>
       </c>
       <c r="AU82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX82" t="n">
         <v>5</v>
       </c>
-      <c r="AV82" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW82" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX82" t="n">
-        <v>4</v>
-      </c>
       <c r="AY82" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ82" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA82" t="n">
         <v>8</v>
@@ -18580,31 +18580,31 @@
         <v>1.2</v>
       </c>
       <c r="AR83" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="AU83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV83" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW83" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX83" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY83" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ83" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA83" t="n">
         <v>2</v>
@@ -18798,31 +18798,31 @@
         <v>1.83</v>
       </c>
       <c r="AR84" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AU84" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV84" t="n">
         <v>3</v>
       </c>
       <c r="AW84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY84" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA84" t="n">
         <v>4</v>
@@ -19016,31 +19016,31 @@
         <v>1.75</v>
       </c>
       <c r="AR85" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.24</v>
+        <v>2.31</v>
       </c>
       <c r="AU85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW85" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AX85" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY85" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AZ85" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BA85" t="n">
         <v>5</v>
@@ -19234,13 +19234,13 @@
         <v>0.33</v>
       </c>
       <c r="AR86" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AT86" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU86" t="n">
         <v>3</v>
@@ -19249,13 +19249,13 @@
         <v>9</v>
       </c>
       <c r="AW86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX86" t="n">
         <v>6</v>
       </c>
       <c r="AY86" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ86" t="n">
         <v>15</v>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.33</v>
@@ -1355,7 +1355,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.2</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.8</v>
@@ -2257,13 +2257,13 @@
         <v>9</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB8" t="n">
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD8" t="n">
         <v>2.3</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ10" t="n">
         <v>1</v>
@@ -2881,7 +2881,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.2</v>
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.83</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.8</v>
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR23" t="n">
         <v>0.65</v>
@@ -6369,7 +6369,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR27" t="n">
         <v>2.1</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR28" t="n">
         <v>1.47</v>
@@ -7459,7 +7459,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR32" t="n">
         <v>0.38</v>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.83</v>
@@ -8113,7 +8113,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR35" t="n">
         <v>1.72</v>
@@ -8331,7 +8331,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR36" t="n">
         <v>1.67</v>
@@ -8982,7 +8982,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.83</v>
@@ -9200,7 +9200,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.2</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.75</v>
@@ -10293,7 +10293,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR45" t="n">
         <v>2.1</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ49" t="n">
         <v>2.33</v>
@@ -11383,7 +11383,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR50" t="n">
         <v>1.07</v>
@@ -11601,7 +11601,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR51" t="n">
         <v>1.33</v>
@@ -11819,7 +11819,7 @@
         <v>2</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR52" t="n">
         <v>1.27</v>
@@ -12476,13 +12476,13 @@
         <v>0.33</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AS55" t="n">
         <v>1.61</v>
       </c>
       <c r="AT55" t="n">
-        <v>3.43</v>
+        <v>3.28</v>
       </c>
       <c r="AU55" t="n">
         <v>6</v>
@@ -13124,7 +13124,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.83</v>
@@ -13781,16 +13781,16 @@
         <v>2.17</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR61" t="n">
         <v>1.23</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.27</v>
+        <v>2.21</v>
       </c>
       <c r="AU61" t="n">
         <v>4</v>
@@ -14432,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="AP64" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.6</v>
@@ -14653,7 +14653,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR65" t="n">
         <v>1.25</v>
@@ -14871,7 +14871,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR66" t="n">
         <v>1.71</v>
@@ -15089,7 +15089,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR67" t="n">
         <v>1.54</v>
@@ -15304,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.2</v>
@@ -15964,13 +15964,13 @@
         <v>1.2</v>
       </c>
       <c r="AR71" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AS71" t="n">
         <v>1.36</v>
       </c>
       <c r="AT71" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AU71" t="n">
         <v>7</v>
@@ -17269,7 +17269,7 @@
         <v>1</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR77" t="n">
         <v>1.32</v>
@@ -17487,7 +17487,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR78" t="n">
         <v>1.22</v>
@@ -17702,7 +17702,7 @@
         <v>0.75</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.6</v>
@@ -17920,7 +17920,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.2</v>
@@ -18138,10 +18138,10 @@
         <v>1.75</v>
       </c>
       <c r="AP81" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR81" t="n">
         <v>1.59</v>
@@ -19307,6 +19307,1096 @@
       </c>
       <c r="BP86" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>7217692</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45335.45833333334</v>
+      </c>
+      <c r="F87" t="n">
+        <v>12</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>El Gounah</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="n">
+        <v>4</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['41', '49']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['53', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V87" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X87" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7217695</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45335.58333333334</v>
+      </c>
+      <c r="F88" t="n">
+        <v>12</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V88" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X88" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7217694</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45336.45833333334</v>
+      </c>
+      <c r="F89" t="n">
+        <v>12</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X89" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>7217697</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45336.45833333334</v>
+      </c>
+      <c r="F90" t="n">
+        <v>12</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3</v>
+      </c>
+      <c r="L90" t="n">
+        <v>2</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="n">
+        <v>4</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['7', '17']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['36', '83']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X90" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>7217696</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45336.58333333334</v>
+      </c>
+      <c r="F91" t="n">
+        <v>12</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Masr</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X91" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2227,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.2</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.75</v>
@@ -5279,7 +5279,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR22" t="n">
         <v>1.22</v>
@@ -5933,7 +5933,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR25" t="n">
         <v>1.15</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.75</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.6</v>
@@ -9421,7 +9421,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR41" t="n">
         <v>1.48</v>
@@ -9857,7 +9857,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR43" t="n">
         <v>0.91</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.6</v>
@@ -11598,7 +11598,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.33</v>
@@ -14217,7 +14217,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR63" t="n">
         <v>1</v>
@@ -14650,7 +14650,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.33</v>
@@ -15086,7 +15086,7 @@
         <v>1</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.17</v>
@@ -15743,7 +15743,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR70" t="n">
         <v>1.2</v>
@@ -17484,7 +17484,7 @@
         <v>0.75</v>
       </c>
       <c r="AP78" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.17</v>
@@ -20397,6 +20397,442 @@
       </c>
       <c r="BP91" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7217693</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45337.45833333334</v>
+      </c>
+      <c r="F92" t="n">
+        <v>12</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Baladiyyat Al Mehalla</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V92" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X92" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7217691</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45337.58333333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>12</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['15', '27']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V93" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X93" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8" t="n">
         <v>2.25</v>
@@ -2310,7 +2310,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7217600</v>
+        <v>7217597</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2330,12 +2330,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -2348,92 +2348,92 @@
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['24', '77']</t>
+          <t>['31']</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>['56', '62']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="T9" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="U9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z9" t="n">
         <v>2.8</v>
       </c>
-      <c r="V9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>2</v>
-      </c>
       <c r="AA9" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.34</v>
+        <v>2.88</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.27</v>
+        <v>1.51</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.84</v>
+        <v>1.42</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.33</v>
+        <v>1.86</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2460,61 +2460,61 @@
         <v>5</v>
       </c>
       <c r="AV9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW9" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AX9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AZ9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA9" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BB9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC9" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="BE9" t="n">
         <v>7</v>
       </c>
       <c r="BF9" t="n">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="BG9" t="n">
         <v>1.29</v>
       </c>
       <c r="BH9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BI9" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="BJ9" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="BK9" t="n">
-        <v>2.25</v>
+        <v>1.82</v>
       </c>
       <c r="BL9" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="BM9" t="n">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="BN9" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="BO9" t="n">
         <v>2.8</v>
@@ -2528,7 +2528,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7217597</v>
+        <v>7217600</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2548,12 +2548,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -2566,104 +2566,104 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>['31']</t>
+          <t>['24', '77']</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['56', '62']</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AG10" t="n">
         <v>1.95</v>
       </c>
-      <c r="S10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>3</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="AH10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>1.33</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0.83</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2678,61 +2678,61 @@
         <v>5</v>
       </c>
       <c r="AV10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW10" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AX10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY10" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA10" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="BB10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC10" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BD10" t="n">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="BE10" t="n">
         <v>7</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="BG10" t="n">
         <v>1.29</v>
       </c>
       <c r="BH10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="BJ10" t="n">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="BK10" t="n">
-        <v>1.82</v>
+        <v>2.25</v>
       </c>
       <c r="BL10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="BM10" t="n">
-        <v>2.24</v>
+        <v>2.21</v>
       </c>
       <c r="BN10" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="BO10" t="n">
         <v>2.8</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.17</v>
@@ -3753,7 +3753,7 @@
         <v>2</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.67</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR22" t="n">
         <v>1.22</v>
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR23" t="n">
         <v>0.65</v>
@@ -5580,7 +5580,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>7217610</v>
+        <v>7217615</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -5600,197 +5600,197 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>['45+9']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>['54', '90']</t>
+          <t>['44', '86']</t>
         </is>
       </c>
       <c r="Q24" t="n">
         <v>3.75</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X24" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z24" t="n">
         <v>2.88</v>
       </c>
-      <c r="T24" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="V24" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X24" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>3.4</v>
-      </c>
       <c r="AA24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AN24" t="n">
         <v>3</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AO24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD24" t="n">
         <v>2.15</v>
       </c>
-      <c r="AC24" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AH24" t="n">
+      <c r="BE24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BL24" t="n">
         <v>1.67</v>
       </c>
-      <c r="AI24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>2.01</v>
-      </c>
       <c r="BM24" t="n">
-        <v>2.23</v>
+        <v>2.8</v>
       </c>
       <c r="BN24" t="n">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="BO24" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="BP24" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -5798,7 +5798,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>7217615</v>
+        <v>7217610</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -5818,197 +5818,197 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['45+9']</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>['44', '86']</t>
+          <t>['54', '90']</t>
         </is>
       </c>
       <c r="Q25" t="n">
         <v>3.75</v>
       </c>
       <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X25" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI25" t="n">
         <v>1.83</v>
       </c>
-      <c r="S25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T25" t="n">
+      <c r="AJ25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN25" t="n">
         <v>1.63</v>
       </c>
-      <c r="U25" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="V25" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="X25" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BM25" t="n">
+      <c r="BO25" t="n">
         <v>2.8</v>
       </c>
-      <c r="BN25" t="n">
+      <c r="BP25" t="n">
         <v>1.38</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6016,7 +6016,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>7217612</v>
+        <v>7217616</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -6036,113 +6036,113 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>['23', '38', '65']</t>
+          <t>['13']</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>['90']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="U26" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X26" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF26" t="n">
         <v>3.04</v>
       </c>
-      <c r="V26" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X26" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="Y26" t="n">
+      <c r="AG26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK26" t="n">
         <v>1.09</v>
       </c>
-      <c r="Z26" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1.04</v>
-      </c>
       <c r="AL26" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AM26" t="n">
-        <v>3.32</v>
+        <v>2.53</v>
       </c>
       <c r="AN26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO26" t="n">
         <v>0</v>
@@ -6151,82 +6151,82 @@
         <v>2.33</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.33</v>
+        <v>1.71</v>
       </c>
       <c r="AR26" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.1</v>
+        <v>4.01</v>
       </c>
       <c r="AU26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX26" t="n">
         <v>4</v>
       </c>
-      <c r="AX26" t="n">
-        <v>11</v>
-      </c>
       <c r="AY26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ26" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="BA26" t="n">
         <v>3</v>
       </c>
       <c r="BB26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BC26" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD26" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="BE26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF26" t="n">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="BG26" t="n">
         <v>1.29</v>
       </c>
       <c r="BH26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BI26" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BJ26" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="BK26" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="BL26" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="BM26" t="n">
-        <v>2.23</v>
+        <v>2.28</v>
       </c>
       <c r="BN26" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="BO26" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="BP26" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="27">
@@ -6234,7 +6234,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>7217616</v>
+        <v>7217612</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -6254,113 +6254,113 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>['13']</t>
+          <t>['23', '38', '65']</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90']</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="R27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U27" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X27" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI27" t="n">
         <v>2.2</v>
       </c>
-      <c r="S27" t="n">
-        <v>6</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X27" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AJ27" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AK27" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="AL27" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AM27" t="n">
-        <v>2.53</v>
+        <v>3.32</v>
       </c>
       <c r="AN27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO27" t="n">
         <v>0</v>
@@ -6369,82 +6369,82 @@
         <v>2.33</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.91</v>
+        <v>1.1</v>
       </c>
       <c r="AT27" t="n">
-        <v>4.01</v>
+        <v>3.1</v>
       </c>
       <c r="AU27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW27" t="n">
         <v>4</v>
       </c>
-      <c r="AV27" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>6</v>
-      </c>
       <c r="AX27" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AY27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ27" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BA27" t="n">
         <v>3</v>
       </c>
       <c r="BB27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BC27" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD27" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="BE27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF27" t="n">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="BG27" t="n">
         <v>1.29</v>
       </c>
       <c r="BH27" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BI27" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BJ27" t="n">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="BK27" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="BL27" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="BM27" t="n">
-        <v>2.28</v>
+        <v>2.23</v>
       </c>
       <c r="BN27" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="BO27" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="BP27" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="28">
@@ -6587,7 +6587,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR28" t="n">
         <v>1.47</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.4</v>
@@ -7106,7 +7106,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>7217627</v>
+        <v>7217619</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -7126,197 +7126,197 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
         <v>3</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>['29', '79', '90+6']</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV31" t="n">
         <v>3</v>
       </c>
-      <c r="L31" t="n">
+      <c r="AW31" t="n">
         <v>5</v>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="n">
-        <v>6</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>['3', '13', '45+5', '81', '88']</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>['67']</t>
-        </is>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="U31" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X31" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AB31" t="n">
+      <c r="AX31" t="n">
         <v>4</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>8</v>
       </c>
       <c r="AY31" t="n">
         <v>13</v>
       </c>
       <c r="AZ31" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BA31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC31" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD31" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="BE31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BF31" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="BG31" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BH31" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="BI31" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="BJ31" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="BK31" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="BL31" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="BM31" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="BN31" t="n">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="BO31" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="BP31" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="32">
@@ -7324,7 +7324,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>7217619</v>
+        <v>7217627</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -7344,197 +7344,197 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
+        <v>5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>6</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['3', '13', '45+5', '81', '88']</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U32" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X32" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO32" t="n">
         <v>3</v>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>4</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>['29', '79', '90+6']</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>['48']</t>
-        </is>
-      </c>
-      <c r="Q32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="V32" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X32" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>0</v>
-      </c>
       <c r="AP32" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.17</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.38</v>
+        <v>1.53</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.85</v>
+        <v>2.86</v>
       </c>
       <c r="AU32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX32" t="n">
         <v>8</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>4</v>
       </c>
       <c r="AY32" t="n">
         <v>13</v>
       </c>
       <c r="AZ32" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BA32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC32" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN32" t="n">
         <v>1.75</v>
       </c>
-      <c r="BE32" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="BG32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BH32" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="BI32" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BJ32" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BK32" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL32" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BM32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BN32" t="n">
-        <v>1.48</v>
-      </c>
       <c r="BO32" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="BP32" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="33">
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.71</v>
@@ -7760,7 +7760,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>7217623</v>
+        <v>7217620</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -7780,12 +7780,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -7813,62 +7813,62 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>['57']</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S34" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U34" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V34" t="n">
-        <v>3.54</v>
+        <v>3.34</v>
       </c>
       <c r="W34" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X34" t="n">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="Y34" t="n">
         <v>1.04</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.91</v>
+        <v>5.25</v>
       </c>
       <c r="AA34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB34" t="n">
-        <v>4</v>
+        <v>1.73</v>
       </c>
       <c r="AC34" t="n">
         <v>1.07</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.35</v>
+        <v>6.45</v>
       </c>
       <c r="AE34" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AF34" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AG34" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AH34" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AI34" t="n">
         <v>2.1</v>
@@ -7877,100 +7877,100 @@
         <v>1.67</v>
       </c>
       <c r="AK34" t="n">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="AL34" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AM34" t="n">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="AN34" t="n">
         <v>3</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.67</v>
+        <v>0.83</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR34" t="n">
-        <v>1.17</v>
+        <v>1.72</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.02</v>
+        <v>1.74</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.19</v>
+        <v>3.46</v>
       </c>
       <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="n">
         <v>4</v>
       </c>
-      <c r="AV34" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX34" t="n">
+      <c r="BC34" t="n">
         <v>4</v>
       </c>
-      <c r="AY34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>8</v>
-      </c>
       <c r="BD34" t="n">
-        <v>1.78</v>
+        <v>2.88</v>
       </c>
       <c r="BE34" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF34" t="n">
-        <v>2.6</v>
+        <v>1.62</v>
       </c>
       <c r="BG34" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="BH34" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="BI34" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="BJ34" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="BK34" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="BL34" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="BM34" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="BN34" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="BO34" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="BP34" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="35">
@@ -7978,7 +7978,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>7217620</v>
+        <v>7217623</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -7998,12 +7998,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -8031,62 +8031,62 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>['57']</t>
+          <t>['90+1']</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="R35" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S35" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="U35" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V35" t="n">
-        <v>3.34</v>
+        <v>3.54</v>
       </c>
       <c r="W35" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X35" t="n">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Y35" t="n">
         <v>1.04</v>
       </c>
       <c r="Z35" t="n">
-        <v>5.25</v>
+        <v>1.91</v>
       </c>
       <c r="AA35" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB35" t="n">
-        <v>1.73</v>
+        <v>4</v>
       </c>
       <c r="AC35" t="n">
         <v>1.07</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.45</v>
+        <v>6.35</v>
       </c>
       <c r="AE35" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AG35" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AH35" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AI35" t="n">
         <v>2.1</v>
@@ -8095,100 +8095,100 @@
         <v>1.67</v>
       </c>
       <c r="AK35" t="n">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="AL35" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AM35" t="n">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="AN35" t="n">
         <v>3</v>
       </c>
       <c r="AO35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.83</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR35" t="n">
-        <v>1.72</v>
+        <v>1.17</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.74</v>
+        <v>1.02</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.46</v>
+        <v>2.19</v>
       </c>
       <c r="AU35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV35" t="n">
         <v>2</v>
       </c>
       <c r="AW35" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ35" t="n">
         <v>6</v>
       </c>
-      <c r="AY35" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ35" t="n">
+      <c r="BA35" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC35" t="n">
         <v>8</v>
       </c>
-      <c r="BA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>4</v>
-      </c>
       <c r="BD35" t="n">
-        <v>2.88</v>
+        <v>1.78</v>
       </c>
       <c r="BE35" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="BF35" t="n">
-        <v>1.62</v>
+        <v>2.6</v>
       </c>
       <c r="BG35" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP35" t="n">
         <v>1.29</v>
-      </c>
-      <c r="BH35" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BI35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BJ35" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BK35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BL35" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="BM35" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BN35" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BO35" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BP35" t="n">
-        <v>1.36</v>
       </c>
     </row>
     <row r="36">
@@ -8331,7 +8331,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR36" t="n">
         <v>1.67</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.67</v>
@@ -8850,7 +8850,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>7217635</v>
+        <v>7217634</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -8870,95 +8870,95 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Masr</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X39" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB39" t="n">
         <v>4</v>
       </c>
-      <c r="L39" t="n">
-        <v>3</v>
-      </c>
-      <c r="M39" t="n">
-        <v>2</v>
-      </c>
-      <c r="N39" t="n">
-        <v>5</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>['8', '21', '87']</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>['3', '27']</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U39" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="V39" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X39" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>2.8</v>
-      </c>
       <c r="AC39" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD39" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AF39" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AG39" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AH39" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AI39" t="n">
         <v>2</v>
@@ -8967,100 +8967,100 @@
         <v>1.73</v>
       </c>
       <c r="AK39" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="AL39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG39" t="n">
         <v>1.33</v>
       </c>
-      <c r="AM39" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BE39" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BF39" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BG39" t="n">
-        <v>0</v>
-      </c>
       <c r="BH39" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="BI39" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="BJ39" t="n">
-        <v>2.93</v>
+        <v>2.14</v>
       </c>
       <c r="BK39" t="n">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="BL39" t="n">
-        <v>2.17</v>
+        <v>1.7</v>
       </c>
       <c r="BM39" t="n">
-        <v>2.06</v>
+        <v>2.64</v>
       </c>
       <c r="BN39" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="BO39" t="n">
-        <v>2.6</v>
+        <v>3.65</v>
       </c>
       <c r="BP39" t="n">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="40">
@@ -9068,7 +9068,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>7217634</v>
+        <v>7217635</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -9088,95 +9088,95 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Masr</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['60']</t>
+          <t>['8', '21', '87']</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>['71']</t>
+          <t>['3', '27']</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S40" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="T40" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="U40" t="n">
-        <v>2.51</v>
+        <v>2.41</v>
       </c>
       <c r="V40" t="n">
-        <v>3.28</v>
+        <v>3.34</v>
       </c>
       <c r="W40" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X40" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="AA40" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AB40" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="AC40" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD40" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="AE40" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AF40" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="AG40" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AH40" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AI40" t="n">
         <v>2</v>
@@ -9185,100 +9185,100 @@
         <v>1.73</v>
       </c>
       <c r="AK40" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="AL40" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM40" t="n">
-        <v>1.84</v>
+        <v>1.52</v>
       </c>
       <c r="AN40" t="n">
         <v>2</v>
       </c>
       <c r="AO40" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.17</v>
+        <v>0.86</v>
       </c>
       <c r="AR40" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="AU40" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ40" t="n">
         <v>13</v>
       </c>
-      <c r="AX40" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>5</v>
-      </c>
       <c r="BA40" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BB40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC40" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD40" t="n">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="BE40" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="BF40" t="n">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="BG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI40" t="n">
         <v>1.33</v>
       </c>
-      <c r="BH40" t="n">
+      <c r="BJ40" t="n">
         <v>2.93</v>
       </c>
-      <c r="BI40" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BJ40" t="n">
-        <v>2.14</v>
-      </c>
       <c r="BK40" t="n">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="BL40" t="n">
-        <v>1.7</v>
+        <v>2.17</v>
       </c>
       <c r="BM40" t="n">
-        <v>2.64</v>
+        <v>2.06</v>
       </c>
       <c r="BN40" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="BO40" t="n">
-        <v>3.65</v>
+        <v>2.6</v>
       </c>
       <c r="BP40" t="n">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="41">
@@ -9421,7 +9421,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR41" t="n">
         <v>1.48</v>
@@ -9639,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR42" t="n">
         <v>0.84</v>
@@ -10158,7 +10158,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>7217639</v>
+        <v>7217645</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -10178,134 +10178,134 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>Masr</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>['21', '90+2']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['32', '81']</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="R45" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S45" t="n">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="T45" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="U45" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V45" t="n">
-        <v>3.41</v>
+        <v>3</v>
       </c>
       <c r="W45" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="X45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y45" t="n">
         <v>1.07</v>
       </c>
       <c r="Z45" t="n">
-        <v>4.7</v>
+        <v>1.85</v>
       </c>
       <c r="AA45" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF45" t="n">
         <v>3.2</v>
       </c>
-      <c r="AB45" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>2.8</v>
-      </c>
       <c r="AG45" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AH45" t="n">
-        <v>1.59</v>
+        <v>1.85</v>
       </c>
       <c r="AI45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>1.91</v>
       </c>
-      <c r="AJ45" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AK45" t="n">
-        <v>2.06</v>
+        <v>1.18</v>
       </c>
       <c r="AL45" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AM45" t="n">
-        <v>1.16</v>
+        <v>2.1</v>
       </c>
       <c r="AN45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS45" t="n">
         <v>1.75</v>
       </c>
-      <c r="AR45" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>1.39</v>
-      </c>
       <c r="AT45" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="AU45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV45" t="n">
         <v>5</v>
@@ -10314,61 +10314,61 @@
         <v>5</v>
       </c>
       <c r="AX45" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ45" t="n">
         <v>10</v>
       </c>
-      <c r="AZ45" t="n">
-        <v>14</v>
-      </c>
       <c r="BA45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BB45" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BC45" t="n">
         <v>9</v>
       </c>
       <c r="BD45" t="n">
-        <v>2.28</v>
+        <v>1.44</v>
       </c>
       <c r="BE45" t="n">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF45" t="n">
-        <v>1.81</v>
+        <v>3.28</v>
       </c>
       <c r="BG45" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="BH45" t="n">
-        <v>3.42</v>
+        <v>2.98</v>
       </c>
       <c r="BI45" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="BJ45" t="n">
-        <v>2.41</v>
+        <v>2.16</v>
       </c>
       <c r="BK45" t="n">
-        <v>2.38</v>
+        <v>2.03</v>
       </c>
       <c r="BL45" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="BM45" t="n">
-        <v>2.35</v>
+        <v>2.67</v>
       </c>
       <c r="BN45" t="n">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="BO45" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="BP45" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="46">
@@ -10376,7 +10376,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>7217645</v>
+        <v>7217639</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -10396,134 +10396,134 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Masr</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['21', '90+2']</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>['32', '81']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U46" t="n">
         <v>2.5</v>
       </c>
-      <c r="R46" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S46" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U46" t="n">
-        <v>2.63</v>
-      </c>
       <c r="V46" t="n">
-        <v>3</v>
+        <v>3.41</v>
       </c>
       <c r="W46" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="X46" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y46" t="n">
         <v>1.07</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.85</v>
+        <v>4.7</v>
       </c>
       <c r="AA46" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AB46" t="n">
-        <v>4</v>
+        <v>1.63</v>
       </c>
       <c r="AC46" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AD46" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE46" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AF46" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AG46" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AH46" t="n">
-        <v>1.85</v>
+        <v>1.59</v>
       </c>
       <c r="AI46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>1.8</v>
       </c>
-      <c r="AJ46" t="n">
-        <v>1.91</v>
-      </c>
       <c r="AK46" t="n">
-        <v>1.18</v>
+        <v>2.06</v>
       </c>
       <c r="AL46" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AM46" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR46" t="n">
         <v>2.1</v>
       </c>
-      <c r="AN46" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>1.58</v>
-      </c>
       <c r="AS46" t="n">
-        <v>1.75</v>
+        <v>1.39</v>
       </c>
       <c r="AT46" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="AU46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV46" t="n">
         <v>5</v>
@@ -10532,61 +10532,61 @@
         <v>5</v>
       </c>
       <c r="AX46" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ46" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BB46" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC46" t="n">
         <v>9</v>
       </c>
       <c r="BD46" t="n">
-        <v>1.44</v>
+        <v>2.28</v>
       </c>
       <c r="BE46" t="n">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF46" t="n">
-        <v>3.28</v>
+        <v>1.81</v>
       </c>
       <c r="BG46" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="BH46" t="n">
-        <v>2.98</v>
+        <v>3.42</v>
       </c>
       <c r="BI46" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="BJ46" t="n">
-        <v>2.16</v>
+        <v>2.41</v>
       </c>
       <c r="BK46" t="n">
-        <v>2.03</v>
+        <v>2.38</v>
       </c>
       <c r="BL46" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="BM46" t="n">
-        <v>2.67</v>
+        <v>2.35</v>
       </c>
       <c r="BN46" t="n">
-        <v>1.39</v>
+        <v>1.57</v>
       </c>
       <c r="BO46" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="BP46" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="47">
@@ -10812,7 +10812,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>7217642</v>
+        <v>7217643</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -10832,197 +10832,197 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Baladiyyat Al Mehalla</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="n">
         <v>3</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3</v>
-      </c>
-      <c r="M48" t="n">
-        <v>2</v>
-      </c>
-      <c r="N48" t="n">
-        <v>5</v>
-      </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>['28', '34', '45+3']</t>
+          <t>['89']</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>['58', '76']</t>
+          <t>['45+4', '84']</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="R48" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S48" t="n">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="T48" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="U48" t="n">
-        <v>2.5</v>
+        <v>2.81</v>
       </c>
       <c r="V48" t="n">
-        <v>3.4</v>
+        <v>2.79</v>
       </c>
       <c r="W48" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="X48" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.88</v>
+        <v>10</v>
       </c>
       <c r="AA48" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="AB48" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="AC48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM48" t="n">
         <v>1.07</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>1.4</v>
       </c>
       <c r="AN48" t="n">
         <v>0.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.17</v>
+        <v>0.33</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.67</v>
+        <v>2.33</v>
       </c>
       <c r="AR48" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.19</v>
+        <v>1.22</v>
       </c>
       <c r="AU48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV48" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX48" t="n">
         <v>8</v>
       </c>
-      <c r="AW48" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>16</v>
-      </c>
       <c r="AY48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ48" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="BA48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC48" t="n">
         <v>4</v>
       </c>
-      <c r="BC48" t="n">
-        <v>7</v>
-      </c>
       <c r="BD48" t="n">
-        <v>1.97</v>
+        <v>4.05</v>
       </c>
       <c r="BE48" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="BF48" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK48" t="n">
         <v>2.1</v>
       </c>
-      <c r="BG48" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BH48" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="BI48" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="BJ48" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="BK48" t="n">
-        <v>2.15</v>
-      </c>
       <c r="BL48" t="n">
-        <v>1.7</v>
+        <v>2.33</v>
       </c>
       <c r="BM48" t="n">
-        <v>2.79</v>
+        <v>1.91</v>
       </c>
       <c r="BN48" t="n">
-        <v>1.36</v>
+        <v>1.89</v>
       </c>
       <c r="BO48" t="n">
-        <v>3.7</v>
+        <v>2.36</v>
       </c>
       <c r="BP48" t="n">
-        <v>1.23</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="49">
@@ -11030,7 +11030,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>7217643</v>
+        <v>7217642</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -11050,197 +11050,197 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Baladiyyat Al Mehalla</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="n">
+        <v>5</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['28', '34', '45+3']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['58', '76']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X49" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AA49" t="n">
         <v>3</v>
       </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>['89']</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>['45+4', '84']</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="R49" t="n">
+      <c r="AB49" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG49" t="n">
         <v>2.2</v>
       </c>
-      <c r="S49" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="U49" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="V49" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X49" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AH49" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="AI49" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AK49" t="n">
-        <v>2.84</v>
+        <v>1.5</v>
       </c>
       <c r="AL49" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="AM49" t="n">
-        <v>1.07</v>
+        <v>1.4</v>
       </c>
       <c r="AN49" t="n">
         <v>0.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AQ49" t="n">
-        <v>2.33</v>
+        <v>0.67</v>
       </c>
       <c r="AR49" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AS49" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.22</v>
+        <v>2.19</v>
       </c>
       <c r="AU49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA49" t="n">
         <v>3</v>
       </c>
-      <c r="AV49" t="n">
+      <c r="BB49" t="n">
         <v>4</v>
       </c>
-      <c r="AW49" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>2</v>
-      </c>
       <c r="BC49" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD49" t="n">
-        <v>4.05</v>
+        <v>1.97</v>
       </c>
       <c r="BE49" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF49" t="n">
-        <v>1.31</v>
+        <v>2.1</v>
       </c>
       <c r="BG49" t="n">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="BH49" t="n">
-        <v>4.6</v>
+        <v>2.84</v>
       </c>
       <c r="BI49" t="n">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="BJ49" t="n">
-        <v>3.2</v>
+        <v>2.12</v>
       </c>
       <c r="BK49" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="BL49" t="n">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="BM49" t="n">
-        <v>1.91</v>
+        <v>2.79</v>
       </c>
       <c r="BN49" t="n">
-        <v>1.89</v>
+        <v>1.36</v>
       </c>
       <c r="BO49" t="n">
-        <v>2.36</v>
+        <v>3.7</v>
       </c>
       <c r="BP49" t="n">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="50">
@@ -11383,7 +11383,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR50" t="n">
         <v>1.07</v>
@@ -11601,7 +11601,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR51" t="n">
         <v>1.33</v>
@@ -11819,7 +11819,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR52" t="n">
         <v>1.27</v>
@@ -12473,7 +12473,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR55" t="n">
         <v>1.67</v>
@@ -13124,7 +13124,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.71</v>
@@ -13560,7 +13560,7 @@
         <v>0.33</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.86</v>
@@ -13781,7 +13781,7 @@
         <v>2</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR61" t="n">
         <v>1.23</v>
@@ -14217,7 +14217,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR63" t="n">
         <v>1</v>
@@ -14650,10 +14650,10 @@
         <v>1.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR65" t="n">
         <v>1.25</v>
@@ -14736,7 +14736,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>7217656</v>
+        <v>7217657</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -14774,179 +14774,179 @@
         <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['41', '73', '76', '88']</t>
+          <t>['16', '67']</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>['87', '90+1']</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="R66" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S66" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="T66" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U66" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="V66" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="W66" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X66" t="n">
-        <v>9.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z66" t="n">
-        <v>2.09</v>
+        <v>2.38</v>
       </c>
       <c r="AA66" t="n">
         <v>2.9</v>
       </c>
       <c r="AB66" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="AC66" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="AD66" t="n">
-        <v>7</v>
+        <v>2.86</v>
       </c>
       <c r="AE66" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BN66" t="n">
         <v>1.5</v>
       </c>
-      <c r="AF66" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ66" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA66" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC66" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD66" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="BE66" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BF66" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="BG66" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="BH66" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="BI66" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BJ66" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="BK66" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="BL66" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="BM66" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="BN66" t="n">
-        <v>1.4</v>
-      </c>
       <c r="BO66" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="BP66" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="67">
@@ -14954,7 +14954,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>7217657</v>
+        <v>7217656</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -14974,12 +14974,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -14992,179 +14992,179 @@
         <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['16', '67']</t>
+          <t>['41', '73', '76', '88']</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>['48']</t>
+          <t>['87', '90+1']</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="R67" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S67" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="T67" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U67" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="V67" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="W67" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X67" t="n">
-        <v>8.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Z67" t="n">
-        <v>2.38</v>
+        <v>2.09</v>
       </c>
       <c r="AA67" t="n">
         <v>2.9</v>
       </c>
       <c r="AB67" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="AC67" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AD67" t="n">
-        <v>2.86</v>
+        <v>7</v>
       </c>
       <c r="AE67" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AF67" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AG67" t="n">
-        <v>2.23</v>
+        <v>2.45</v>
       </c>
       <c r="AH67" t="n">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="AI67" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AJ67" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AK67" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AL67" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AM67" t="n">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="AN67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO67" t="n">
         <v>1</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.17</v>
+        <v>1.71</v>
       </c>
       <c r="AR67" t="n">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.79</v>
+        <v>3.27</v>
       </c>
       <c r="AU67" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW67" t="n">
         <v>5</v>
       </c>
-      <c r="AV67" t="n">
+      <c r="AX67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA67" t="n">
         <v>5</v>
       </c>
-      <c r="AW67" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX67" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY67" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ67" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA67" t="n">
-        <v>2</v>
-      </c>
       <c r="BB67" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BC67" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BD67" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="BE67" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="BF67" t="n">
-        <v>2.93</v>
+        <v>2.59</v>
       </c>
       <c r="BG67" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="BH67" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="BI67" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="BJ67" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="BK67" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="BL67" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="BM67" t="n">
-        <v>2.53</v>
+        <v>2.64</v>
       </c>
       <c r="BN67" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="BO67" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="BP67" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="68">
@@ -15304,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.2</v>
@@ -15743,7 +15743,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR70" t="n">
         <v>1.2</v>
@@ -16612,7 +16612,7 @@
         <v>2</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.71</v>
@@ -17051,7 +17051,7 @@
         <v>2</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR76" t="n">
         <v>1.17</v>
@@ -17269,7 +17269,7 @@
         <v>1</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR77" t="n">
         <v>1.32</v>
@@ -17484,10 +17484,10 @@
         <v>0.75</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR78" t="n">
         <v>1.22</v>
@@ -17702,7 +17702,7 @@
         <v>0.75</v>
       </c>
       <c r="AP79" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.67</v>
@@ -17920,7 +17920,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.2</v>
@@ -18141,7 +18141,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR81" t="n">
         <v>1.59</v>
@@ -18442,7 +18442,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>7217690</v>
+        <v>7217687</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -18462,35 +18462,35 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Baladiyyat Al Mehalla</t>
+          <t>Masr</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>['10', '19', '44']</t>
+          <t>['90+5']</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -18499,160 +18499,160 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="R83" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S83" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="T83" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="U83" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="V83" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="W83" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="X83" t="n">
         <v>9</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Z83" t="n">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="AA83" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV83" t="n">
         <v>3</v>
       </c>
-      <c r="AB83" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK83" t="n">
+      <c r="AW83" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN83" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL83" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AM83" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN83" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO83" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AP83" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR83" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AS83" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AT83" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AU83" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV83" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW83" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX83" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY83" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ83" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA83" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB83" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC83" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD83" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="BE83" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BF83" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="BG83" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BH83" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="BI83" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BJ83" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK83" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BL83" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BM83" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BN83" t="n">
-        <v>1.38</v>
-      </c>
       <c r="BO83" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="BP83" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="84">
@@ -18660,7 +18660,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>7217687</v>
+        <v>7217690</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -18680,35 +18680,35 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Masr</t>
+          <t>Baladiyyat Al Mehalla</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>['90+5']</t>
+          <t>['10', '19', '44']</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -18717,160 +18717,160 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="R84" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S84" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V84" t="n">
         <v>3.25</v>
       </c>
-      <c r="T84" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U84" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V84" t="n">
-        <v>3.7</v>
-      </c>
       <c r="W84" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="X84" t="n">
         <v>9</v>
       </c>
       <c r="Y84" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z84" t="n">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="AA84" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AB84" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="AC84" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AD84" t="n">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="AE84" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO84" t="n">
         <v>1.5</v>
       </c>
-      <c r="AF84" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM84" t="n">
+      <c r="AP84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN84" t="n">
         <v>1.38</v>
       </c>
-      <c r="AN84" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AO84" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AP84" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AQ84" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AR84" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AS84" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AT84" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AU84" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV84" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW84" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY84" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ84" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA84" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC84" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD84" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE84" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="BF84" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BG84" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="BH84" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BI84" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ84" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="BK84" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BL84" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="BM84" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BN84" t="n">
-        <v>1.25</v>
-      </c>
       <c r="BO84" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="BP84" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="85">
@@ -19231,7 +19231,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR86" t="n">
         <v>1.42</v>
@@ -19449,7 +19449,7 @@
         <v>1</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR87" t="n">
         <v>1.51</v>
@@ -19667,7 +19667,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR88" t="n">
         <v>1.62</v>
@@ -19882,10 +19882,10 @@
         <v>1.2</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR89" t="n">
         <v>1.19</v>
@@ -20100,10 +20100,10 @@
         <v>1.4</v>
       </c>
       <c r="AP90" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR90" t="n">
         <v>1.45</v>
@@ -20318,7 +20318,7 @@
         <v>2</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.75</v>
@@ -20536,7 +20536,7 @@
         <v>3</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ92" t="n">
         <v>2.25</v>
@@ -20757,7 +20757,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR93" t="n">
         <v>1.44</v>
@@ -22577,6 +22577,1314 @@
       </c>
       <c r="BP101" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>7217710</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45345.58333333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>14</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Baladiyyat Al Mehalla</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2</v>
+      </c>
+      <c r="K102" t="n">
+        <v>3</v>
+      </c>
+      <c r="L102" t="n">
+        <v>3</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="n">
+        <v>8</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['10', '70', '90+4']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['17', '34', '61', '72', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V102" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X102" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>7217716</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45347.45833333334</v>
+      </c>
+      <c r="F103" t="n">
+        <v>14</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>2</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V103" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X103" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>7217714</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45347.58333333334</v>
+      </c>
+      <c r="F104" t="n">
+        <v>14</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2</v>
+      </c>
+      <c r="S104" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V104" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X104" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>7217709</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45348.45833333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>14</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>El Gounah</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V105" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X105" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>7217713</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45348.45833333334</v>
+      </c>
+      <c r="F106" t="n">
+        <v>14</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Masr</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V106" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X106" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>7217711</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45348.58333333334</v>
+      </c>
+      <c r="F107" t="n">
+        <v>14</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V107" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X107" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>['53']</t>
+  </si>
+  <si>
+    <t>['76']</t>
   </si>
   <si>
     <t>['16', '75']</t>
@@ -1053,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1599,7 +1602,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2136,7 +2139,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2214,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ6">
         <v>1.29</v>
@@ -2548,7 +2551,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2960,7 +2963,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3166,7 +3169,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3372,7 +3375,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3578,7 +3581,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3784,7 +3787,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4608,7 +4611,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4814,7 +4817,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5226,7 +5229,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5432,7 +5435,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5638,7 +5641,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5844,7 +5847,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6050,7 +6053,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6462,7 +6465,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>1.91</v>
@@ -6543,7 +6546,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ27">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>2</v>
@@ -7080,7 +7083,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7286,7 +7289,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7492,7 +7495,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7698,7 +7701,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7776,7 +7779,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ33">
         <v>1.63</v>
@@ -7904,7 +7907,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8316,7 +8319,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8522,7 +8525,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8728,7 +8731,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8934,7 +8937,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9140,7 +9143,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9633,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR42">
         <v>0.84</v>
@@ -9758,7 +9761,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9964,7 +9967,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10170,7 +10173,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10788,7 +10791,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -10866,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ48">
         <v>2.33</v>
@@ -10994,7 +10997,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11406,7 +11409,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11612,7 +11615,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11818,7 +11821,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12230,7 +12233,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12311,7 +12314,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ55">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR55">
         <v>1.67</v>
@@ -12642,7 +12645,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13260,7 +13263,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13466,7 +13469,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13878,7 +13881,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14084,7 +14087,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14290,7 +14293,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14496,7 +14499,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14702,7 +14705,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -14986,7 +14989,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ68">
         <v>0.29</v>
@@ -15114,7 +15117,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15526,7 +15529,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>1.8</v>
@@ -16144,7 +16147,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16350,7 +16353,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16637,7 +16640,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ76">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR76">
         <v>1.17</v>
@@ -16762,7 +16765,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -16968,7 +16971,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17174,7 +17177,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17380,7 +17383,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18410,7 +18413,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18616,7 +18619,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18697,7 +18700,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ86">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -18822,7 +18825,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19028,7 +19031,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -19234,7 +19237,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19312,7 +19315,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ89">
         <v>1.71</v>
@@ -19440,7 +19443,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -20058,7 +20061,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20882,7 +20885,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21500,7 +21503,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21912,7 +21915,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22118,7 +22121,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22611,7 +22614,7 @@
         <v>1</v>
       </c>
       <c r="AQ105">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR105">
         <v>1.44</v>
@@ -22942,7 +22945,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23020,7 +23023,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ107">
         <v>1.67</v>
@@ -23354,7 +23357,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23560,7 +23563,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q110">
         <v>3.5</v>
@@ -24178,7 +24181,7 @@
         <v>161</v>
       </c>
       <c r="P113" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24796,7 +24799,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q116">
         <v>2.1</v>
@@ -25208,7 +25211,7 @@
         <v>105</v>
       </c>
       <c r="P118" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25365,6 +25368,212 @@
       </c>
       <c r="BP118">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7217728</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F119">
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>74</v>
+      </c>
+      <c r="H119" t="s">
+        <v>86</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>164</v>
+      </c>
+      <c r="P119" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q119">
+        <v>3.75</v>
+      </c>
+      <c r="R119">
+        <v>1.91</v>
+      </c>
+      <c r="S119">
+        <v>3.1</v>
+      </c>
+      <c r="T119">
+        <v>1.5</v>
+      </c>
+      <c r="U119">
+        <v>2.4</v>
+      </c>
+      <c r="V119">
+        <v>3.6</v>
+      </c>
+      <c r="W119">
+        <v>1.25</v>
+      </c>
+      <c r="X119">
+        <v>8.5</v>
+      </c>
+      <c r="Y119">
+        <v>1.04</v>
+      </c>
+      <c r="Z119">
+        <v>2.9</v>
+      </c>
+      <c r="AA119">
+        <v>2.7</v>
+      </c>
+      <c r="AB119">
+        <v>2.6</v>
+      </c>
+      <c r="AC119">
+        <v>1.08</v>
+      </c>
+      <c r="AD119">
+        <v>6.2</v>
+      </c>
+      <c r="AE119">
+        <v>1.5</v>
+      </c>
+      <c r="AF119">
+        <v>2.45</v>
+      </c>
+      <c r="AG119">
+        <v>2.4</v>
+      </c>
+      <c r="AH119">
+        <v>1.5</v>
+      </c>
+      <c r="AI119">
+        <v>2.2</v>
+      </c>
+      <c r="AJ119">
+        <v>1.62</v>
+      </c>
+      <c r="AK119">
+        <v>1.32</v>
+      </c>
+      <c r="AL119">
+        <v>1.4</v>
+      </c>
+      <c r="AM119">
+        <v>1.37</v>
+      </c>
+      <c r="AN119">
+        <v>0.33</v>
+      </c>
+      <c r="AO119">
+        <v>0.43</v>
+      </c>
+      <c r="AP119">
+        <v>0.43</v>
+      </c>
+      <c r="AQ119">
+        <v>0.5</v>
+      </c>
+      <c r="AR119">
+        <v>1.23</v>
+      </c>
+      <c r="AS119">
+        <v>1.6</v>
+      </c>
+      <c r="AT119">
+        <v>2.83</v>
+      </c>
+      <c r="AU119">
+        <v>5</v>
+      </c>
+      <c r="AV119">
+        <v>5</v>
+      </c>
+      <c r="AW119">
+        <v>7</v>
+      </c>
+      <c r="AX119">
+        <v>3</v>
+      </c>
+      <c r="AY119">
+        <v>12</v>
+      </c>
+      <c r="AZ119">
+        <v>8</v>
+      </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>5</v>
+      </c>
+      <c r="BC119">
+        <v>5</v>
+      </c>
+      <c r="BD119">
+        <v>2.14</v>
+      </c>
+      <c r="BE119">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF119">
+        <v>1.89</v>
+      </c>
+      <c r="BG119">
+        <v>1.26</v>
+      </c>
+      <c r="BH119">
+        <v>3.34</v>
+      </c>
+      <c r="BI119">
+        <v>1.52</v>
+      </c>
+      <c r="BJ119">
+        <v>2.45</v>
+      </c>
+      <c r="BK119">
+        <v>2.2</v>
+      </c>
+      <c r="BL119">
+        <v>1.92</v>
+      </c>
+      <c r="BM119">
+        <v>2.35</v>
+      </c>
+      <c r="BN119">
+        <v>1.56</v>
+      </c>
+      <c r="BO119">
+        <v>3.2</v>
+      </c>
+      <c r="BP119">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="229">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,9 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -695,6 +698,9 @@
   </si>
   <si>
     <t>['45+2', '60']</t>
+  </si>
+  <si>
+    <t>['45', '84']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP119"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2011,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ5">
         <v>1.71</v>
@@ -2139,7 +2145,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2423,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ7">
         <v>1.86</v>
@@ -2551,7 +2557,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2838,7 +2844,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ9">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2963,7 +2969,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3169,7 +3175,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3250,7 +3256,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3375,7 +3381,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3581,7 +3587,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3787,7 +3793,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4611,7 +4617,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4817,7 +4823,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5101,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ20">
         <v>0.75</v>
@@ -5229,7 +5235,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5435,7 +5441,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5516,7 +5522,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ22">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.22</v>
@@ -5641,7 +5647,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5719,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ23">
         <v>1.67</v>
@@ -5847,7 +5853,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6053,7 +6059,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6465,7 +6471,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q27">
         <v>1.91</v>
@@ -7083,7 +7089,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7289,7 +7295,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7495,7 +7501,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7701,7 +7707,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7907,7 +7913,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7988,7 +7994,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.72</v>
@@ -8319,7 +8325,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8525,7 +8531,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8731,7 +8737,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8937,7 +8943,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9143,7 +9149,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9430,7 +9436,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ41">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.48</v>
@@ -9633,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ42">
         <v>0.5</v>
@@ -9761,7 +9767,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9967,7 +9973,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10045,7 +10051,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ44">
         <v>1.67</v>
@@ -10173,7 +10179,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10460,7 +10466,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ46">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR46">
         <v>2.1</v>
@@ -10791,7 +10797,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -10997,7 +11003,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11409,7 +11415,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11615,7 +11621,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11821,7 +11827,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12233,7 +12239,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12645,7 +12651,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13263,7 +13269,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13469,7 +13475,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13753,7 +13759,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ62">
         <v>1.29</v>
@@ -13881,7 +13887,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -13962,7 +13968,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ63">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1</v>
@@ -14087,7 +14093,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14165,7 +14171,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ64">
         <v>0.71</v>
@@ -14293,7 +14299,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14499,7 +14505,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14705,7 +14711,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15117,7 +15123,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15404,7 +15410,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ70">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -15529,7 +15535,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>1.8</v>
@@ -16019,7 +16025,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16147,7 +16153,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16353,7 +16359,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16765,7 +16771,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -16971,7 +16977,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17177,7 +17183,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17383,7 +17389,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17667,7 +17673,7 @@
         <v>1.75</v>
       </c>
       <c r="AP81">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ81">
         <v>1.29</v>
@@ -18413,7 +18419,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18491,7 +18497,7 @@
         <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ85">
         <v>1.67</v>
@@ -18619,7 +18625,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18825,7 +18831,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19031,7 +19037,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -19109,7 +19115,7 @@
         <v>1.2</v>
       </c>
       <c r="AP88">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19237,7 +19243,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19443,7 +19449,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -19730,7 +19736,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR91">
         <v>2.39</v>
@@ -20061,7 +20067,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20142,7 +20148,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ93">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR93">
         <v>1.44</v>
@@ -20885,7 +20891,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21503,7 +21509,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21581,7 +21587,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ100">
         <v>0.71</v>
@@ -21915,7 +21921,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21996,7 +22002,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ102">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR102">
         <v>1.24</v>
@@ -22121,7 +22127,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22945,7 +22951,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23357,7 +23363,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23435,7 +23441,7 @@
         <v>2.25</v>
       </c>
       <c r="AP109">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ109">
         <v>2</v>
@@ -23563,7 +23569,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q110">
         <v>3.5</v>
@@ -24181,7 +24187,7 @@
         <v>161</v>
       </c>
       <c r="P113" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24799,7 +24805,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q116">
         <v>2.1</v>
@@ -25211,7 +25217,7 @@
         <v>105</v>
       </c>
       <c r="P118" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25417,7 +25423,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25574,6 +25580,418 @@
       </c>
       <c r="BP119">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7217734</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="F120">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>73</v>
+      </c>
+      <c r="H120" t="s">
+        <v>78</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>92</v>
+      </c>
+      <c r="P120" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q120">
+        <v>7</v>
+      </c>
+      <c r="R120">
+        <v>2.1</v>
+      </c>
+      <c r="S120">
+        <v>2.05</v>
+      </c>
+      <c r="T120">
+        <v>1.44</v>
+      </c>
+      <c r="U120">
+        <v>2.63</v>
+      </c>
+      <c r="V120">
+        <v>3.25</v>
+      </c>
+      <c r="W120">
+        <v>1.33</v>
+      </c>
+      <c r="X120">
+        <v>7.5</v>
+      </c>
+      <c r="Y120">
+        <v>1.07</v>
+      </c>
+      <c r="Z120">
+        <v>6.73</v>
+      </c>
+      <c r="AA120">
+        <v>3.75</v>
+      </c>
+      <c r="AB120">
+        <v>1.45</v>
+      </c>
+      <c r="AC120">
+        <v>1.06</v>
+      </c>
+      <c r="AD120">
+        <v>8</v>
+      </c>
+      <c r="AE120">
+        <v>1.36</v>
+      </c>
+      <c r="AF120">
+        <v>3</v>
+      </c>
+      <c r="AG120">
+        <v>2.03</v>
+      </c>
+      <c r="AH120">
+        <v>1.7</v>
+      </c>
+      <c r="AI120">
+        <v>2.5</v>
+      </c>
+      <c r="AJ120">
+        <v>1.5</v>
+      </c>
+      <c r="AK120">
+        <v>2.45</v>
+      </c>
+      <c r="AL120">
+        <v>1.2</v>
+      </c>
+      <c r="AM120">
+        <v>1.07</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
+        <v>1.75</v>
+      </c>
+      <c r="AP120">
+        <v>0.88</v>
+      </c>
+      <c r="AQ120">
+        <v>2</v>
+      </c>
+      <c r="AR120">
+        <v>0.92</v>
+      </c>
+      <c r="AS120">
+        <v>1.5</v>
+      </c>
+      <c r="AT120">
+        <v>2.42</v>
+      </c>
+      <c r="AU120">
+        <v>2</v>
+      </c>
+      <c r="AV120">
+        <v>13</v>
+      </c>
+      <c r="AW120">
+        <v>4</v>
+      </c>
+      <c r="AX120">
+        <v>10</v>
+      </c>
+      <c r="AY120">
+        <v>6</v>
+      </c>
+      <c r="AZ120">
+        <v>23</v>
+      </c>
+      <c r="BA120">
+        <v>4</v>
+      </c>
+      <c r="BB120">
+        <v>5</v>
+      </c>
+      <c r="BC120">
+        <v>9</v>
+      </c>
+      <c r="BD120">
+        <v>3.7</v>
+      </c>
+      <c r="BE120">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF120">
+        <v>1.35</v>
+      </c>
+      <c r="BG120">
+        <v>1.32</v>
+      </c>
+      <c r="BH120">
+        <v>2.98</v>
+      </c>
+      <c r="BI120">
+        <v>1.59</v>
+      </c>
+      <c r="BJ120">
+        <v>2.16</v>
+      </c>
+      <c r="BK120">
+        <v>2</v>
+      </c>
+      <c r="BL120">
+        <v>1.69</v>
+      </c>
+      <c r="BM120">
+        <v>2.64</v>
+      </c>
+      <c r="BN120">
+        <v>1.4</v>
+      </c>
+      <c r="BO120">
+        <v>3.65</v>
+      </c>
+      <c r="BP120">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7217729</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="F121">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>75</v>
+      </c>
+      <c r="H121" t="s">
+        <v>87</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121" t="s">
+        <v>165</v>
+      </c>
+      <c r="P121" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q121">
+        <v>3.6</v>
+      </c>
+      <c r="R121">
+        <v>2</v>
+      </c>
+      <c r="S121">
+        <v>3</v>
+      </c>
+      <c r="T121">
+        <v>1.47</v>
+      </c>
+      <c r="U121">
+        <v>2.57</v>
+      </c>
+      <c r="V121">
+        <v>3.2</v>
+      </c>
+      <c r="W121">
+        <v>1.32</v>
+      </c>
+      <c r="X121">
+        <v>8.5</v>
+      </c>
+      <c r="Y121">
+        <v>1.05</v>
+      </c>
+      <c r="Z121">
+        <v>3.02</v>
+      </c>
+      <c r="AA121">
+        <v>2.8</v>
+      </c>
+      <c r="AB121">
+        <v>2.4</v>
+      </c>
+      <c r="AC121">
+        <v>1.08</v>
+      </c>
+      <c r="AD121">
+        <v>7</v>
+      </c>
+      <c r="AE121">
+        <v>1.4</v>
+      </c>
+      <c r="AF121">
+        <v>2.8</v>
+      </c>
+      <c r="AG121">
+        <v>2.07</v>
+      </c>
+      <c r="AH121">
+        <v>1.67</v>
+      </c>
+      <c r="AI121">
+        <v>1.83</v>
+      </c>
+      <c r="AJ121">
+        <v>1.83</v>
+      </c>
+      <c r="AK121">
+        <v>1.57</v>
+      </c>
+      <c r="AL121">
+        <v>1.3</v>
+      </c>
+      <c r="AM121">
+        <v>1.35</v>
+      </c>
+      <c r="AN121">
+        <v>1.71</v>
+      </c>
+      <c r="AO121">
+        <v>1.14</v>
+      </c>
+      <c r="AP121">
+        <v>1.88</v>
+      </c>
+      <c r="AQ121">
+        <v>1</v>
+      </c>
+      <c r="AR121">
+        <v>1.59</v>
+      </c>
+      <c r="AS121">
+        <v>1.8</v>
+      </c>
+      <c r="AT121">
+        <v>3.39</v>
+      </c>
+      <c r="AU121">
+        <v>4</v>
+      </c>
+      <c r="AV121">
+        <v>4</v>
+      </c>
+      <c r="AW121">
+        <v>6</v>
+      </c>
+      <c r="AX121">
+        <v>5</v>
+      </c>
+      <c r="AY121">
+        <v>10</v>
+      </c>
+      <c r="AZ121">
+        <v>9</v>
+      </c>
+      <c r="BA121">
+        <v>7</v>
+      </c>
+      <c r="BB121">
+        <v>8</v>
+      </c>
+      <c r="BC121">
+        <v>15</v>
+      </c>
+      <c r="BD121">
+        <v>2.12</v>
+      </c>
+      <c r="BE121">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF121">
+        <v>1.9</v>
+      </c>
+      <c r="BG121">
+        <v>1.24</v>
+      </c>
+      <c r="BH121">
+        <v>3.48</v>
+      </c>
+      <c r="BI121">
+        <v>1.57</v>
+      </c>
+      <c r="BJ121">
+        <v>2.32</v>
+      </c>
+      <c r="BK121">
+        <v>1.99</v>
+      </c>
+      <c r="BL121">
+        <v>1.81</v>
+      </c>
+      <c r="BM121">
+        <v>2.54</v>
+      </c>
+      <c r="BN121">
+        <v>1.49</v>
+      </c>
+      <c r="BO121">
+        <v>3.14</v>
+      </c>
+      <c r="BP121">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,15 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['21', '80']</t>
+  </si>
+  <si>
+    <t>['7', '63', '84', '90+4']</t>
+  </si>
+  <si>
+    <t>['30', '74', '81']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -701,6 +710,15 @@
   </si>
   <si>
     <t>['45', '84']</t>
+  </si>
+  <si>
+    <t>['54', '90+8']</t>
+  </si>
+  <si>
+    <t>['4', '28', '72']</t>
+  </si>
+  <si>
+    <t>['51', '56']</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1605,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1814,7 +1832,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ4">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2145,7 +2163,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2557,7 +2575,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2638,7 +2656,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2841,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2969,7 +2987,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3050,7 +3068,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3175,7 +3193,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3253,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3381,7 +3399,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3587,7 +3605,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3793,7 +3811,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4283,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ16">
         <v>1.63</v>
@@ -4617,7 +4635,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4823,7 +4841,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -4901,7 +4919,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ19">
         <v>1.29</v>
@@ -5235,7 +5253,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5313,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21">
         <v>1.86</v>
@@ -5441,7 +5459,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5647,7 +5665,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5728,7 +5746,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR23">
         <v>0.65</v>
@@ -5853,7 +5871,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5934,7 +5952,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR24">
         <v>1.15</v>
@@ -6059,7 +6077,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6137,10 +6155,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR25">
         <v>0.44</v>
@@ -6471,7 +6489,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>1.91</v>
@@ -7089,7 +7107,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7295,7 +7313,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7501,7 +7519,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7707,7 +7725,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7913,7 +7931,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8325,7 +8343,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8406,7 +8424,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -8531,7 +8549,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8612,7 +8630,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR37">
         <v>1.06</v>
@@ -8737,7 +8755,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8943,7 +8961,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9021,7 +9039,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9149,7 +9167,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9227,7 +9245,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ40">
         <v>0.75</v>
@@ -9767,7 +9785,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9845,10 +9863,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR43">
         <v>0.91</v>
@@ -9973,7 +9991,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10179,7 +10197,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10669,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ47">
         <v>0.29</v>
@@ -10797,7 +10815,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -10878,7 +10896,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ48">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR48">
         <v>1.22</v>
@@ -11003,7 +11021,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11415,7 +11433,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11621,7 +11639,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11827,7 +11845,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -11908,7 +11926,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ53">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -12111,10 +12129,10 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ54">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR54">
         <v>1.42</v>
@@ -12239,7 +12257,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12651,7 +12669,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12732,7 +12750,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR57">
         <v>1.05</v>
@@ -12935,7 +12953,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ58">
         <v>1.63</v>
@@ -13269,7 +13287,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13475,7 +13493,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13556,7 +13574,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ61">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -13887,7 +13905,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -13965,7 +13983,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14093,7 +14111,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14299,7 +14317,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14505,7 +14523,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14711,7 +14729,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15123,7 +15141,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15201,7 +15219,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ69">
         <v>1.86</v>
@@ -15535,7 +15553,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>1.8</v>
@@ -15822,7 +15840,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ72">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR72">
         <v>1.39</v>
@@ -16153,7 +16171,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16359,7 +16377,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16771,7 +16789,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -16849,7 +16867,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ77">
         <v>1.71</v>
@@ -16977,7 +16995,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17183,7 +17201,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17261,7 +17279,7 @@
         <v>0.75</v>
       </c>
       <c r="AP79">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ79">
         <v>0.71</v>
@@ -17389,7 +17407,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17467,7 +17485,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ80">
         <v>0.29</v>
@@ -17879,7 +17897,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ82">
         <v>0.75</v>
@@ -18419,7 +18437,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18625,7 +18643,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18831,7 +18849,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -18909,10 +18927,10 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ87">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19037,7 +19055,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -19243,7 +19261,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19449,7 +19467,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -19527,7 +19545,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ90">
         <v>1.29</v>
@@ -19733,7 +19751,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ91">
         <v>2</v>
@@ -19942,7 +19960,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ92">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR92">
         <v>1.28</v>
@@ -20067,7 +20085,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20557,7 +20575,7 @@
         <v>1.83</v>
       </c>
       <c r="AP95">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ95">
         <v>1.63</v>
@@ -20891,7 +20909,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21178,7 +21196,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ98">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR98">
         <v>1.43</v>
@@ -21509,7 +21527,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21921,7 +21939,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22127,7 +22145,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22411,7 +22429,7 @@
         <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22617,7 +22635,7 @@
         <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ105">
         <v>0.5</v>
@@ -22823,7 +22841,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ106">
         <v>1.71</v>
@@ -22951,7 +22969,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23032,7 +23050,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ107">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR107">
         <v>1.23</v>
@@ -23363,7 +23381,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23444,7 +23462,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ109">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR109">
         <v>1.64</v>
@@ -23569,7 +23587,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q110">
         <v>3.5</v>
@@ -24187,7 +24205,7 @@
         <v>161</v>
       </c>
       <c r="P113" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24805,7 +24823,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q116">
         <v>2.1</v>
@@ -25217,7 +25235,7 @@
         <v>105</v>
       </c>
       <c r="P118" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25423,7 +25441,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25629,7 +25647,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -25992,6 +26010,830 @@
       </c>
       <c r="BP121">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7217731</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45362.6875</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>77</v>
+      </c>
+      <c r="H122" t="s">
+        <v>82</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122" t="s">
+        <v>92</v>
+      </c>
+      <c r="P122" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q122">
+        <v>3.5</v>
+      </c>
+      <c r="R122">
+        <v>1.83</v>
+      </c>
+      <c r="S122">
+        <v>3.5</v>
+      </c>
+      <c r="T122">
+        <v>1.57</v>
+      </c>
+      <c r="U122">
+        <v>2.23</v>
+      </c>
+      <c r="V122">
+        <v>3.6</v>
+      </c>
+      <c r="W122">
+        <v>1.25</v>
+      </c>
+      <c r="X122">
+        <v>9</v>
+      </c>
+      <c r="Y122">
+        <v>1.03</v>
+      </c>
+      <c r="Z122">
+        <v>3.22</v>
+      </c>
+      <c r="AA122">
+        <v>2.1</v>
+      </c>
+      <c r="AB122">
+        <v>3.1</v>
+      </c>
+      <c r="AC122">
+        <v>1.11</v>
+      </c>
+      <c r="AD122">
+        <v>5.5</v>
+      </c>
+      <c r="AE122">
+        <v>1.5</v>
+      </c>
+      <c r="AF122">
+        <v>2.4</v>
+      </c>
+      <c r="AG122">
+        <v>2.37</v>
+      </c>
+      <c r="AH122">
+        <v>1.4</v>
+      </c>
+      <c r="AI122">
+        <v>2.25</v>
+      </c>
+      <c r="AJ122">
+        <v>1.57</v>
+      </c>
+      <c r="AK122">
+        <v>1.4</v>
+      </c>
+      <c r="AL122">
+        <v>1.44</v>
+      </c>
+      <c r="AM122">
+        <v>1.44</v>
+      </c>
+      <c r="AN122">
+        <v>1.86</v>
+      </c>
+      <c r="AO122">
+        <v>2</v>
+      </c>
+      <c r="AP122">
+        <v>1.75</v>
+      </c>
+      <c r="AQ122">
+        <v>1.83</v>
+      </c>
+      <c r="AR122">
+        <v>1.48</v>
+      </c>
+      <c r="AS122">
+        <v>1.45</v>
+      </c>
+      <c r="AT122">
+        <v>2.93</v>
+      </c>
+      <c r="AU122">
+        <v>2</v>
+      </c>
+      <c r="AV122">
+        <v>5</v>
+      </c>
+      <c r="AW122">
+        <v>5</v>
+      </c>
+      <c r="AX122">
+        <v>6</v>
+      </c>
+      <c r="AY122">
+        <v>7</v>
+      </c>
+      <c r="AZ122">
+        <v>11</v>
+      </c>
+      <c r="BA122">
+        <v>1</v>
+      </c>
+      <c r="BB122">
+        <v>4</v>
+      </c>
+      <c r="BC122">
+        <v>5</v>
+      </c>
+      <c r="BD122">
+        <v>2.09</v>
+      </c>
+      <c r="BE122">
+        <v>8.1</v>
+      </c>
+      <c r="BF122">
+        <v>1.94</v>
+      </c>
+      <c r="BG122">
+        <v>1.33</v>
+      </c>
+      <c r="BH122">
+        <v>2.93</v>
+      </c>
+      <c r="BI122">
+        <v>1.67</v>
+      </c>
+      <c r="BJ122">
+        <v>2.17</v>
+      </c>
+      <c r="BK122">
+        <v>2.08</v>
+      </c>
+      <c r="BL122">
+        <v>1.72</v>
+      </c>
+      <c r="BM122">
+        <v>2.71</v>
+      </c>
+      <c r="BN122">
+        <v>1.38</v>
+      </c>
+      <c r="BO122">
+        <v>3.74</v>
+      </c>
+      <c r="BP122">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7217730</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45363.6875</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>71</v>
+      </c>
+      <c r="H123" t="s">
+        <v>85</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123" t="s">
+        <v>166</v>
+      </c>
+      <c r="P123" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q123">
+        <v>3.2</v>
+      </c>
+      <c r="R123">
+        <v>1.91</v>
+      </c>
+      <c r="S123">
+        <v>3.75</v>
+      </c>
+      <c r="T123">
+        <v>1.48</v>
+      </c>
+      <c r="U123">
+        <v>2.6</v>
+      </c>
+      <c r="V123">
+        <v>3.35</v>
+      </c>
+      <c r="W123">
+        <v>1.31</v>
+      </c>
+      <c r="X123">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y123">
+        <v>1.04</v>
+      </c>
+      <c r="Z123">
+        <v>2.6</v>
+      </c>
+      <c r="AA123">
+        <v>2.5</v>
+      </c>
+      <c r="AB123">
+        <v>3.1</v>
+      </c>
+      <c r="AC123">
+        <v>1.01</v>
+      </c>
+      <c r="AD123">
+        <v>2.72</v>
+      </c>
+      <c r="AE123">
+        <v>1.42</v>
+      </c>
+      <c r="AF123">
+        <v>2.72</v>
+      </c>
+      <c r="AG123">
+        <v>2.5</v>
+      </c>
+      <c r="AH123">
+        <v>1.5</v>
+      </c>
+      <c r="AI123">
+        <v>2</v>
+      </c>
+      <c r="AJ123">
+        <v>1.73</v>
+      </c>
+      <c r="AK123">
+        <v>1.57</v>
+      </c>
+      <c r="AL123">
+        <v>1.43</v>
+      </c>
+      <c r="AM123">
+        <v>1.4</v>
+      </c>
+      <c r="AN123">
+        <v>1.5</v>
+      </c>
+      <c r="AO123">
+        <v>1.67</v>
+      </c>
+      <c r="AP123">
+        <v>1.43</v>
+      </c>
+      <c r="AQ123">
+        <v>1.57</v>
+      </c>
+      <c r="AR123">
+        <v>1.91</v>
+      </c>
+      <c r="AS123">
+        <v>1.1</v>
+      </c>
+      <c r="AT123">
+        <v>3.01</v>
+      </c>
+      <c r="AU123">
+        <v>-1</v>
+      </c>
+      <c r="AV123">
+        <v>-1</v>
+      </c>
+      <c r="AW123">
+        <v>-1</v>
+      </c>
+      <c r="AX123">
+        <v>-1</v>
+      </c>
+      <c r="AY123">
+        <v>-1</v>
+      </c>
+      <c r="AZ123">
+        <v>-1</v>
+      </c>
+      <c r="BA123">
+        <v>11</v>
+      </c>
+      <c r="BB123">
+        <v>11</v>
+      </c>
+      <c r="BC123">
+        <v>22</v>
+      </c>
+      <c r="BD123">
+        <v>1.98</v>
+      </c>
+      <c r="BE123">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF123">
+        <v>2.04</v>
+      </c>
+      <c r="BG123">
+        <v>1.34</v>
+      </c>
+      <c r="BH123">
+        <v>2.88</v>
+      </c>
+      <c r="BI123">
+        <v>1.67</v>
+      </c>
+      <c r="BJ123">
+        <v>2.16</v>
+      </c>
+      <c r="BK123">
+        <v>2.08</v>
+      </c>
+      <c r="BL123">
+        <v>1.72</v>
+      </c>
+      <c r="BM123">
+        <v>2.75</v>
+      </c>
+      <c r="BN123">
+        <v>1.37</v>
+      </c>
+      <c r="BO123">
+        <v>3.86</v>
+      </c>
+      <c r="BP123">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7217721</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45363.6875</v>
+      </c>
+      <c r="F124">
+        <v>15</v>
+      </c>
+      <c r="G124" t="s">
+        <v>79</v>
+      </c>
+      <c r="H124" t="s">
+        <v>72</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="K124">
+        <v>3</v>
+      </c>
+      <c r="L124">
+        <v>4</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+      <c r="N124">
+        <v>7</v>
+      </c>
+      <c r="O124" t="s">
+        <v>167</v>
+      </c>
+      <c r="P124" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q124">
+        <v>6</v>
+      </c>
+      <c r="R124">
+        <v>2.25</v>
+      </c>
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>1.4</v>
+      </c>
+      <c r="U124">
+        <v>2.75</v>
+      </c>
+      <c r="V124">
+        <v>2.95</v>
+      </c>
+      <c r="W124">
+        <v>1.35</v>
+      </c>
+      <c r="X124">
+        <v>6.5</v>
+      </c>
+      <c r="Y124">
+        <v>1.08</v>
+      </c>
+      <c r="Z124">
+        <v>8</v>
+      </c>
+      <c r="AA124">
+        <v>4.5</v>
+      </c>
+      <c r="AB124">
+        <v>1.36</v>
+      </c>
+      <c r="AC124">
+        <v>1.01</v>
+      </c>
+      <c r="AD124">
+        <v>3.6</v>
+      </c>
+      <c r="AE124">
+        <v>1.28</v>
+      </c>
+      <c r="AF124">
+        <v>3.6</v>
+      </c>
+      <c r="AG124">
+        <v>1.74</v>
+      </c>
+      <c r="AH124">
+        <v>1.99</v>
+      </c>
+      <c r="AI124">
+        <v>2.1</v>
+      </c>
+      <c r="AJ124">
+        <v>1.67</v>
+      </c>
+      <c r="AK124">
+        <v>2.72</v>
+      </c>
+      <c r="AL124">
+        <v>1.27</v>
+      </c>
+      <c r="AM124">
+        <v>1.14</v>
+      </c>
+      <c r="AN124">
+        <v>0.57</v>
+      </c>
+      <c r="AO124">
+        <v>2.33</v>
+      </c>
+      <c r="AP124">
+        <v>0.88</v>
+      </c>
+      <c r="AQ124">
+        <v>1.75</v>
+      </c>
+      <c r="AR124">
+        <v>1.42</v>
+      </c>
+      <c r="AS124">
+        <v>1.77</v>
+      </c>
+      <c r="AT124">
+        <v>3.19</v>
+      </c>
+      <c r="AU124">
+        <v>6</v>
+      </c>
+      <c r="AV124">
+        <v>9</v>
+      </c>
+      <c r="AW124">
+        <v>4</v>
+      </c>
+      <c r="AX124">
+        <v>9</v>
+      </c>
+      <c r="AY124">
+        <v>10</v>
+      </c>
+      <c r="AZ124">
+        <v>18</v>
+      </c>
+      <c r="BA124">
+        <v>6</v>
+      </c>
+      <c r="BB124">
+        <v>12</v>
+      </c>
+      <c r="BC124">
+        <v>18</v>
+      </c>
+      <c r="BD124">
+        <v>3.58</v>
+      </c>
+      <c r="BE124">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF124">
+        <v>1.36</v>
+      </c>
+      <c r="BG124">
+        <v>1.2</v>
+      </c>
+      <c r="BH124">
+        <v>3.86</v>
+      </c>
+      <c r="BI124">
+        <v>1.52</v>
+      </c>
+      <c r="BJ124">
+        <v>2.46</v>
+      </c>
+      <c r="BK124">
+        <v>2.25</v>
+      </c>
+      <c r="BL124">
+        <v>1.9</v>
+      </c>
+      <c r="BM124">
+        <v>2.44</v>
+      </c>
+      <c r="BN124">
+        <v>1.53</v>
+      </c>
+      <c r="BO124">
+        <v>2.84</v>
+      </c>
+      <c r="BP124">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7217718</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45363.6875</v>
+      </c>
+      <c r="F125">
+        <v>15</v>
+      </c>
+      <c r="G125" t="s">
+        <v>84</v>
+      </c>
+      <c r="H125" t="s">
+        <v>80</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>5</v>
+      </c>
+      <c r="O125" t="s">
+        <v>168</v>
+      </c>
+      <c r="P125" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q125">
+        <v>4</v>
+      </c>
+      <c r="R125">
+        <v>2.1</v>
+      </c>
+      <c r="S125">
+        <v>2.6</v>
+      </c>
+      <c r="T125">
+        <v>1.4</v>
+      </c>
+      <c r="U125">
+        <v>2.75</v>
+      </c>
+      <c r="V125">
+        <v>2.8</v>
+      </c>
+      <c r="W125">
+        <v>1.38</v>
+      </c>
+      <c r="X125">
+        <v>7</v>
+      </c>
+      <c r="Y125">
+        <v>1.08</v>
+      </c>
+      <c r="Z125">
+        <v>3.6</v>
+      </c>
+      <c r="AA125">
+        <v>3.3</v>
+      </c>
+      <c r="AB125">
+        <v>1.99</v>
+      </c>
+      <c r="AC125">
+        <v>1.03</v>
+      </c>
+      <c r="AD125">
+        <v>10</v>
+      </c>
+      <c r="AE125">
+        <v>1.3</v>
+      </c>
+      <c r="AF125">
+        <v>1.83</v>
+      </c>
+      <c r="AG125">
+        <v>1.92</v>
+      </c>
+      <c r="AH125">
+        <v>1.82</v>
+      </c>
+      <c r="AI125">
+        <v>1.83</v>
+      </c>
+      <c r="AJ125">
+        <v>1.83</v>
+      </c>
+      <c r="AK125">
+        <v>1.91</v>
+      </c>
+      <c r="AL125">
+        <v>1.3</v>
+      </c>
+      <c r="AM125">
+        <v>1.24</v>
+      </c>
+      <c r="AN125">
+        <v>1</v>
+      </c>
+      <c r="AO125">
+        <v>1.33</v>
+      </c>
+      <c r="AP125">
+        <v>1.29</v>
+      </c>
+      <c r="AQ125">
+        <v>1.14</v>
+      </c>
+      <c r="AR125">
+        <v>1.36</v>
+      </c>
+      <c r="AS125">
+        <v>1.68</v>
+      </c>
+      <c r="AT125">
+        <v>3.04</v>
+      </c>
+      <c r="AU125">
+        <v>7</v>
+      </c>
+      <c r="AV125">
+        <v>9</v>
+      </c>
+      <c r="AW125">
+        <v>7</v>
+      </c>
+      <c r="AX125">
+        <v>4</v>
+      </c>
+      <c r="AY125">
+        <v>14</v>
+      </c>
+      <c r="AZ125">
+        <v>13</v>
+      </c>
+      <c r="BA125">
+        <v>5</v>
+      </c>
+      <c r="BB125">
+        <v>6</v>
+      </c>
+      <c r="BC125">
+        <v>11</v>
+      </c>
+      <c r="BD125">
+        <v>2.65</v>
+      </c>
+      <c r="BE125">
+        <v>9</v>
+      </c>
+      <c r="BF125">
+        <v>1.59</v>
+      </c>
+      <c r="BG125">
+        <v>1.28</v>
+      </c>
+      <c r="BH125">
+        <v>3.4</v>
+      </c>
+      <c r="BI125">
+        <v>1.5</v>
+      </c>
+      <c r="BJ125">
+        <v>2.51</v>
+      </c>
+      <c r="BK125">
+        <v>2.1</v>
+      </c>
+      <c r="BL125">
+        <v>1.93</v>
+      </c>
+      <c r="BM125">
+        <v>2.4</v>
+      </c>
+      <c r="BN125">
+        <v>1.54</v>
+      </c>
+      <c r="BO125">
+        <v>2.64</v>
+      </c>
+      <c r="BP125">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -523,6 +523,9 @@
     <t>['30', '74', '81']</t>
   </si>
   <si>
+    <t>['86', '90+5']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -719,6 +722,12 @@
   </si>
   <si>
     <t>['51', '56']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['20', '69']</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP125"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2163,7 +2172,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2575,7 +2584,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2987,7 +2996,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3193,7 +3202,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3399,7 +3408,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3480,7 +3489,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3605,7 +3614,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3686,7 +3695,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3811,7 +3820,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4301,10 +4310,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ16">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4635,7 +4644,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4713,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ18">
         <v>1.67</v>
@@ -4841,7 +4850,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5128,7 +5137,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.31</v>
@@ -5253,7 +5262,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5459,7 +5468,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5665,7 +5674,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5871,7 +5880,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6077,7 +6086,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6489,7 +6498,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>1.91</v>
@@ -6979,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>0.29</v>
@@ -7107,7 +7116,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7313,7 +7322,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7519,7 +7528,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7600,7 +7609,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR32">
         <v>1.53</v>
@@ -7725,7 +7734,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7806,7 +7815,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ33">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR33">
         <v>1.31</v>
@@ -7931,7 +7940,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8215,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ35">
         <v>0.71</v>
@@ -8343,7 +8352,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8549,7 +8558,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8755,7 +8764,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8961,7 +8970,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9042,7 +9051,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR39">
         <v>1.93</v>
@@ -9167,7 +9176,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9248,7 +9257,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ40">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.72</v>
@@ -9785,7 +9794,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9991,7 +10000,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10197,7 +10206,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10278,7 +10287,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -10481,7 +10490,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>2</v>
@@ -10687,7 +10696,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ47">
         <v>0.29</v>
@@ -10815,7 +10824,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11021,7 +11030,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11433,7 +11442,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11511,7 +11520,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ51">
         <v>1.29</v>
@@ -11639,7 +11648,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11845,7 +11854,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -11923,7 +11932,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>1.75</v>
@@ -12129,7 +12138,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ54">
         <v>1.75</v>
@@ -12257,7 +12266,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12544,7 +12553,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR56">
         <v>1.78</v>
@@ -12669,7 +12678,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12956,7 +12965,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ58">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR58">
         <v>1.7</v>
@@ -13287,7 +13296,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13368,7 +13377,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ60">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.41</v>
@@ -13493,7 +13502,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13905,7 +13914,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14111,7 +14120,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14317,7 +14326,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14523,7 +14532,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14601,7 +14610,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14729,7 +14738,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -14807,7 +14816,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>1.71</v>
@@ -15141,7 +15150,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15553,7 +15562,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>1.8</v>
@@ -16046,7 +16055,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR73">
         <v>0.83</v>
@@ -16171,7 +16180,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16252,7 +16261,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ74">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16377,7 +16386,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16458,7 +16467,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ75">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>1.37</v>
@@ -16789,7 +16798,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -16867,7 +16876,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ77">
         <v>1.71</v>
@@ -16995,7 +17004,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17201,7 +17210,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17407,7 +17416,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17900,7 +17909,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ82">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.14</v>
@@ -18106,7 +18115,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ83">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR83">
         <v>1.49</v>
@@ -18437,7 +18446,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18643,7 +18652,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18849,7 +18858,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -18927,7 +18936,7 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ87">
         <v>1.57</v>
@@ -19055,7 +19064,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -19261,7 +19270,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19467,7 +19476,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -20085,7 +20094,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20163,7 +20172,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20372,7 +20381,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR94">
         <v>1.11</v>
@@ -20578,7 +20587,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ95">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR95">
         <v>1.2</v>
@@ -20909,7 +20918,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -20990,7 +20999,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ97">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>1.11</v>
@@ -21193,7 +21202,7 @@
         <v>1.4</v>
       </c>
       <c r="AP98">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ98">
         <v>1.14</v>
@@ -21399,7 +21408,7 @@
         <v>1.8</v>
       </c>
       <c r="AP99">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>1.86</v>
@@ -21527,7 +21536,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21939,7 +21948,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22145,7 +22154,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22635,7 +22644,7 @@
         <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ105">
         <v>0.5</v>
@@ -22969,7 +22978,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23381,7 +23390,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23587,7 +23596,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q110">
         <v>3.5</v>
@@ -23871,10 +23880,10 @@
         <v>0.86</v>
       </c>
       <c r="AP111">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.82</v>
@@ -24077,7 +24086,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ112">
         <v>1.29</v>
@@ -24205,7 +24214,7 @@
         <v>161</v>
       </c>
       <c r="P113" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24698,7 +24707,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR115">
         <v>1.36</v>
@@ -24823,7 +24832,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q116">
         <v>2.1</v>
@@ -25110,7 +25119,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ117">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR117">
         <v>1.16</v>
@@ -25235,7 +25244,7 @@
         <v>105</v>
       </c>
       <c r="P118" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25441,7 +25450,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25647,7 +25656,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -26265,7 +26274,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -26471,7 +26480,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -26677,7 +26686,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26755,7 +26764,7 @@
         <v>1.33</v>
       </c>
       <c r="AP125">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ125">
         <v>1.14</v>
@@ -26834,6 +26843,624 @@
       </c>
       <c r="BP125">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7217742</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45385.70833333334</v>
+      </c>
+      <c r="F126">
+        <v>17</v>
+      </c>
+      <c r="G126" t="s">
+        <v>86</v>
+      </c>
+      <c r="H126" t="s">
+        <v>75</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>169</v>
+      </c>
+      <c r="P126" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q126">
+        <v>3.4</v>
+      </c>
+      <c r="R126">
+        <v>1.91</v>
+      </c>
+      <c r="S126">
+        <v>3.4</v>
+      </c>
+      <c r="T126">
+        <v>1.52</v>
+      </c>
+      <c r="U126">
+        <v>2.43</v>
+      </c>
+      <c r="V126">
+        <v>3.46</v>
+      </c>
+      <c r="W126">
+        <v>1.28</v>
+      </c>
+      <c r="X126">
+        <v>9.5</v>
+      </c>
+      <c r="Y126">
+        <v>1.04</v>
+      </c>
+      <c r="Z126">
+        <v>2.6</v>
+      </c>
+      <c r="AA126">
+        <v>3</v>
+      </c>
+      <c r="AB126">
+        <v>2.6</v>
+      </c>
+      <c r="AC126">
+        <v>1.06</v>
+      </c>
+      <c r="AD126">
+        <v>6.75</v>
+      </c>
+      <c r="AE126">
+        <v>1.43</v>
+      </c>
+      <c r="AF126">
+        <v>2.54</v>
+      </c>
+      <c r="AG126">
+        <v>2.43</v>
+      </c>
+      <c r="AH126">
+        <v>1.52</v>
+      </c>
+      <c r="AI126">
+        <v>2.1</v>
+      </c>
+      <c r="AJ126">
+        <v>1.67</v>
+      </c>
+      <c r="AK126">
+        <v>1.45</v>
+      </c>
+      <c r="AL126">
+        <v>1.33</v>
+      </c>
+      <c r="AM126">
+        <v>1.39</v>
+      </c>
+      <c r="AN126">
+        <v>1.43</v>
+      </c>
+      <c r="AO126">
+        <v>1</v>
+      </c>
+      <c r="AP126">
+        <v>1.63</v>
+      </c>
+      <c r="AQ126">
+        <v>0.88</v>
+      </c>
+      <c r="AR126">
+        <v>1.4</v>
+      </c>
+      <c r="AS126">
+        <v>1.35</v>
+      </c>
+      <c r="AT126">
+        <v>2.75</v>
+      </c>
+      <c r="AU126">
+        <v>4</v>
+      </c>
+      <c r="AV126">
+        <v>6</v>
+      </c>
+      <c r="AW126">
+        <v>10</v>
+      </c>
+      <c r="AX126">
+        <v>3</v>
+      </c>
+      <c r="AY126">
+        <v>14</v>
+      </c>
+      <c r="AZ126">
+        <v>9</v>
+      </c>
+      <c r="BA126">
+        <v>9</v>
+      </c>
+      <c r="BB126">
+        <v>3</v>
+      </c>
+      <c r="BC126">
+        <v>12</v>
+      </c>
+      <c r="BD126">
+        <v>1.66</v>
+      </c>
+      <c r="BE126">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF126">
+        <v>2.49</v>
+      </c>
+      <c r="BG126">
+        <v>1.29</v>
+      </c>
+      <c r="BH126">
+        <v>3.3</v>
+      </c>
+      <c r="BI126">
+        <v>1.5</v>
+      </c>
+      <c r="BJ126">
+        <v>2.52</v>
+      </c>
+      <c r="BK126">
+        <v>2.1</v>
+      </c>
+      <c r="BL126">
+        <v>1.96</v>
+      </c>
+      <c r="BM126">
+        <v>2.31</v>
+      </c>
+      <c r="BN126">
+        <v>1.58</v>
+      </c>
+      <c r="BO126">
+        <v>2.9</v>
+      </c>
+      <c r="BP126">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7217741</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45385.70833333334</v>
+      </c>
+      <c r="F127">
+        <v>17</v>
+      </c>
+      <c r="G127" t="s">
+        <v>87</v>
+      </c>
+      <c r="H127" t="s">
+        <v>71</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>148</v>
+      </c>
+      <c r="P127" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q127">
+        <v>2.6</v>
+      </c>
+      <c r="R127">
+        <v>2.05</v>
+      </c>
+      <c r="S127">
+        <v>4.33</v>
+      </c>
+      <c r="T127">
+        <v>1.42</v>
+      </c>
+      <c r="U127">
+        <v>2.55</v>
+      </c>
+      <c r="V127">
+        <v>3.1</v>
+      </c>
+      <c r="W127">
+        <v>1.3</v>
+      </c>
+      <c r="X127">
+        <v>7.2</v>
+      </c>
+      <c r="Y127">
+        <v>1.05</v>
+      </c>
+      <c r="Z127">
+        <v>1.91</v>
+      </c>
+      <c r="AA127">
+        <v>3.25</v>
+      </c>
+      <c r="AB127">
+        <v>3.8</v>
+      </c>
+      <c r="AC127">
+        <v>1.05</v>
+      </c>
+      <c r="AD127">
+        <v>7.5</v>
+      </c>
+      <c r="AE127">
+        <v>1.35</v>
+      </c>
+      <c r="AF127">
+        <v>2.9</v>
+      </c>
+      <c r="AG127">
+        <v>2.1</v>
+      </c>
+      <c r="AH127">
+        <v>1.7</v>
+      </c>
+      <c r="AI127">
+        <v>1.91</v>
+      </c>
+      <c r="AJ127">
+        <v>1.8</v>
+      </c>
+      <c r="AK127">
+        <v>1.18</v>
+      </c>
+      <c r="AL127">
+        <v>1.25</v>
+      </c>
+      <c r="AM127">
+        <v>1.8</v>
+      </c>
+      <c r="AN127">
+        <v>2.17</v>
+      </c>
+      <c r="AO127">
+        <v>1.63</v>
+      </c>
+      <c r="AP127">
+        <v>2</v>
+      </c>
+      <c r="AQ127">
+        <v>1.56</v>
+      </c>
+      <c r="AR127">
+        <v>1.82</v>
+      </c>
+      <c r="AS127">
+        <v>1.19</v>
+      </c>
+      <c r="AT127">
+        <v>3.01</v>
+      </c>
+      <c r="AU127">
+        <v>5</v>
+      </c>
+      <c r="AV127">
+        <v>7</v>
+      </c>
+      <c r="AW127">
+        <v>5</v>
+      </c>
+      <c r="AX127">
+        <v>9</v>
+      </c>
+      <c r="AY127">
+        <v>10</v>
+      </c>
+      <c r="AZ127">
+        <v>16</v>
+      </c>
+      <c r="BA127">
+        <v>5</v>
+      </c>
+      <c r="BB127">
+        <v>3</v>
+      </c>
+      <c r="BC127">
+        <v>8</v>
+      </c>
+      <c r="BD127">
+        <v>1.57</v>
+      </c>
+      <c r="BE127">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF127">
+        <v>2.73</v>
+      </c>
+      <c r="BG127">
+        <v>1.33</v>
+      </c>
+      <c r="BH127">
+        <v>3</v>
+      </c>
+      <c r="BI127">
+        <v>1.58</v>
+      </c>
+      <c r="BJ127">
+        <v>2.33</v>
+      </c>
+      <c r="BK127">
+        <v>2.38</v>
+      </c>
+      <c r="BL127">
+        <v>1.83</v>
+      </c>
+      <c r="BM127">
+        <v>2.53</v>
+      </c>
+      <c r="BN127">
+        <v>1.5</v>
+      </c>
+      <c r="BO127">
+        <v>3.2</v>
+      </c>
+      <c r="BP127">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7217743</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45385.70833333334</v>
+      </c>
+      <c r="F128">
+        <v>17</v>
+      </c>
+      <c r="G128" t="s">
+        <v>84</v>
+      </c>
+      <c r="H128" t="s">
+        <v>74</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128" t="s">
+        <v>94</v>
+      </c>
+      <c r="P128" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q128">
+        <v>3.4</v>
+      </c>
+      <c r="R128">
+        <v>1.91</v>
+      </c>
+      <c r="S128">
+        <v>3.4</v>
+      </c>
+      <c r="T128">
+        <v>1.51</v>
+      </c>
+      <c r="U128">
+        <v>2.4</v>
+      </c>
+      <c r="V128">
+        <v>3.2</v>
+      </c>
+      <c r="W128">
+        <v>1.3</v>
+      </c>
+      <c r="X128">
+        <v>8</v>
+      </c>
+      <c r="Y128">
+        <v>1.05</v>
+      </c>
+      <c r="Z128">
+        <v>2.7</v>
+      </c>
+      <c r="AA128">
+        <v>3</v>
+      </c>
+      <c r="AB128">
+        <v>2.5</v>
+      </c>
+      <c r="AC128">
+        <v>1.07</v>
+      </c>
+      <c r="AD128">
+        <v>6.5</v>
+      </c>
+      <c r="AE128">
+        <v>1.5</v>
+      </c>
+      <c r="AF128">
+        <v>2.4</v>
+      </c>
+      <c r="AG128">
+        <v>2.48</v>
+      </c>
+      <c r="AH128">
+        <v>1.5</v>
+      </c>
+      <c r="AI128">
+        <v>2.1</v>
+      </c>
+      <c r="AJ128">
+        <v>1.67</v>
+      </c>
+      <c r="AK128">
+        <v>1.3</v>
+      </c>
+      <c r="AL128">
+        <v>1.3</v>
+      </c>
+      <c r="AM128">
+        <v>1.47</v>
+      </c>
+      <c r="AN128">
+        <v>1.29</v>
+      </c>
+      <c r="AO128">
+        <v>0.75</v>
+      </c>
+      <c r="AP128">
+        <v>1.13</v>
+      </c>
+      <c r="AQ128">
+        <v>1</v>
+      </c>
+      <c r="AR128">
+        <v>1.41</v>
+      </c>
+      <c r="AS128">
+        <v>1.24</v>
+      </c>
+      <c r="AT128">
+        <v>2.65</v>
+      </c>
+      <c r="AU128">
+        <v>6</v>
+      </c>
+      <c r="AV128">
+        <v>7</v>
+      </c>
+      <c r="AW128">
+        <v>5</v>
+      </c>
+      <c r="AX128">
+        <v>5</v>
+      </c>
+      <c r="AY128">
+        <v>11</v>
+      </c>
+      <c r="AZ128">
+        <v>12</v>
+      </c>
+      <c r="BA128">
+        <v>2</v>
+      </c>
+      <c r="BB128">
+        <v>9</v>
+      </c>
+      <c r="BC128">
+        <v>11</v>
+      </c>
+      <c r="BD128">
+        <v>2.15</v>
+      </c>
+      <c r="BE128">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF128">
+        <v>1.86</v>
+      </c>
+      <c r="BG128">
+        <v>1.33</v>
+      </c>
+      <c r="BH128">
+        <v>3</v>
+      </c>
+      <c r="BI128">
+        <v>1.57</v>
+      </c>
+      <c r="BJ128">
+        <v>2.34</v>
+      </c>
+      <c r="BK128">
+        <v>2.2</v>
+      </c>
+      <c r="BL128">
+        <v>1.84</v>
+      </c>
+      <c r="BM128">
+        <v>2.5</v>
+      </c>
+      <c r="BN128">
+        <v>1.51</v>
+      </c>
+      <c r="BO128">
+        <v>3.2</v>
+      </c>
+      <c r="BP128">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,12 @@
     <t>['86', '90+5']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['54', '61']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -728,6 +734,12 @@
   </si>
   <si>
     <t>['20', '69']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['2', '74', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2172,7 +2184,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2584,7 +2596,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2996,7 +3008,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3202,7 +3214,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3280,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3408,7 +3420,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3614,7 +3626,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3820,7 +3832,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3901,7 +3913,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ14">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4104,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
         <v>1.29</v>
@@ -4516,10 +4528,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4644,7 +4656,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4725,7 +4737,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ18">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4850,7 +4862,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5262,7 +5274,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5468,7 +5480,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5674,7 +5686,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5880,7 +5892,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6086,7 +6098,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6164,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ25">
         <v>1.14</v>
@@ -6498,7 +6510,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>1.91</v>
@@ -6782,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>1.29</v>
@@ -6991,7 +7003,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7116,7 +7128,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7197,7 +7209,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ30">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR30">
         <v>1.5</v>
@@ -7322,7 +7334,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7400,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7528,7 +7540,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7734,7 +7746,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7940,7 +7952,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8227,7 +8239,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ35">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR35">
         <v>1.17</v>
@@ -8352,7 +8364,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8558,7 +8570,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8636,7 +8648,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ37">
         <v>1.14</v>
@@ -8764,7 +8776,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8970,7 +8982,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9176,7 +9188,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9794,7 +9806,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9872,7 +9884,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ43">
         <v>1.83</v>
@@ -10000,7 +10012,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10081,7 +10093,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ44">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10206,7 +10218,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10699,7 +10711,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ47">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR47">
         <v>1.07</v>
@@ -10824,7 +10836,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11030,7 +11042,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11111,7 +11123,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ49">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR49">
         <v>1.3</v>
@@ -11442,7 +11454,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11648,7 +11660,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11726,7 +11738,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -11854,7 +11866,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12266,7 +12278,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12678,7 +12690,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13296,7 +13308,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13502,7 +13514,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13580,7 +13592,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ61">
         <v>1.57</v>
@@ -13914,7 +13926,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -13992,7 +14004,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14120,7 +14132,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14201,7 +14213,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ64">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR64">
         <v>1.58</v>
@@ -14326,7 +14338,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14532,7 +14544,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14738,7 +14750,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15025,7 +15037,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ68">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR68">
         <v>1.07</v>
@@ -15150,7 +15162,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15228,7 +15240,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ69">
         <v>1.86</v>
@@ -15562,7 +15574,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q71">
         <v>1.8</v>
@@ -15846,7 +15858,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
         <v>1.14</v>
@@ -16180,7 +16192,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16386,7 +16398,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16670,7 +16682,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ76">
         <v>0.5</v>
@@ -16798,7 +16810,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17004,7 +17016,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17210,7 +17222,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17291,7 +17303,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ79">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17416,7 +17428,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17497,7 +17509,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ80">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR80">
         <v>2.17</v>
@@ -17906,7 +17918,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18318,7 +18330,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ84">
         <v>1.29</v>
@@ -18446,7 +18458,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18527,7 +18539,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ85">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR85">
         <v>0.83</v>
@@ -18652,7 +18664,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18730,7 +18742,7 @@
         <v>0.2</v>
       </c>
       <c r="AP86">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
         <v>0.5</v>
@@ -18858,7 +18870,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19064,7 +19076,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -19270,7 +19282,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19476,7 +19488,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -20094,7 +20106,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20378,7 +20390,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ94">
         <v>0.88</v>
@@ -20584,7 +20596,7 @@
         <v>1.83</v>
       </c>
       <c r="AP95">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ95">
         <v>1.56</v>
@@ -20793,7 +20805,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ96">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR96">
         <v>2.02</v>
@@ -20918,7 +20930,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21536,7 +21548,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21617,7 +21629,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ100">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR100">
         <v>0.96</v>
@@ -21820,7 +21832,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
         <v>1.29</v>
@@ -21948,7 +21960,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22154,7 +22166,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22978,7 +22990,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23265,7 +23277,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ108">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR108">
         <v>1.52</v>
@@ -23390,7 +23402,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23596,7 +23608,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q110">
         <v>3.5</v>
@@ -24214,7 +24226,7 @@
         <v>161</v>
       </c>
       <c r="P113" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24292,10 +24304,10 @@
         <v>1.4</v>
       </c>
       <c r="AP113">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ113">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR113">
         <v>1.07</v>
@@ -24501,7 +24513,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ114">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR114">
         <v>1.53</v>
@@ -24704,7 +24716,7 @@
         <v>1.17</v>
       </c>
       <c r="AP115">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>0.88</v>
@@ -24832,7 +24844,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q116">
         <v>2.1</v>
@@ -24913,7 +24925,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ116">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR116">
         <v>2.07</v>
@@ -25244,7 +25256,7 @@
         <v>105</v>
       </c>
       <c r="P118" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25450,7 +25462,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25656,7 +25668,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -26274,7 +26286,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -26480,7 +26492,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -26558,7 +26570,7 @@
         <v>2.33</v>
       </c>
       <c r="AP124">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ124">
         <v>1.75</v>
@@ -26686,7 +26698,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27098,7 +27110,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27304,7 +27316,7 @@
         <v>94</v>
       </c>
       <c r="P128" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q128">
         <v>3.4</v>
@@ -27461,6 +27473,624 @@
       </c>
       <c r="BP128">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7217737</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45386.70833333334</v>
+      </c>
+      <c r="F129">
+        <v>17</v>
+      </c>
+      <c r="G129" t="s">
+        <v>79</v>
+      </c>
+      <c r="H129" t="s">
+        <v>73</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>170</v>
+      </c>
+      <c r="P129" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q129">
+        <v>2.38</v>
+      </c>
+      <c r="R129">
+        <v>2.05</v>
+      </c>
+      <c r="S129">
+        <v>5</v>
+      </c>
+      <c r="T129">
+        <v>1.45</v>
+      </c>
+      <c r="U129">
+        <v>2.7</v>
+      </c>
+      <c r="V129">
+        <v>3.29</v>
+      </c>
+      <c r="W129">
+        <v>1.32</v>
+      </c>
+      <c r="X129">
+        <v>7.5</v>
+      </c>
+      <c r="Y129">
+        <v>1.06</v>
+      </c>
+      <c r="Z129">
+        <v>1.61</v>
+      </c>
+      <c r="AA129">
+        <v>3.52</v>
+      </c>
+      <c r="AB129">
+        <v>5.55</v>
+      </c>
+      <c r="AC129">
+        <v>1.07</v>
+      </c>
+      <c r="AD129">
+        <v>7</v>
+      </c>
+      <c r="AE129">
+        <v>1.36</v>
+      </c>
+      <c r="AF129">
+        <v>2.88</v>
+      </c>
+      <c r="AG129">
+        <v>2.18</v>
+      </c>
+      <c r="AH129">
+        <v>1.63</v>
+      </c>
+      <c r="AI129">
+        <v>2.1</v>
+      </c>
+      <c r="AJ129">
+        <v>1.67</v>
+      </c>
+      <c r="AK129">
+        <v>1.14</v>
+      </c>
+      <c r="AL129">
+        <v>1.29</v>
+      </c>
+      <c r="AM129">
+        <v>2.25</v>
+      </c>
+      <c r="AN129">
+        <v>0.88</v>
+      </c>
+      <c r="AO129">
+        <v>0.29</v>
+      </c>
+      <c r="AP129">
+        <v>1.11</v>
+      </c>
+      <c r="AQ129">
+        <v>0.25</v>
+      </c>
+      <c r="AR129">
+        <v>1.42</v>
+      </c>
+      <c r="AS129">
+        <v>0.96</v>
+      </c>
+      <c r="AT129">
+        <v>2.38</v>
+      </c>
+      <c r="AU129">
+        <v>8</v>
+      </c>
+      <c r="AV129">
+        <v>5</v>
+      </c>
+      <c r="AW129">
+        <v>7</v>
+      </c>
+      <c r="AX129">
+        <v>4</v>
+      </c>
+      <c r="AY129">
+        <v>15</v>
+      </c>
+      <c r="AZ129">
+        <v>9</v>
+      </c>
+      <c r="BA129">
+        <v>5</v>
+      </c>
+      <c r="BB129">
+        <v>1</v>
+      </c>
+      <c r="BC129">
+        <v>6</v>
+      </c>
+      <c r="BD129">
+        <v>1.44</v>
+      </c>
+      <c r="BE129">
+        <v>8.9</v>
+      </c>
+      <c r="BF129">
+        <v>3.22</v>
+      </c>
+      <c r="BG129">
+        <v>1.28</v>
+      </c>
+      <c r="BH129">
+        <v>3.2</v>
+      </c>
+      <c r="BI129">
+        <v>1.6</v>
+      </c>
+      <c r="BJ129">
+        <v>2.29</v>
+      </c>
+      <c r="BK129">
+        <v>2</v>
+      </c>
+      <c r="BL129">
+        <v>1.79</v>
+      </c>
+      <c r="BM129">
+        <v>2.59</v>
+      </c>
+      <c r="BN129">
+        <v>1.48</v>
+      </c>
+      <c r="BO129">
+        <v>3.42</v>
+      </c>
+      <c r="BP129">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7217738</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45386.70833333334</v>
+      </c>
+      <c r="F130">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>83</v>
+      </c>
+      <c r="H130" t="s">
+        <v>76</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+      <c r="O130" t="s">
+        <v>98</v>
+      </c>
+      <c r="P130" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q130">
+        <v>3</v>
+      </c>
+      <c r="R130">
+        <v>1.83</v>
+      </c>
+      <c r="S130">
+        <v>4.33</v>
+      </c>
+      <c r="T130">
+        <v>1.55</v>
+      </c>
+      <c r="U130">
+        <v>2.4</v>
+      </c>
+      <c r="V130">
+        <v>3.6</v>
+      </c>
+      <c r="W130">
+        <v>1.25</v>
+      </c>
+      <c r="X130">
+        <v>9</v>
+      </c>
+      <c r="Y130">
+        <v>1.03</v>
+      </c>
+      <c r="Z130">
+        <v>2.09</v>
+      </c>
+      <c r="AA130">
+        <v>2.99</v>
+      </c>
+      <c r="AB130">
+        <v>3.68</v>
+      </c>
+      <c r="AC130">
+        <v>1.1</v>
+      </c>
+      <c r="AD130">
+        <v>2</v>
+      </c>
+      <c r="AE130">
+        <v>1.56</v>
+      </c>
+      <c r="AF130">
+        <v>2.27</v>
+      </c>
+      <c r="AG130">
+        <v>2.49</v>
+      </c>
+      <c r="AH130">
+        <v>1.36</v>
+      </c>
+      <c r="AI130">
+        <v>2.38</v>
+      </c>
+      <c r="AJ130">
+        <v>1.53</v>
+      </c>
+      <c r="AK130">
+        <v>1.02</v>
+      </c>
+      <c r="AL130">
+        <v>1.02</v>
+      </c>
+      <c r="AM130">
+        <v>1.02</v>
+      </c>
+      <c r="AN130">
+        <v>1.75</v>
+      </c>
+      <c r="AO130">
+        <v>0.71</v>
+      </c>
+      <c r="AP130">
+        <v>1.67</v>
+      </c>
+      <c r="AQ130">
+        <v>0.75</v>
+      </c>
+      <c r="AR130">
+        <v>1.11</v>
+      </c>
+      <c r="AS130">
+        <v>1.29</v>
+      </c>
+      <c r="AT130">
+        <v>2.4</v>
+      </c>
+      <c r="AU130">
+        <v>5</v>
+      </c>
+      <c r="AV130">
+        <v>4</v>
+      </c>
+      <c r="AW130">
+        <v>6</v>
+      </c>
+      <c r="AX130">
+        <v>5</v>
+      </c>
+      <c r="AY130">
+        <v>11</v>
+      </c>
+      <c r="AZ130">
+        <v>9</v>
+      </c>
+      <c r="BA130">
+        <v>6</v>
+      </c>
+      <c r="BB130">
+        <v>3</v>
+      </c>
+      <c r="BC130">
+        <v>9</v>
+      </c>
+      <c r="BD130">
+        <v>1.83</v>
+      </c>
+      <c r="BE130">
+        <v>8</v>
+      </c>
+      <c r="BF130">
+        <v>2.24</v>
+      </c>
+      <c r="BG130">
+        <v>1.36</v>
+      </c>
+      <c r="BH130">
+        <v>2.79</v>
+      </c>
+      <c r="BI130">
+        <v>1.73</v>
+      </c>
+      <c r="BJ130">
+        <v>2.09</v>
+      </c>
+      <c r="BK130">
+        <v>2.19</v>
+      </c>
+      <c r="BL130">
+        <v>1.67</v>
+      </c>
+      <c r="BM130">
+        <v>2.84</v>
+      </c>
+      <c r="BN130">
+        <v>1.35</v>
+      </c>
+      <c r="BO130">
+        <v>3.6</v>
+      </c>
+      <c r="BP130">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7217740</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45386.70833333334</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>85</v>
+      </c>
+      <c r="H131" t="s">
+        <v>77</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>3</v>
+      </c>
+      <c r="N131">
+        <v>5</v>
+      </c>
+      <c r="O131" t="s">
+        <v>171</v>
+      </c>
+      <c r="P131" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q131">
+        <v>2.6</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>4.5</v>
+      </c>
+      <c r="T131">
+        <v>1.45</v>
+      </c>
+      <c r="U131">
+        <v>2.45</v>
+      </c>
+      <c r="V131">
+        <v>3.4</v>
+      </c>
+      <c r="W131">
+        <v>1.25</v>
+      </c>
+      <c r="X131">
+        <v>7.2</v>
+      </c>
+      <c r="Y131">
+        <v>1.05</v>
+      </c>
+      <c r="Z131">
+        <v>1.94</v>
+      </c>
+      <c r="AA131">
+        <v>2.92</v>
+      </c>
+      <c r="AB131">
+        <v>4.4</v>
+      </c>
+      <c r="AC131">
+        <v>1.07</v>
+      </c>
+      <c r="AD131">
+        <v>7</v>
+      </c>
+      <c r="AE131">
+        <v>1.38</v>
+      </c>
+      <c r="AF131">
+        <v>2.8</v>
+      </c>
+      <c r="AG131">
+        <v>2.25</v>
+      </c>
+      <c r="AH131">
+        <v>1.59</v>
+      </c>
+      <c r="AI131">
+        <v>2</v>
+      </c>
+      <c r="AJ131">
+        <v>1.73</v>
+      </c>
+      <c r="AK131">
+        <v>1.25</v>
+      </c>
+      <c r="AL131">
+        <v>1.35</v>
+      </c>
+      <c r="AM131">
+        <v>1.78</v>
+      </c>
+      <c r="AN131">
+        <v>2.29</v>
+      </c>
+      <c r="AO131">
+        <v>1.67</v>
+      </c>
+      <c r="AP131">
+        <v>2</v>
+      </c>
+      <c r="AQ131">
+        <v>1.86</v>
+      </c>
+      <c r="AR131">
+        <v>1.35</v>
+      </c>
+      <c r="AS131">
+        <v>1.19</v>
+      </c>
+      <c r="AT131">
+        <v>2.54</v>
+      </c>
+      <c r="AU131">
+        <v>9</v>
+      </c>
+      <c r="AV131">
+        <v>9</v>
+      </c>
+      <c r="AW131">
+        <v>9</v>
+      </c>
+      <c r="AX131">
+        <v>5</v>
+      </c>
+      <c r="AY131">
+        <v>18</v>
+      </c>
+      <c r="AZ131">
+        <v>14</v>
+      </c>
+      <c r="BA131">
+        <v>6</v>
+      </c>
+      <c r="BB131">
+        <v>5</v>
+      </c>
+      <c r="BC131">
+        <v>11</v>
+      </c>
+      <c r="BD131">
+        <v>1.58</v>
+      </c>
+      <c r="BE131">
+        <v>8.4</v>
+      </c>
+      <c r="BF131">
+        <v>2.73</v>
+      </c>
+      <c r="BG131">
+        <v>1.35</v>
+      </c>
+      <c r="BH131">
+        <v>2.84</v>
+      </c>
+      <c r="BI131">
+        <v>1.76</v>
+      </c>
+      <c r="BJ131">
+        <v>2.03</v>
+      </c>
+      <c r="BK131">
+        <v>2.26</v>
+      </c>
+      <c r="BL131">
+        <v>1.62</v>
+      </c>
+      <c r="BM131">
+        <v>2.79</v>
+      </c>
+      <c r="BN131">
+        <v>1.36</v>
+      </c>
+      <c r="BO131">
+        <v>3.92</v>
+      </c>
+      <c r="BP131">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1101,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>1.14</v>
@@ -4119,7 +4119,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>1.71</v>
@@ -6797,7 +6797,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR28">
         <v>1.47</v>
@@ -8442,7 +8442,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>1.57</v>
@@ -11535,7 +11535,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ51">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -12356,7 +12356,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>0.5</v>
@@ -14419,7 +14419,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ65">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -15652,7 +15652,7 @@
         <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>1.29</v>
@@ -17715,7 +17715,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ81">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -19569,7 +19569,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ90">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR90">
         <v>1.45</v>
@@ -20802,7 +20802,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
         <v>1.86</v>
@@ -22247,7 +22247,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ103">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -24922,7 +24922,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
         <v>0.75</v>
@@ -28091,6 +28091,212 @@
       </c>
       <c r="BP131">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7217736</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45387.70833333334</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>78</v>
+      </c>
+      <c r="H132" t="s">
+        <v>70</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132" t="s">
+        <v>92</v>
+      </c>
+      <c r="P132" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q132">
+        <v>2.1</v>
+      </c>
+      <c r="R132">
+        <v>2.05</v>
+      </c>
+      <c r="S132">
+        <v>6.5</v>
+      </c>
+      <c r="T132">
+        <v>1.46</v>
+      </c>
+      <c r="U132">
+        <v>2.6</v>
+      </c>
+      <c r="V132">
+        <v>3.14</v>
+      </c>
+      <c r="W132">
+        <v>1.33</v>
+      </c>
+      <c r="X132">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y132">
+        <v>1.05</v>
+      </c>
+      <c r="Z132">
+        <v>1.61</v>
+      </c>
+      <c r="AA132">
+        <v>3.38</v>
+      </c>
+      <c r="AB132">
+        <v>6.55</v>
+      </c>
+      <c r="AC132">
+        <v>1.04</v>
+      </c>
+      <c r="AD132">
+        <v>2.88</v>
+      </c>
+      <c r="AE132">
+        <v>1.38</v>
+      </c>
+      <c r="AF132">
+        <v>1.63</v>
+      </c>
+      <c r="AG132">
+        <v>2.23</v>
+      </c>
+      <c r="AH132">
+        <v>1.58</v>
+      </c>
+      <c r="AI132">
+        <v>2.5</v>
+      </c>
+      <c r="AJ132">
+        <v>1.5</v>
+      </c>
+      <c r="AK132">
+        <v>1.14</v>
+      </c>
+      <c r="AL132">
+        <v>1.28</v>
+      </c>
+      <c r="AM132">
+        <v>2.38</v>
+      </c>
+      <c r="AN132">
+        <v>2.14</v>
+      </c>
+      <c r="AO132">
+        <v>1.29</v>
+      </c>
+      <c r="AP132">
+        <v>2</v>
+      </c>
+      <c r="AQ132">
+        <v>1.25</v>
+      </c>
+      <c r="AR132">
+        <v>1.99</v>
+      </c>
+      <c r="AS132">
+        <v>1.33</v>
+      </c>
+      <c r="AT132">
+        <v>3.32</v>
+      </c>
+      <c r="AU132">
+        <v>9</v>
+      </c>
+      <c r="AV132">
+        <v>2</v>
+      </c>
+      <c r="AW132">
+        <v>9</v>
+      </c>
+      <c r="AX132">
+        <v>1</v>
+      </c>
+      <c r="AY132">
+        <v>18</v>
+      </c>
+      <c r="AZ132">
+        <v>3</v>
+      </c>
+      <c r="BA132">
+        <v>9</v>
+      </c>
+      <c r="BB132">
+        <v>2</v>
+      </c>
+      <c r="BC132">
+        <v>11</v>
+      </c>
+      <c r="BD132">
+        <v>1.34</v>
+      </c>
+      <c r="BE132">
+        <v>9.5</v>
+      </c>
+      <c r="BF132">
+        <v>3.75</v>
+      </c>
+      <c r="BG132">
+        <v>1.33</v>
+      </c>
+      <c r="BH132">
+        <v>2.93</v>
+      </c>
+      <c r="BI132">
+        <v>1.61</v>
+      </c>
+      <c r="BJ132">
+        <v>2.12</v>
+      </c>
+      <c r="BK132">
+        <v>2.03</v>
+      </c>
+      <c r="BL132">
+        <v>1.67</v>
+      </c>
+      <c r="BM132">
+        <v>2.71</v>
+      </c>
+      <c r="BN132">
+        <v>1.38</v>
+      </c>
+      <c r="BO132">
+        <v>3.74</v>
+      </c>
+      <c r="BP132">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,9 @@
     <t>['54', '61']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -685,9 +688,6 @@
     <t>['53', '90+2']</t>
   </si>
   <si>
-    <t>['35']</t>
-  </si>
-  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>['2', '74', '90+1']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP132"/>
+  <dimension ref="A1:BP135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2184,7 +2187,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2596,7 +2599,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3008,7 +3011,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3214,7 +3217,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3292,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3420,7 +3423,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3626,7 +3629,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3707,7 +3710,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ13">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3832,7 +3835,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3913,7 +3916,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ14">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4116,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4322,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ16">
         <v>1.56</v>
@@ -4656,7 +4659,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4862,7 +4865,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5274,7 +5277,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5480,7 +5483,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5686,7 +5689,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5892,7 +5895,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6098,7 +6101,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6176,7 +6179,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>1.14</v>
@@ -6510,7 +6513,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q27">
         <v>1.91</v>
@@ -6797,7 +6800,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR28">
         <v>1.47</v>
@@ -7003,7 +7006,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7128,7 +7131,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7334,7 +7337,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7412,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7540,7 +7543,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7621,7 +7624,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ32">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR32">
         <v>1.53</v>
@@ -7746,7 +7749,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7952,7 +7955,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8364,7 +8367,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8570,7 +8573,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8648,7 +8651,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ37">
         <v>1.14</v>
@@ -8776,7 +8779,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8982,7 +8985,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9063,7 +9066,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ39">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR39">
         <v>1.93</v>
@@ -9188,7 +9191,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9806,7 +9809,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9884,7 +9887,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>1.83</v>
@@ -10012,7 +10015,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10218,7 +10221,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10708,10 +10711,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ47">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR47">
         <v>1.07</v>
@@ -10836,7 +10839,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11042,7 +11045,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11454,7 +11457,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11535,7 +11538,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -11660,7 +11663,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11866,7 +11869,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12150,7 +12153,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54">
         <v>1.75</v>
@@ -12278,7 +12281,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12565,7 +12568,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ56">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR56">
         <v>1.78</v>
@@ -12690,7 +12693,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13308,7 +13311,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13514,7 +13517,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13592,7 +13595,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ61">
         <v>1.57</v>
@@ -13926,7 +13929,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14004,7 +14007,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14132,7 +14135,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14338,7 +14341,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14419,7 +14422,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ65">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -14544,7 +14547,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14750,7 +14753,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15037,7 +15040,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ68">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR68">
         <v>1.07</v>
@@ -15162,7 +15165,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15240,7 +15243,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
         <v>1.86</v>
@@ -15574,7 +15577,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q71">
         <v>1.8</v>
@@ -16067,7 +16070,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ73">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR73">
         <v>0.83</v>
@@ -16192,7 +16195,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16398,7 +16401,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16682,7 +16685,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ76">
         <v>0.5</v>
@@ -16810,7 +16813,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -16888,7 +16891,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ77">
         <v>1.71</v>
@@ -17016,7 +17019,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17222,7 +17225,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17428,7 +17431,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17509,7 +17512,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ80">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR80">
         <v>2.17</v>
@@ -17715,7 +17718,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -17918,7 +17921,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18330,7 +18333,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ84">
         <v>1.29</v>
@@ -18458,7 +18461,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18664,7 +18667,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18870,7 +18873,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -18948,7 +18951,7 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87">
         <v>1.57</v>
@@ -19076,7 +19079,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -19282,7 +19285,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19569,7 +19572,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ90">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR90">
         <v>1.45</v>
@@ -20106,7 +20109,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20390,10 +20393,10 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ94">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR94">
         <v>1.11</v>
@@ -20596,7 +20599,7 @@
         <v>1.83</v>
       </c>
       <c r="AP95">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
         <v>1.56</v>
@@ -22247,7 +22250,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ103">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -22656,7 +22659,7 @@
         <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105">
         <v>0.5</v>
@@ -23277,7 +23280,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ108">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR108">
         <v>1.52</v>
@@ -24304,7 +24307,7 @@
         <v>1.4</v>
       </c>
       <c r="AP113">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ113">
         <v>1.86</v>
@@ -24513,7 +24516,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ114">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR114">
         <v>1.53</v>
@@ -24719,7 +24722,7 @@
         <v>2</v>
       </c>
       <c r="AQ115">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR115">
         <v>1.36</v>
@@ -24844,7 +24847,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q116">
         <v>2.1</v>
@@ -25462,7 +25465,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -26570,7 +26573,7 @@
         <v>2.33</v>
       </c>
       <c r="AP124">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
         <v>1.75</v>
@@ -26776,7 +26779,7 @@
         <v>1.33</v>
       </c>
       <c r="AP125">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ125">
         <v>1.14</v>
@@ -26985,7 +26988,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ126">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR126">
         <v>1.4</v>
@@ -27394,7 +27397,7 @@
         <v>0.75</v>
       </c>
       <c r="AP128">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ128">
         <v>1</v>
@@ -27600,10 +27603,10 @@
         <v>0.29</v>
       </c>
       <c r="AP129">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ129">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR129">
         <v>1.42</v>
@@ -27806,7 +27809,7 @@
         <v>0.71</v>
       </c>
       <c r="AP130">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ130">
         <v>0.75</v>
@@ -28221,7 +28224,7 @@
         <v>2</v>
       </c>
       <c r="AQ132">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR132">
         <v>1.99</v>
@@ -28297,6 +28300,624 @@
       </c>
       <c r="BP132">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7364258</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45399.45833333334</v>
+      </c>
+      <c r="F133">
+        <v>18</v>
+      </c>
+      <c r="G133" t="s">
+        <v>84</v>
+      </c>
+      <c r="H133" t="s">
+        <v>75</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>172</v>
+      </c>
+      <c r="P133" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q133">
+        <v>3.5</v>
+      </c>
+      <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
+        <v>3.1</v>
+      </c>
+      <c r="T133">
+        <v>1.48</v>
+      </c>
+      <c r="U133">
+        <v>2.5</v>
+      </c>
+      <c r="V133">
+        <v>3.1</v>
+      </c>
+      <c r="W133">
+        <v>1.33</v>
+      </c>
+      <c r="X133">
+        <v>7.5</v>
+      </c>
+      <c r="Y133">
+        <v>1.06</v>
+      </c>
+      <c r="Z133">
+        <v>2.84</v>
+      </c>
+      <c r="AA133">
+        <v>3.05</v>
+      </c>
+      <c r="AB133">
+        <v>2.26</v>
+      </c>
+      <c r="AC133">
+        <v>1.08</v>
+      </c>
+      <c r="AD133">
+        <v>7</v>
+      </c>
+      <c r="AE133">
+        <v>1.4</v>
+      </c>
+      <c r="AF133">
+        <v>2.8</v>
+      </c>
+      <c r="AG133">
+        <v>2.15</v>
+      </c>
+      <c r="AH133">
+        <v>1.65</v>
+      </c>
+      <c r="AI133">
+        <v>1.91</v>
+      </c>
+      <c r="AJ133">
+        <v>1.8</v>
+      </c>
+      <c r="AK133">
+        <v>1.53</v>
+      </c>
+      <c r="AL133">
+        <v>1.3</v>
+      </c>
+      <c r="AM133">
+        <v>1.38</v>
+      </c>
+      <c r="AN133">
+        <v>1.13</v>
+      </c>
+      <c r="AO133">
+        <v>0.88</v>
+      </c>
+      <c r="AP133">
+        <v>1.33</v>
+      </c>
+      <c r="AQ133">
+        <v>0.78</v>
+      </c>
+      <c r="AR133">
+        <v>1.42</v>
+      </c>
+      <c r="AS133">
+        <v>1.34</v>
+      </c>
+      <c r="AT133">
+        <v>2.76</v>
+      </c>
+      <c r="AU133">
+        <v>4</v>
+      </c>
+      <c r="AV133">
+        <v>7</v>
+      </c>
+      <c r="AW133">
+        <v>3</v>
+      </c>
+      <c r="AX133">
+        <v>10</v>
+      </c>
+      <c r="AY133">
+        <v>7</v>
+      </c>
+      <c r="AZ133">
+        <v>17</v>
+      </c>
+      <c r="BA133">
+        <v>2</v>
+      </c>
+      <c r="BB133">
+        <v>3</v>
+      </c>
+      <c r="BC133">
+        <v>5</v>
+      </c>
+      <c r="BD133">
+        <v>2</v>
+      </c>
+      <c r="BE133">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF133">
+        <v>1.99</v>
+      </c>
+      <c r="BG133">
+        <v>1.25</v>
+      </c>
+      <c r="BH133">
+        <v>3.6</v>
+      </c>
+      <c r="BI133">
+        <v>1.42</v>
+      </c>
+      <c r="BJ133">
+        <v>2.62</v>
+      </c>
+      <c r="BK133">
+        <v>2.1</v>
+      </c>
+      <c r="BL133">
+        <v>2.07</v>
+      </c>
+      <c r="BM133">
+        <v>2.17</v>
+      </c>
+      <c r="BN133">
+        <v>1.68</v>
+      </c>
+      <c r="BO133">
+        <v>2.62</v>
+      </c>
+      <c r="BP133">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7364259</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45399.58333333334</v>
+      </c>
+      <c r="F134">
+        <v>18</v>
+      </c>
+      <c r="G134" t="s">
+        <v>83</v>
+      </c>
+      <c r="H134" t="s">
+        <v>73</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134" t="s">
+        <v>92</v>
+      </c>
+      <c r="P134" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q134">
+        <v>2.5</v>
+      </c>
+      <c r="R134">
+        <v>1.83</v>
+      </c>
+      <c r="S134">
+        <v>6</v>
+      </c>
+      <c r="T134">
+        <v>1.83</v>
+      </c>
+      <c r="U134">
+        <v>1.96</v>
+      </c>
+      <c r="V134">
+        <v>4.64</v>
+      </c>
+      <c r="W134">
+        <v>1.16</v>
+      </c>
+      <c r="X134">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y134">
+        <v>1.01</v>
+      </c>
+      <c r="Z134">
+        <v>1.73</v>
+      </c>
+      <c r="AA134">
+        <v>3.1</v>
+      </c>
+      <c r="AB134">
+        <v>5</v>
+      </c>
+      <c r="AC134">
+        <v>1.2</v>
+      </c>
+      <c r="AD134">
+        <v>4.2</v>
+      </c>
+      <c r="AE134">
+        <v>1.91</v>
+      </c>
+      <c r="AF134">
+        <v>1.8</v>
+      </c>
+      <c r="AG134">
+        <v>2.75</v>
+      </c>
+      <c r="AH134">
+        <v>1.4</v>
+      </c>
+      <c r="AI134">
+        <v>2.63</v>
+      </c>
+      <c r="AJ134">
+        <v>1.44</v>
+      </c>
+      <c r="AK134">
+        <v>1.09</v>
+      </c>
+      <c r="AL134">
+        <v>1.33</v>
+      </c>
+      <c r="AM134">
+        <v>2.01</v>
+      </c>
+      <c r="AN134">
+        <v>1.67</v>
+      </c>
+      <c r="AO134">
+        <v>0.25</v>
+      </c>
+      <c r="AP134">
+        <v>1.6</v>
+      </c>
+      <c r="AQ134">
+        <v>0.33</v>
+      </c>
+      <c r="AR134">
+        <v>1.15</v>
+      </c>
+      <c r="AS134">
+        <v>0.99</v>
+      </c>
+      <c r="AT134">
+        <v>2.14</v>
+      </c>
+      <c r="AU134">
+        <v>3</v>
+      </c>
+      <c r="AV134">
+        <v>4</v>
+      </c>
+      <c r="AW134">
+        <v>10</v>
+      </c>
+      <c r="AX134">
+        <v>2</v>
+      </c>
+      <c r="AY134">
+        <v>13</v>
+      </c>
+      <c r="AZ134">
+        <v>6</v>
+      </c>
+      <c r="BA134">
+        <v>7</v>
+      </c>
+      <c r="BB134">
+        <v>1</v>
+      </c>
+      <c r="BC134">
+        <v>8</v>
+      </c>
+      <c r="BD134">
+        <v>1.53</v>
+      </c>
+      <c r="BE134">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF134">
+        <v>2.92</v>
+      </c>
+      <c r="BG134">
+        <v>1.46</v>
+      </c>
+      <c r="BH134">
+        <v>2.65</v>
+      </c>
+      <c r="BI134">
+        <v>1.8</v>
+      </c>
+      <c r="BJ134">
+        <v>2</v>
+      </c>
+      <c r="BK134">
+        <v>2.29</v>
+      </c>
+      <c r="BL134">
+        <v>1.6</v>
+      </c>
+      <c r="BM134">
+        <v>2.9</v>
+      </c>
+      <c r="BN134">
+        <v>1.36</v>
+      </c>
+      <c r="BO134">
+        <v>3.8</v>
+      </c>
+      <c r="BP134">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7364260</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45399.58333333334</v>
+      </c>
+      <c r="F135">
+        <v>18</v>
+      </c>
+      <c r="G135" t="s">
+        <v>79</v>
+      </c>
+      <c r="H135" t="s">
+        <v>70</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>92</v>
+      </c>
+      <c r="P135" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q135">
+        <v>3.2</v>
+      </c>
+      <c r="R135">
+        <v>1.91</v>
+      </c>
+      <c r="S135">
+        <v>3.75</v>
+      </c>
+      <c r="T135">
+        <v>1.54</v>
+      </c>
+      <c r="U135">
+        <v>2.42</v>
+      </c>
+      <c r="V135">
+        <v>3.5</v>
+      </c>
+      <c r="W135">
+        <v>1.26</v>
+      </c>
+      <c r="X135">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y135">
+        <v>1.02</v>
+      </c>
+      <c r="Z135">
+        <v>2.38</v>
+      </c>
+      <c r="AA135">
+        <v>2.75</v>
+      </c>
+      <c r="AB135">
+        <v>3.2</v>
+      </c>
+      <c r="AC135">
+        <v>1.09</v>
+      </c>
+      <c r="AD135">
+        <v>6</v>
+      </c>
+      <c r="AE135">
+        <v>1.49</v>
+      </c>
+      <c r="AF135">
+        <v>2.52</v>
+      </c>
+      <c r="AG135">
+        <v>2.5</v>
+      </c>
+      <c r="AH135">
+        <v>1.5</v>
+      </c>
+      <c r="AI135">
+        <v>2.1</v>
+      </c>
+      <c r="AJ135">
+        <v>1.67</v>
+      </c>
+      <c r="AK135">
+        <v>1.32</v>
+      </c>
+      <c r="AL135">
+        <v>1.34</v>
+      </c>
+      <c r="AM135">
+        <v>1.4</v>
+      </c>
+      <c r="AN135">
+        <v>1.11</v>
+      </c>
+      <c r="AO135">
+        <v>1.25</v>
+      </c>
+      <c r="AP135">
+        <v>1</v>
+      </c>
+      <c r="AQ135">
+        <v>1.44</v>
+      </c>
+      <c r="AR135">
+        <v>1.47</v>
+      </c>
+      <c r="AS135">
+        <v>1.24</v>
+      </c>
+      <c r="AT135">
+        <v>2.71</v>
+      </c>
+      <c r="AU135">
+        <v>4</v>
+      </c>
+      <c r="AV135">
+        <v>4</v>
+      </c>
+      <c r="AW135">
+        <v>17</v>
+      </c>
+      <c r="AX135">
+        <v>4</v>
+      </c>
+      <c r="AY135">
+        <v>21</v>
+      </c>
+      <c r="AZ135">
+        <v>8</v>
+      </c>
+      <c r="BA135">
+        <v>17</v>
+      </c>
+      <c r="BB135">
+        <v>3</v>
+      </c>
+      <c r="BC135">
+        <v>20</v>
+      </c>
+      <c r="BD135">
+        <v>1.67</v>
+      </c>
+      <c r="BE135">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF135">
+        <v>2.53</v>
+      </c>
+      <c r="BG135">
+        <v>1.36</v>
+      </c>
+      <c r="BH135">
+        <v>2.9</v>
+      </c>
+      <c r="BI135">
+        <v>1.63</v>
+      </c>
+      <c r="BJ135">
+        <v>2.25</v>
+      </c>
+      <c r="BK135">
+        <v>2.03</v>
+      </c>
+      <c r="BL135">
+        <v>1.77</v>
+      </c>
+      <c r="BM135">
+        <v>2.5</v>
+      </c>
+      <c r="BN135">
+        <v>1.48</v>
+      </c>
+      <c r="BO135">
+        <v>3.3</v>
+      </c>
+      <c r="BP135">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,12 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['2', '36']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -554,9 +560,6 @@
   </si>
   <si>
     <t>['42']</t>
-  </si>
-  <si>
-    <t>['30']</t>
   </si>
   <si>
     <t>['11', '26', '62']</t>
@@ -743,6 +746,12 @@
   </si>
   <si>
     <t>['74']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['19', '44']</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP135"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2187,7 +2196,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2599,7 +2608,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3011,7 +3020,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3217,7 +3226,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3423,7 +3432,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3629,7 +3638,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3835,7 +3844,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3913,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ14">
         <v>0.33</v>
@@ -4328,7 +4337,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ16">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4534,7 +4543,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4659,7 +4668,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4737,10 +4746,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ18">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4865,7 +4874,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5277,7 +5286,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5483,7 +5492,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5689,7 +5698,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5895,7 +5904,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6101,7 +6110,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6513,7 +6522,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>1.91</v>
@@ -7003,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ29">
         <v>0.33</v>
@@ -7131,7 +7140,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7212,7 +7221,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ30">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR30">
         <v>1.5</v>
@@ -7337,7 +7346,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7543,7 +7552,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7749,7 +7758,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7830,7 +7839,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ33">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR33">
         <v>1.31</v>
@@ -7955,7 +7964,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8033,7 +8042,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ34">
         <v>2</v>
@@ -8239,10 +8248,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ35">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR35">
         <v>1.17</v>
@@ -8367,7 +8376,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8573,7 +8582,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8779,7 +8788,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8985,7 +8994,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9191,7 +9200,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9809,7 +9818,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10015,7 +10024,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10096,7 +10105,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ44">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10221,7 +10230,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10302,7 +10311,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -10505,7 +10514,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ46">
         <v>2</v>
@@ -10839,7 +10848,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11045,7 +11054,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11126,7 +11135,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ49">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
         <v>1.3</v>
@@ -11329,7 +11338,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ50">
         <v>1.71</v>
@@ -11457,7 +11466,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11535,7 +11544,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ51">
         <v>1.44</v>
@@ -11663,7 +11672,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11869,7 +11878,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -11947,7 +11956,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ53">
         <v>1.75</v>
@@ -12281,7 +12290,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12693,7 +12702,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12771,7 +12780,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ57">
         <v>1.14</v>
@@ -12980,7 +12989,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ58">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR58">
         <v>1.7</v>
@@ -13311,7 +13320,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13517,7 +13526,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13929,7 +13938,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14135,7 +14144,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14216,7 +14225,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR64">
         <v>1.58</v>
@@ -14341,7 +14350,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14547,7 +14556,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14625,7 +14634,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14753,7 +14762,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -14831,7 +14840,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ67">
         <v>1.71</v>
@@ -15165,7 +15174,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15449,7 +15458,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15577,7 +15586,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>1.8</v>
@@ -16195,7 +16204,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16276,7 +16285,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ74">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16401,7 +16410,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16813,7 +16822,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17019,7 +17028,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17225,7 +17234,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17306,7 +17315,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ79">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17431,7 +17440,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18130,7 +18139,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ83">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR83">
         <v>1.49</v>
@@ -18461,7 +18470,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18542,7 +18551,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ85">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR85">
         <v>0.83</v>
@@ -18667,7 +18676,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18873,7 +18882,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19285,7 +19294,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19491,7 +19500,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -20109,7 +20118,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20187,7 +20196,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20602,7 +20611,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR95">
         <v>1.2</v>
@@ -20808,7 +20817,7 @@
         <v>2</v>
       </c>
       <c r="AQ96">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR96">
         <v>2.02</v>
@@ -20933,7 +20942,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21011,7 +21020,7 @@
         <v>0.83</v>
       </c>
       <c r="AP97">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21217,7 +21226,7 @@
         <v>1.4</v>
       </c>
       <c r="AP98">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ98">
         <v>1.14</v>
@@ -21423,7 +21432,7 @@
         <v>1.8</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ99">
         <v>1.86</v>
@@ -21551,7 +21560,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21632,7 +21641,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ100">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR100">
         <v>0.96</v>
@@ -21963,7 +21972,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22169,7 +22178,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22993,7 +23002,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23405,7 +23414,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23611,7 +23620,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>3.5</v>
@@ -23895,7 +23904,7 @@
         <v>0.86</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -24101,7 +24110,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ112">
         <v>1.29</v>
@@ -24229,7 +24238,7 @@
         <v>161</v>
       </c>
       <c r="P113" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24310,7 +24319,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ113">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR113">
         <v>1.07</v>
@@ -24847,7 +24856,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Q116">
         <v>2.1</v>
@@ -24928,7 +24937,7 @@
         <v>2</v>
       </c>
       <c r="AQ116">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR116">
         <v>2.07</v>
@@ -25131,10 +25140,10 @@
         <v>1.71</v>
       </c>
       <c r="AP117">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ117">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR117">
         <v>1.16</v>
@@ -25259,7 +25268,7 @@
         <v>105</v>
       </c>
       <c r="P118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25465,7 +25474,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25671,7 +25680,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -26289,7 +26298,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -26495,7 +26504,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -26701,7 +26710,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26985,7 +26994,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ126">
         <v>0.78</v>
@@ -27113,7 +27122,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27191,10 +27200,10 @@
         <v>1.63</v>
       </c>
       <c r="AP127">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ127">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR127">
         <v>1.82</v>
@@ -27319,7 +27328,7 @@
         <v>94</v>
       </c>
       <c r="P128" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q128">
         <v>3.4</v>
@@ -27731,7 +27740,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27812,7 +27821,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ130">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR130">
         <v>1.11</v>
@@ -27937,7 +27946,7 @@
         <v>171</v>
       </c>
       <c r="P131" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28018,7 +28027,7 @@
         <v>2</v>
       </c>
       <c r="AQ131">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR131">
         <v>1.35</v>
@@ -28648,31 +28657,31 @@
         <v>2.14</v>
       </c>
       <c r="AU134">
+        <v>4</v>
+      </c>
+      <c r="AV134">
         <v>3</v>
       </c>
-      <c r="AV134">
-        <v>4</v>
-      </c>
       <c r="AW134">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY134">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ134">
         <v>6</v>
       </c>
       <c r="BA134">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB134">
         <v>1</v>
       </c>
       <c r="BC134">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD134">
         <v>1.53</v>
@@ -28761,7 +28770,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q135">
         <v>3.2</v>
@@ -28860,16 +28869,16 @@
         <v>4</v>
       </c>
       <c r="AW135">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AX135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY135">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AZ135">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA135">
         <v>17</v>
@@ -28918,6 +28927,624 @@
       </c>
       <c r="BP135">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7364261</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45400.45833333334</v>
+      </c>
+      <c r="F136">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s">
+        <v>87</v>
+      </c>
+      <c r="H136" t="s">
+        <v>77</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>173</v>
+      </c>
+      <c r="P136" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q136">
+        <v>2.63</v>
+      </c>
+      <c r="R136">
+        <v>2.1</v>
+      </c>
+      <c r="S136">
+        <v>4</v>
+      </c>
+      <c r="T136">
+        <v>1.4</v>
+      </c>
+      <c r="U136">
+        <v>2.7</v>
+      </c>
+      <c r="V136">
+        <v>2.8</v>
+      </c>
+      <c r="W136">
+        <v>1.38</v>
+      </c>
+      <c r="X136">
+        <v>7.5</v>
+      </c>
+      <c r="Y136">
+        <v>1.06</v>
+      </c>
+      <c r="Z136">
+        <v>1.88</v>
+      </c>
+      <c r="AA136">
+        <v>3.3</v>
+      </c>
+      <c r="AB136">
+        <v>3.85</v>
+      </c>
+      <c r="AC136">
+        <v>1.06</v>
+      </c>
+      <c r="AD136">
+        <v>8</v>
+      </c>
+      <c r="AE136">
+        <v>1.33</v>
+      </c>
+      <c r="AF136">
+        <v>3.1</v>
+      </c>
+      <c r="AG136">
+        <v>2.02</v>
+      </c>
+      <c r="AH136">
+        <v>1.7</v>
+      </c>
+      <c r="AI136">
+        <v>1.83</v>
+      </c>
+      <c r="AJ136">
+        <v>1.83</v>
+      </c>
+      <c r="AK136">
+        <v>1.17</v>
+      </c>
+      <c r="AL136">
+        <v>1.25</v>
+      </c>
+      <c r="AM136">
+        <v>1.95</v>
+      </c>
+      <c r="AN136">
+        <v>2</v>
+      </c>
+      <c r="AO136">
+        <v>1.86</v>
+      </c>
+      <c r="AP136">
+        <v>1.88</v>
+      </c>
+      <c r="AQ136">
+        <v>1.75</v>
+      </c>
+      <c r="AR136">
+        <v>1.76</v>
+      </c>
+      <c r="AS136">
+        <v>1.28</v>
+      </c>
+      <c r="AT136">
+        <v>3.04</v>
+      </c>
+      <c r="AU136">
+        <v>4</v>
+      </c>
+      <c r="AV136">
+        <v>3</v>
+      </c>
+      <c r="AW136">
+        <v>5</v>
+      </c>
+      <c r="AX136">
+        <v>8</v>
+      </c>
+      <c r="AY136">
+        <v>9</v>
+      </c>
+      <c r="AZ136">
+        <v>11</v>
+      </c>
+      <c r="BA136">
+        <v>11</v>
+      </c>
+      <c r="BB136">
+        <v>4</v>
+      </c>
+      <c r="BC136">
+        <v>15</v>
+      </c>
+      <c r="BD136">
+        <v>1.56</v>
+      </c>
+      <c r="BE136">
+        <v>8.1</v>
+      </c>
+      <c r="BF136">
+        <v>2.83</v>
+      </c>
+      <c r="BG136">
+        <v>1.28</v>
+      </c>
+      <c r="BH136">
+        <v>3.2</v>
+      </c>
+      <c r="BI136">
+        <v>1.56</v>
+      </c>
+      <c r="BJ136">
+        <v>2.38</v>
+      </c>
+      <c r="BK136">
+        <v>1.94</v>
+      </c>
+      <c r="BL136">
+        <v>1.85</v>
+      </c>
+      <c r="BM136">
+        <v>2.49</v>
+      </c>
+      <c r="BN136">
+        <v>1.52</v>
+      </c>
+      <c r="BO136">
+        <v>3.28</v>
+      </c>
+      <c r="BP136">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7364263</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45400.58333333334</v>
+      </c>
+      <c r="F137">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s">
+        <v>86</v>
+      </c>
+      <c r="H137" t="s">
+        <v>71</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>2</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>3</v>
+      </c>
+      <c r="O137" t="s">
+        <v>108</v>
+      </c>
+      <c r="P137" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q137">
+        <v>3.25</v>
+      </c>
+      <c r="R137">
+        <v>1.91</v>
+      </c>
+      <c r="S137">
+        <v>3.6</v>
+      </c>
+      <c r="T137">
+        <v>1.5</v>
+      </c>
+      <c r="U137">
+        <v>2.53</v>
+      </c>
+      <c r="V137">
+        <v>3.3</v>
+      </c>
+      <c r="W137">
+        <v>1.28</v>
+      </c>
+      <c r="X137">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y137">
+        <v>1.03</v>
+      </c>
+      <c r="Z137">
+        <v>2.55</v>
+      </c>
+      <c r="AA137">
+        <v>2.75</v>
+      </c>
+      <c r="AB137">
+        <v>3</v>
+      </c>
+      <c r="AC137">
+        <v>1.09</v>
+      </c>
+      <c r="AD137">
+        <v>6.5</v>
+      </c>
+      <c r="AE137">
+        <v>1.45</v>
+      </c>
+      <c r="AF137">
+        <v>2.62</v>
+      </c>
+      <c r="AG137">
+        <v>2.5</v>
+      </c>
+      <c r="AH137">
+        <v>1.5</v>
+      </c>
+      <c r="AI137">
+        <v>2.1</v>
+      </c>
+      <c r="AJ137">
+        <v>1.67</v>
+      </c>
+      <c r="AK137">
+        <v>1.32</v>
+      </c>
+      <c r="AL137">
+        <v>1.31</v>
+      </c>
+      <c r="AM137">
+        <v>1.43</v>
+      </c>
+      <c r="AN137">
+        <v>1.63</v>
+      </c>
+      <c r="AO137">
+        <v>1.56</v>
+      </c>
+      <c r="AP137">
+        <v>1.44</v>
+      </c>
+      <c r="AQ137">
+        <v>1.7</v>
+      </c>
+      <c r="AR137">
+        <v>1.42</v>
+      </c>
+      <c r="AS137">
+        <v>1.27</v>
+      </c>
+      <c r="AT137">
+        <v>2.69</v>
+      </c>
+      <c r="AU137">
+        <v>4</v>
+      </c>
+      <c r="AV137">
+        <v>6</v>
+      </c>
+      <c r="AW137">
+        <v>4</v>
+      </c>
+      <c r="AX137">
+        <v>5</v>
+      </c>
+      <c r="AY137">
+        <v>8</v>
+      </c>
+      <c r="AZ137">
+        <v>11</v>
+      </c>
+      <c r="BA137">
+        <v>8</v>
+      </c>
+      <c r="BB137">
+        <v>3</v>
+      </c>
+      <c r="BC137">
+        <v>11</v>
+      </c>
+      <c r="BD137">
+        <v>1.66</v>
+      </c>
+      <c r="BE137">
+        <v>7.3</v>
+      </c>
+      <c r="BF137">
+        <v>2.64</v>
+      </c>
+      <c r="BG137">
+        <v>1.23</v>
+      </c>
+      <c r="BH137">
+        <v>3.56</v>
+      </c>
+      <c r="BI137">
+        <v>1.49</v>
+      </c>
+      <c r="BJ137">
+        <v>2.55</v>
+      </c>
+      <c r="BK137">
+        <v>1.83</v>
+      </c>
+      <c r="BL137">
+        <v>1.97</v>
+      </c>
+      <c r="BM137">
+        <v>2.3</v>
+      </c>
+      <c r="BN137">
+        <v>1.6</v>
+      </c>
+      <c r="BO137">
+        <v>3.08</v>
+      </c>
+      <c r="BP137">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7364262</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45400.58333333334</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>82</v>
+      </c>
+      <c r="H138" t="s">
+        <v>76</v>
+      </c>
+      <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>174</v>
+      </c>
+      <c r="P138" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q138">
+        <v>2.88</v>
+      </c>
+      <c r="R138">
+        <v>1.91</v>
+      </c>
+      <c r="S138">
+        <v>4.33</v>
+      </c>
+      <c r="T138">
+        <v>1.57</v>
+      </c>
+      <c r="U138">
+        <v>2.35</v>
+      </c>
+      <c r="V138">
+        <v>3.55</v>
+      </c>
+      <c r="W138">
+        <v>1.25</v>
+      </c>
+      <c r="X138">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y138">
+        <v>1.02</v>
+      </c>
+      <c r="Z138">
+        <v>2.05</v>
+      </c>
+      <c r="AA138">
+        <v>2.8</v>
+      </c>
+      <c r="AB138">
+        <v>3.8</v>
+      </c>
+      <c r="AC138">
+        <v>1.1</v>
+      </c>
+      <c r="AD138">
+        <v>6.25</v>
+      </c>
+      <c r="AE138">
+        <v>1.5</v>
+      </c>
+      <c r="AF138">
+        <v>2.38</v>
+      </c>
+      <c r="AG138">
+        <v>2.5</v>
+      </c>
+      <c r="AH138">
+        <v>1.5</v>
+      </c>
+      <c r="AI138">
+        <v>2.2</v>
+      </c>
+      <c r="AJ138">
+        <v>1.62</v>
+      </c>
+      <c r="AK138">
+        <v>1.18</v>
+      </c>
+      <c r="AL138">
+        <v>1.29</v>
+      </c>
+      <c r="AM138">
+        <v>1.67</v>
+      </c>
+      <c r="AN138">
+        <v>0.86</v>
+      </c>
+      <c r="AO138">
+        <v>0.75</v>
+      </c>
+      <c r="AP138">
+        <v>1.13</v>
+      </c>
+      <c r="AQ138">
+        <v>0.67</v>
+      </c>
+      <c r="AR138">
+        <v>1.15</v>
+      </c>
+      <c r="AS138">
+        <v>1.28</v>
+      </c>
+      <c r="AT138">
+        <v>2.43</v>
+      </c>
+      <c r="AU138">
+        <v>4</v>
+      </c>
+      <c r="AV138">
+        <v>4</v>
+      </c>
+      <c r="AW138">
+        <v>5</v>
+      </c>
+      <c r="AX138">
+        <v>11</v>
+      </c>
+      <c r="AY138">
+        <v>9</v>
+      </c>
+      <c r="AZ138">
+        <v>15</v>
+      </c>
+      <c r="BA138">
+        <v>4</v>
+      </c>
+      <c r="BB138">
+        <v>4</v>
+      </c>
+      <c r="BC138">
+        <v>8</v>
+      </c>
+      <c r="BD138">
+        <v>1.58</v>
+      </c>
+      <c r="BE138">
+        <v>7.8</v>
+      </c>
+      <c r="BF138">
+        <v>2.81</v>
+      </c>
+      <c r="BG138">
+        <v>1.36</v>
+      </c>
+      <c r="BH138">
+        <v>2.78</v>
+      </c>
+      <c r="BI138">
+        <v>1.72</v>
+      </c>
+      <c r="BJ138">
+        <v>2.1</v>
+      </c>
+      <c r="BK138">
+        <v>2.18</v>
+      </c>
+      <c r="BL138">
+        <v>1.67</v>
+      </c>
+      <c r="BM138">
+        <v>2.84</v>
+      </c>
+      <c r="BN138">
+        <v>1.35</v>
+      </c>
+      <c r="BO138">
+        <v>3.7</v>
+      </c>
+      <c r="BP138">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>['2', '36']</t>
+  </si>
+  <si>
+    <t>['53', '74']</t>
   </si>
   <si>
     <t>['16', '75']</t>
@@ -1113,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2196,7 +2199,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2608,7 +2611,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3020,7 +3023,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3226,7 +3229,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3432,7 +3435,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3513,7 +3516,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3638,7 +3641,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3716,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ13">
         <v>0.78</v>
@@ -3844,7 +3847,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4874,7 +4877,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5161,7 +5164,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR20">
         <v>1.31</v>
@@ -5286,7 +5289,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5492,7 +5495,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5698,7 +5701,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5904,7 +5907,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6110,7 +6113,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6522,7 +6525,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>1.91</v>
@@ -7140,7 +7143,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7218,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ30">
         <v>1.75</v>
@@ -7346,7 +7349,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7552,7 +7555,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7758,7 +7761,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7964,7 +7967,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8376,7 +8379,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8788,7 +8791,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8994,7 +8997,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9200,7 +9203,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9281,7 +9284,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR40">
         <v>1.72</v>
@@ -9818,7 +9821,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10024,7 +10027,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10230,7 +10233,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10848,7 +10851,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11054,7 +11057,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11132,7 +11135,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ49">
         <v>0.67</v>
@@ -11466,7 +11469,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11672,7 +11675,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11878,7 +11881,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12290,7 +12293,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12702,7 +12705,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13320,7 +13323,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13401,7 +13404,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR60">
         <v>1.41</v>
@@ -13526,7 +13529,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13938,7 +13941,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14144,7 +14147,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14350,7 +14353,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14428,7 +14431,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ65">
         <v>1.44</v>
@@ -14556,7 +14559,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14762,7 +14765,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15174,7 +15177,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15586,7 +15589,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>1.8</v>
@@ -16204,7 +16207,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16410,7 +16413,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16491,7 +16494,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR75">
         <v>1.37</v>
@@ -16822,7 +16825,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17028,7 +17031,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17106,7 +17109,7 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17234,7 +17237,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17440,7 +17443,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17933,7 +17936,7 @@
         <v>1</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR82">
         <v>1.14</v>
@@ -18470,7 +18473,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18676,7 +18679,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18882,7 +18885,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19294,7 +19297,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19500,7 +19503,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -19990,7 +19993,7 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ92">
         <v>1.83</v>
@@ -20118,7 +20121,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20942,7 +20945,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21023,7 +21026,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR97">
         <v>1.11</v>
@@ -21560,7 +21563,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21972,7 +21975,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22050,7 +22053,7 @@
         <v>0.83</v>
       </c>
       <c r="AP102">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -22178,7 +22181,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23002,7 +23005,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23414,7 +23417,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23620,7 +23623,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q110">
         <v>3.5</v>
@@ -23907,7 +23910,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR111">
         <v>1.82</v>
@@ -24238,7 +24241,7 @@
         <v>161</v>
       </c>
       <c r="P113" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -25268,7 +25271,7 @@
         <v>105</v>
       </c>
       <c r="P118" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25346,7 +25349,7 @@
         <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ118">
         <v>1.86</v>
@@ -25474,7 +25477,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25680,7 +25683,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -26298,7 +26301,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -26504,7 +26507,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -26710,7 +26713,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27122,7 +27125,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27328,7 +27331,7 @@
         <v>94</v>
       </c>
       <c r="P128" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q128">
         <v>3.4</v>
@@ -27409,7 +27412,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ128">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR128">
         <v>1.41</v>
@@ -27740,7 +27743,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27946,7 +27949,7 @@
         <v>171</v>
       </c>
       <c r="P131" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28770,7 +28773,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q135">
         <v>3.2</v>
@@ -28976,7 +28979,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q136">
         <v>2.63</v>
@@ -29182,7 +29185,7 @@
         <v>108</v>
       </c>
       <c r="P137" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29275,22 +29278,22 @@
         <v>2.69</v>
       </c>
       <c r="AU137">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV137">
         <v>6</v>
       </c>
       <c r="AW137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX137">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AY137">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ137">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA137">
         <v>8</v>
@@ -29487,16 +29490,16 @@
         <v>4</v>
       </c>
       <c r="AW138">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX138">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY138">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ138">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA138">
         <v>4</v>
@@ -29545,6 +29548,212 @@
       </c>
       <c r="BP138">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7364264</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45401.45833333334</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>81</v>
+      </c>
+      <c r="H139" t="s">
+        <v>74</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>175</v>
+      </c>
+      <c r="P139" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q139">
+        <v>3.75</v>
+      </c>
+      <c r="R139">
+        <v>2</v>
+      </c>
+      <c r="S139">
+        <v>3</v>
+      </c>
+      <c r="T139">
+        <v>1.52</v>
+      </c>
+      <c r="U139">
+        <v>2.33</v>
+      </c>
+      <c r="V139">
+        <v>3.16</v>
+      </c>
+      <c r="W139">
+        <v>1.31</v>
+      </c>
+      <c r="X139">
+        <v>7.95</v>
+      </c>
+      <c r="Y139">
+        <v>1.05</v>
+      </c>
+      <c r="Z139">
+        <v>3.1</v>
+      </c>
+      <c r="AA139">
+        <v>2.87</v>
+      </c>
+      <c r="AB139">
+        <v>2.25</v>
+      </c>
+      <c r="AC139">
+        <v>1.07</v>
+      </c>
+      <c r="AD139">
+        <v>6.74</v>
+      </c>
+      <c r="AE139">
+        <v>1.46</v>
+      </c>
+      <c r="AF139">
+        <v>2.6</v>
+      </c>
+      <c r="AG139">
+        <v>2.3</v>
+      </c>
+      <c r="AH139">
+        <v>1.55</v>
+      </c>
+      <c r="AI139">
+        <v>2</v>
+      </c>
+      <c r="AJ139">
+        <v>1.73</v>
+      </c>
+      <c r="AK139">
+        <v>1.4</v>
+      </c>
+      <c r="AL139">
+        <v>1.34</v>
+      </c>
+      <c r="AM139">
+        <v>1.31</v>
+      </c>
+      <c r="AN139">
+        <v>0.88</v>
+      </c>
+      <c r="AO139">
+        <v>1</v>
+      </c>
+      <c r="AP139">
+        <v>1.11</v>
+      </c>
+      <c r="AQ139">
+        <v>0.9</v>
+      </c>
+      <c r="AR139">
+        <v>1.23</v>
+      </c>
+      <c r="AS139">
+        <v>1.3</v>
+      </c>
+      <c r="AT139">
+        <v>2.53</v>
+      </c>
+      <c r="AU139">
+        <v>8</v>
+      </c>
+      <c r="AV139">
+        <v>4</v>
+      </c>
+      <c r="AW139">
+        <v>5</v>
+      </c>
+      <c r="AX139">
+        <v>3</v>
+      </c>
+      <c r="AY139">
+        <v>13</v>
+      </c>
+      <c r="AZ139">
+        <v>7</v>
+      </c>
+      <c r="BA139">
+        <v>1</v>
+      </c>
+      <c r="BB139">
+        <v>3</v>
+      </c>
+      <c r="BC139">
+        <v>4</v>
+      </c>
+      <c r="BD139">
+        <v>2.11</v>
+      </c>
+      <c r="BE139">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF139">
+        <v>1.91</v>
+      </c>
+      <c r="BG139">
+        <v>1.33</v>
+      </c>
+      <c r="BH139">
+        <v>2.93</v>
+      </c>
+      <c r="BI139">
+        <v>1.66</v>
+      </c>
+      <c r="BJ139">
+        <v>2.2</v>
+      </c>
+      <c r="BK139">
+        <v>2.07</v>
+      </c>
+      <c r="BL139">
+        <v>1.74</v>
+      </c>
+      <c r="BM139">
+        <v>2.67</v>
+      </c>
+      <c r="BN139">
+        <v>1.39</v>
+      </c>
+      <c r="BO139">
+        <v>3.74</v>
+      </c>
+      <c r="BP139">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,15 @@
     <t>['53', '74']</t>
   </si>
   <si>
+    <t>['8', '22', '34']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -755,6 +764,9 @@
   </si>
   <si>
     <t>['19', '44']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1659,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2071,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ5">
         <v>1.71</v>
@@ -2199,7 +2211,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2486,7 +2498,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ7">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2611,7 +2623,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2692,7 +2704,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ8">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2895,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -3023,7 +3035,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3229,7 +3241,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3435,7 +3447,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3641,7 +3653,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3847,7 +3859,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4877,7 +4889,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -4955,7 +4967,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ19">
         <v>1.29</v>
@@ -5289,7 +5301,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5367,10 +5379,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR21">
         <v>1.13</v>
@@ -5495,7 +5507,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5701,7 +5713,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5779,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ23">
         <v>1.57</v>
@@ -5907,7 +5919,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5988,7 +6000,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ24">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR24">
         <v>1.15</v>
@@ -6113,7 +6125,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6525,7 +6537,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q27">
         <v>1.91</v>
@@ -6606,7 +6618,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR27">
         <v>2</v>
@@ -7143,7 +7155,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7349,7 +7361,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7555,7 +7567,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7761,7 +7773,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7967,7 +7979,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8379,7 +8391,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8791,7 +8803,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8872,7 +8884,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ38">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR38">
         <v>1.37</v>
@@ -8997,7 +9009,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9075,7 +9087,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ39">
         <v>0.78</v>
@@ -9203,7 +9215,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9281,7 +9293,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40">
         <v>0.9</v>
@@ -9693,10 +9705,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ42">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR42">
         <v>0.84</v>
@@ -9821,7 +9833,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9902,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR43">
         <v>0.91</v>
@@ -10027,7 +10039,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10233,7 +10245,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10851,7 +10863,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11057,7 +11069,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11469,7 +11481,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11675,7 +11687,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11881,7 +11893,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12293,7 +12305,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12374,7 +12386,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR55">
         <v>1.67</v>
@@ -12705,7 +12717,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12989,7 +13001,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ58">
         <v>1.7</v>
@@ -13198,7 +13210,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ59">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR59">
         <v>1.51</v>
@@ -13323,7 +13335,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13529,7 +13541,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13813,7 +13825,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ62">
         <v>1.29</v>
@@ -13941,7 +13953,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14147,7 +14159,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14353,7 +14365,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14559,7 +14571,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14765,7 +14777,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15177,7 +15189,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15258,7 +15270,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR69">
         <v>1.06</v>
@@ -15589,7 +15601,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q71">
         <v>1.8</v>
@@ -16079,7 +16091,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ73">
         <v>0.78</v>
@@ -16207,7 +16219,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16413,7 +16425,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16700,7 +16712,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ76">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR76">
         <v>1.17</v>
@@ -16825,7 +16837,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17031,7 +17043,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17237,7 +17249,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17315,7 +17327,7 @@
         <v>0.75</v>
       </c>
       <c r="AP79">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ79">
         <v>0.67</v>
@@ -17443,7 +17455,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17521,7 +17533,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ80">
         <v>0.33</v>
@@ -18473,7 +18485,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18551,7 +18563,7 @@
         <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ85">
         <v>1.75</v>
@@ -18679,7 +18691,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18760,7 +18772,7 @@
         <v>2</v>
       </c>
       <c r="AQ86">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -18885,7 +18897,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19297,7 +19309,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19503,7 +19515,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -19581,7 +19593,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ90">
         <v>1.44</v>
@@ -19787,7 +19799,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ91">
         <v>2</v>
@@ -19996,7 +20008,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ92">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR92">
         <v>1.28</v>
@@ -20121,7 +20133,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20945,7 +20957,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21438,7 +21450,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ99">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR99">
         <v>1.69</v>
@@ -21563,7 +21575,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21641,7 +21653,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ100">
         <v>0.67</v>
@@ -21975,7 +21987,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22181,7 +22193,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22465,7 +22477,7 @@
         <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22674,7 +22686,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ105">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR105">
         <v>1.44</v>
@@ -22877,7 +22889,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ106">
         <v>1.71</v>
@@ -23005,7 +23017,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23417,7 +23429,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23498,7 +23510,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ109">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR109">
         <v>1.64</v>
@@ -23623,7 +23635,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>3.5</v>
@@ -24241,7 +24253,7 @@
         <v>161</v>
       </c>
       <c r="P113" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -25271,7 +25283,7 @@
         <v>105</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25352,7 +25364,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ118">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR118">
         <v>1.25</v>
@@ -25477,7 +25489,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25558,7 +25570,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ119">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR119">
         <v>1.23</v>
@@ -25683,7 +25695,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -25761,7 +25773,7 @@
         <v>1.75</v>
       </c>
       <c r="AP120">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ120">
         <v>2</v>
@@ -26173,10 +26185,10 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ122">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR122">
         <v>1.48</v>
@@ -26301,7 +26313,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -26379,7 +26391,7 @@
         <v>1.67</v>
       </c>
       <c r="AP123">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ123">
         <v>1.57</v>
@@ -26507,7 +26519,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -26713,7 +26725,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27125,7 +27137,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27331,7 +27343,7 @@
         <v>94</v>
       </c>
       <c r="P128" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q128">
         <v>3.4</v>
@@ -27743,7 +27755,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27949,7 +27961,7 @@
         <v>171</v>
       </c>
       <c r="P131" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28773,7 +28785,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q135">
         <v>3.2</v>
@@ -28979,7 +28991,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q136">
         <v>2.63</v>
@@ -29185,7 +29197,7 @@
         <v>108</v>
       </c>
       <c r="P137" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29754,6 +29766,624 @@
       </c>
       <c r="BP139">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7364267</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45404.45833333334</v>
+      </c>
+      <c r="F140">
+        <v>19</v>
+      </c>
+      <c r="G140" t="s">
+        <v>71</v>
+      </c>
+      <c r="H140" t="s">
+        <v>84</v>
+      </c>
+      <c r="I140">
+        <v>3</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>3</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>176</v>
+      </c>
+      <c r="P140" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q140">
+        <v>2.88</v>
+      </c>
+      <c r="R140">
+        <v>1.95</v>
+      </c>
+      <c r="S140">
+        <v>4</v>
+      </c>
+      <c r="T140">
+        <v>1.48</v>
+      </c>
+      <c r="U140">
+        <v>2.5</v>
+      </c>
+      <c r="V140">
+        <v>3.1</v>
+      </c>
+      <c r="W140">
+        <v>1.33</v>
+      </c>
+      <c r="X140">
+        <v>8.4</v>
+      </c>
+      <c r="Y140">
+        <v>1.05</v>
+      </c>
+      <c r="Z140">
+        <v>2.2</v>
+      </c>
+      <c r="AA140">
+        <v>2.9</v>
+      </c>
+      <c r="AB140">
+        <v>3.4</v>
+      </c>
+      <c r="AC140">
+        <v>1.08</v>
+      </c>
+      <c r="AD140">
+        <v>7</v>
+      </c>
+      <c r="AE140">
+        <v>1.4</v>
+      </c>
+      <c r="AF140">
+        <v>2.8</v>
+      </c>
+      <c r="AG140">
+        <v>2.2</v>
+      </c>
+      <c r="AH140">
+        <v>1.65</v>
+      </c>
+      <c r="AI140">
+        <v>2</v>
+      </c>
+      <c r="AJ140">
+        <v>1.73</v>
+      </c>
+      <c r="AK140">
+        <v>1.25</v>
+      </c>
+      <c r="AL140">
+        <v>1.28</v>
+      </c>
+      <c r="AM140">
+        <v>1.73</v>
+      </c>
+      <c r="AN140">
+        <v>1.43</v>
+      </c>
+      <c r="AO140">
+        <v>1.86</v>
+      </c>
+      <c r="AP140">
+        <v>1.63</v>
+      </c>
+      <c r="AQ140">
+        <v>1.63</v>
+      </c>
+      <c r="AR140">
+        <v>1.91</v>
+      </c>
+      <c r="AS140">
+        <v>1.43</v>
+      </c>
+      <c r="AT140">
+        <v>3.34</v>
+      </c>
+      <c r="AU140">
+        <v>8</v>
+      </c>
+      <c r="AV140">
+        <v>3</v>
+      </c>
+      <c r="AW140">
+        <v>4</v>
+      </c>
+      <c r="AX140">
+        <v>7</v>
+      </c>
+      <c r="AY140">
+        <v>12</v>
+      </c>
+      <c r="AZ140">
+        <v>10</v>
+      </c>
+      <c r="BA140">
+        <v>5</v>
+      </c>
+      <c r="BB140">
+        <v>7</v>
+      </c>
+      <c r="BC140">
+        <v>12</v>
+      </c>
+      <c r="BD140">
+        <v>1.53</v>
+      </c>
+      <c r="BE140">
+        <v>9.1</v>
+      </c>
+      <c r="BF140">
+        <v>2.81</v>
+      </c>
+      <c r="BG140">
+        <v>1.23</v>
+      </c>
+      <c r="BH140">
+        <v>3.56</v>
+      </c>
+      <c r="BI140">
+        <v>1.44</v>
+      </c>
+      <c r="BJ140">
+        <v>2.51</v>
+      </c>
+      <c r="BK140">
+        <v>2.1</v>
+      </c>
+      <c r="BL140">
+        <v>1.9</v>
+      </c>
+      <c r="BM140">
+        <v>2.27</v>
+      </c>
+      <c r="BN140">
+        <v>1.53</v>
+      </c>
+      <c r="BO140">
+        <v>3.04</v>
+      </c>
+      <c r="BP140">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7364268</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45404.58333333334</v>
+      </c>
+      <c r="F141">
+        <v>19</v>
+      </c>
+      <c r="G141" t="s">
+        <v>73</v>
+      </c>
+      <c r="H141" t="s">
+        <v>82</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>177</v>
+      </c>
+      <c r="P141" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q141">
+        <v>5</v>
+      </c>
+      <c r="R141">
+        <v>1.91</v>
+      </c>
+      <c r="S141">
+        <v>2.63</v>
+      </c>
+      <c r="T141">
+        <v>1.6</v>
+      </c>
+      <c r="U141">
+        <v>2.2</v>
+      </c>
+      <c r="V141">
+        <v>3.8</v>
+      </c>
+      <c r="W141">
+        <v>1.22</v>
+      </c>
+      <c r="X141">
+        <v>10.75</v>
+      </c>
+      <c r="Y141">
+        <v>1.02</v>
+      </c>
+      <c r="Z141">
+        <v>4.33</v>
+      </c>
+      <c r="AA141">
+        <v>3</v>
+      </c>
+      <c r="AB141">
+        <v>1.91</v>
+      </c>
+      <c r="AC141">
+        <v>1.11</v>
+      </c>
+      <c r="AD141">
+        <v>6</v>
+      </c>
+      <c r="AE141">
+        <v>1.55</v>
+      </c>
+      <c r="AF141">
+        <v>2.3</v>
+      </c>
+      <c r="AG141">
+        <v>2.63</v>
+      </c>
+      <c r="AH141">
+        <v>1.44</v>
+      </c>
+      <c r="AI141">
+        <v>2.38</v>
+      </c>
+      <c r="AJ141">
+        <v>1.53</v>
+      </c>
+      <c r="AK141">
+        <v>1.83</v>
+      </c>
+      <c r="AL141">
+        <v>1.3</v>
+      </c>
+      <c r="AM141">
+        <v>1.2</v>
+      </c>
+      <c r="AN141">
+        <v>0.88</v>
+      </c>
+      <c r="AO141">
+        <v>1.83</v>
+      </c>
+      <c r="AP141">
+        <v>0.89</v>
+      </c>
+      <c r="AQ141">
+        <v>1.71</v>
+      </c>
+      <c r="AR141">
+        <v>0.89</v>
+      </c>
+      <c r="AS141">
+        <v>1.44</v>
+      </c>
+      <c r="AT141">
+        <v>2.33</v>
+      </c>
+      <c r="AU141">
+        <v>5</v>
+      </c>
+      <c r="AV141">
+        <v>6</v>
+      </c>
+      <c r="AW141">
+        <v>4</v>
+      </c>
+      <c r="AX141">
+        <v>5</v>
+      </c>
+      <c r="AY141">
+        <v>9</v>
+      </c>
+      <c r="AZ141">
+        <v>11</v>
+      </c>
+      <c r="BA141">
+        <v>3</v>
+      </c>
+      <c r="BB141">
+        <v>10</v>
+      </c>
+      <c r="BC141">
+        <v>13</v>
+      </c>
+      <c r="BD141">
+        <v>2.91</v>
+      </c>
+      <c r="BE141">
+        <v>8.6</v>
+      </c>
+      <c r="BF141">
+        <v>1.52</v>
+      </c>
+      <c r="BG141">
+        <v>1.34</v>
+      </c>
+      <c r="BH141">
+        <v>2.88</v>
+      </c>
+      <c r="BI141">
+        <v>1.63</v>
+      </c>
+      <c r="BJ141">
+        <v>2.09</v>
+      </c>
+      <c r="BK141">
+        <v>2.07</v>
+      </c>
+      <c r="BL141">
+        <v>1.64</v>
+      </c>
+      <c r="BM141">
+        <v>2.78</v>
+      </c>
+      <c r="BN141">
+        <v>1.36</v>
+      </c>
+      <c r="BO141">
+        <v>3.68</v>
+      </c>
+      <c r="BP141">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7364269</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45404.58333333334</v>
+      </c>
+      <c r="F142">
+        <v>19</v>
+      </c>
+      <c r="G142" t="s">
+        <v>77</v>
+      </c>
+      <c r="H142" t="s">
+        <v>86</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>178</v>
+      </c>
+      <c r="P142" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q142">
+        <v>3.2</v>
+      </c>
+      <c r="R142">
+        <v>1.95</v>
+      </c>
+      <c r="S142">
+        <v>3.5</v>
+      </c>
+      <c r="T142">
+        <v>1.5</v>
+      </c>
+      <c r="U142">
+        <v>2.4</v>
+      </c>
+      <c r="V142">
+        <v>3.2</v>
+      </c>
+      <c r="W142">
+        <v>1.3</v>
+      </c>
+      <c r="X142">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y142">
+        <v>1.05</v>
+      </c>
+      <c r="Z142">
+        <v>2.7</v>
+      </c>
+      <c r="AA142">
+        <v>2.75</v>
+      </c>
+      <c r="AB142">
+        <v>2.8</v>
+      </c>
+      <c r="AC142">
+        <v>1.08</v>
+      </c>
+      <c r="AD142">
+        <v>7</v>
+      </c>
+      <c r="AE142">
+        <v>1.42</v>
+      </c>
+      <c r="AF142">
+        <v>2.75</v>
+      </c>
+      <c r="AG142">
+        <v>2.3</v>
+      </c>
+      <c r="AH142">
+        <v>1.6</v>
+      </c>
+      <c r="AI142">
+        <v>1.91</v>
+      </c>
+      <c r="AJ142">
+        <v>1.8</v>
+      </c>
+      <c r="AK142">
+        <v>1.38</v>
+      </c>
+      <c r="AL142">
+        <v>1.3</v>
+      </c>
+      <c r="AM142">
+        <v>1.5</v>
+      </c>
+      <c r="AN142">
+        <v>1.75</v>
+      </c>
+      <c r="AO142">
+        <v>0.5</v>
+      </c>
+      <c r="AP142">
+        <v>1.67</v>
+      </c>
+      <c r="AQ142">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR142">
+        <v>1.4</v>
+      </c>
+      <c r="AS142">
+        <v>1.55</v>
+      </c>
+      <c r="AT142">
+        <v>2.95</v>
+      </c>
+      <c r="AU142">
+        <v>4</v>
+      </c>
+      <c r="AV142">
+        <v>5</v>
+      </c>
+      <c r="AW142">
+        <v>5</v>
+      </c>
+      <c r="AX142">
+        <v>5</v>
+      </c>
+      <c r="AY142">
+        <v>9</v>
+      </c>
+      <c r="AZ142">
+        <v>10</v>
+      </c>
+      <c r="BA142">
+        <v>7</v>
+      </c>
+      <c r="BB142">
+        <v>8</v>
+      </c>
+      <c r="BC142">
+        <v>15</v>
+      </c>
+      <c r="BD142">
+        <v>1.86</v>
+      </c>
+      <c r="BE142">
+        <v>8.4</v>
+      </c>
+      <c r="BF142">
+        <v>2.17</v>
+      </c>
+      <c r="BG142">
+        <v>1.28</v>
+      </c>
+      <c r="BH142">
+        <v>3.2</v>
+      </c>
+      <c r="BI142">
+        <v>1.53</v>
+      </c>
+      <c r="BJ142">
+        <v>2.28</v>
+      </c>
+      <c r="BK142">
+        <v>1.91</v>
+      </c>
+      <c r="BL142">
+        <v>1.76</v>
+      </c>
+      <c r="BM142">
+        <v>2.51</v>
+      </c>
+      <c r="BN142">
+        <v>1.44</v>
+      </c>
+      <c r="BO142">
+        <v>3.42</v>
+      </c>
+      <c r="BP142">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,9 @@
     <t>['21']</t>
   </si>
   <si>
+    <t>['32', '42', '49', '82']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -767,6 +770,9 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['4', '54']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP142"/>
+  <dimension ref="A1:BP144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1880,7 +1886,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ4">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2211,7 +2217,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2292,7 +2298,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ6">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2495,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>1.63</v>
@@ -2623,7 +2629,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2701,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ8">
         <v>1.71</v>
@@ -3035,7 +3041,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3241,7 +3247,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3447,7 +3453,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3653,7 +3659,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3859,7 +3865,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4889,7 +4895,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -4970,7 +4976,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ19">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR19">
         <v>1.91</v>
@@ -5173,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>0.9</v>
@@ -5301,7 +5307,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5507,7 +5513,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5585,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5713,7 +5719,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5794,7 +5800,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ23">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
         <v>0.65</v>
@@ -5919,7 +5925,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6125,7 +6131,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6537,7 +6543,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>1.91</v>
@@ -7155,7 +7161,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7361,7 +7367,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7567,7 +7573,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7773,7 +7779,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7979,7 +7985,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8391,7 +8397,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8472,7 +8478,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -8803,7 +8809,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8881,7 +8887,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ38">
         <v>1.63</v>
@@ -9009,7 +9015,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9215,7 +9221,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9833,7 +9839,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10039,7 +10045,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10117,7 +10123,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>1.75</v>
@@ -10245,7 +10251,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10863,7 +10869,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11069,7 +11075,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11481,7 +11487,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11687,7 +11693,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11893,7 +11899,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12305,7 +12311,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12717,7 +12723,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13335,7 +13341,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13413,7 +13419,7 @@
         <v>0.33</v>
       </c>
       <c r="AP60">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ60">
         <v>0.9</v>
@@ -13541,7 +13547,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13622,7 +13628,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ61">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -13828,7 +13834,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ62">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR62">
         <v>0.8100000000000001</v>
@@ -13953,7 +13959,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14159,7 +14165,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14237,7 +14243,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>0.67</v>
@@ -14365,7 +14371,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14571,7 +14577,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14777,7 +14783,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15189,7 +15195,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15601,7 +15607,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>1.8</v>
@@ -15682,7 +15688,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR71">
         <v>1.89</v>
@@ -16219,7 +16225,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16297,7 +16303,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ74">
         <v>1.7</v>
@@ -16425,7 +16431,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16837,7 +16843,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17043,7 +17049,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17249,7 +17255,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17455,7 +17461,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17739,7 +17745,7 @@
         <v>1.75</v>
       </c>
       <c r="AP81">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
         <v>1.44</v>
@@ -18360,7 +18366,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ84">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR84">
         <v>1.06</v>
@@ -18485,7 +18491,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18691,7 +18697,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18897,7 +18903,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -18978,7 +18984,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ87">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19181,7 +19187,7 @@
         <v>1.2</v>
       </c>
       <c r="AP88">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19309,7 +19315,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19515,7 +19521,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -20133,7 +20139,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20957,7 +20963,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21575,7 +21581,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21862,7 +21868,7 @@
         <v>2</v>
       </c>
       <c r="AQ101">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR101">
         <v>1.35</v>
@@ -21987,7 +21993,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22193,7 +22199,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22271,7 +22277,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ103">
         <v>1.44</v>
@@ -23017,7 +23023,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23098,7 +23104,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ107">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR107">
         <v>1.23</v>
@@ -23429,7 +23435,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23507,7 +23513,7 @@
         <v>2.25</v>
       </c>
       <c r="AP109">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
         <v>1.71</v>
@@ -23635,7 +23641,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>3.5</v>
@@ -23713,7 +23719,7 @@
         <v>1.14</v>
       </c>
       <c r="AP110">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ110">
         <v>1</v>
@@ -24128,7 +24134,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ112">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR112">
         <v>1.4</v>
@@ -24253,7 +24259,7 @@
         <v>161</v>
       </c>
       <c r="P113" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -25283,7 +25289,7 @@
         <v>105</v>
       </c>
       <c r="P118" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25489,7 +25495,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25695,7 +25701,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -25979,7 +25985,7 @@
         <v>1.14</v>
       </c>
       <c r="AP121">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26313,7 +26319,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -26394,7 +26400,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ123">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR123">
         <v>1.91</v>
@@ -26519,7 +26525,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -26725,7 +26731,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27137,7 +27143,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27343,7 +27349,7 @@
         <v>94</v>
       </c>
       <c r="P128" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q128">
         <v>3.4</v>
@@ -27755,7 +27761,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27961,7 +27967,7 @@
         <v>171</v>
       </c>
       <c r="P131" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28785,7 +28791,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q135">
         <v>3.2</v>
@@ -28991,7 +28997,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q136">
         <v>2.63</v>
@@ -29197,7 +29203,7 @@
         <v>108</v>
       </c>
       <c r="P137" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -30227,7 +30233,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30384,6 +30390,418 @@
       </c>
       <c r="BP142">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7364270</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45405.47916666666</v>
+      </c>
+      <c r="F143">
+        <v>19</v>
+      </c>
+      <c r="G143" t="s">
+        <v>75</v>
+      </c>
+      <c r="H143" t="s">
+        <v>81</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>4</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143" t="s">
+        <v>179</v>
+      </c>
+      <c r="P143" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q143">
+        <v>2.75</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>4</v>
+      </c>
+      <c r="T143">
+        <v>1.45</v>
+      </c>
+      <c r="U143">
+        <v>2.63</v>
+      </c>
+      <c r="V143">
+        <v>3.12</v>
+      </c>
+      <c r="W143">
+        <v>1.33</v>
+      </c>
+      <c r="X143">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y143">
+        <v>1.06</v>
+      </c>
+      <c r="Z143">
+        <v>1.9</v>
+      </c>
+      <c r="AA143">
+        <v>3.3</v>
+      </c>
+      <c r="AB143">
+        <v>4</v>
+      </c>
+      <c r="AC143">
+        <v>1.03</v>
+      </c>
+      <c r="AD143">
+        <v>7.9</v>
+      </c>
+      <c r="AE143">
+        <v>1.35</v>
+      </c>
+      <c r="AF143">
+        <v>2.84</v>
+      </c>
+      <c r="AG143">
+        <v>2.05</v>
+      </c>
+      <c r="AH143">
+        <v>1.65</v>
+      </c>
+      <c r="AI143">
+        <v>1.91</v>
+      </c>
+      <c r="AJ143">
+        <v>1.8</v>
+      </c>
+      <c r="AK143">
+        <v>1.18</v>
+      </c>
+      <c r="AL143">
+        <v>1.25</v>
+      </c>
+      <c r="AM143">
+        <v>1.85</v>
+      </c>
+      <c r="AN143">
+        <v>1.88</v>
+      </c>
+      <c r="AO143">
+        <v>1.29</v>
+      </c>
+      <c r="AP143">
+        <v>2</v>
+      </c>
+      <c r="AQ143">
+        <v>1.13</v>
+      </c>
+      <c r="AR143">
+        <v>1.59</v>
+      </c>
+      <c r="AS143">
+        <v>1.28</v>
+      </c>
+      <c r="AT143">
+        <v>2.87</v>
+      </c>
+      <c r="AU143">
+        <v>8</v>
+      </c>
+      <c r="AV143">
+        <v>5</v>
+      </c>
+      <c r="AW143">
+        <v>1</v>
+      </c>
+      <c r="AX143">
+        <v>4</v>
+      </c>
+      <c r="AY143">
+        <v>9</v>
+      </c>
+      <c r="AZ143">
+        <v>9</v>
+      </c>
+      <c r="BA143">
+        <v>4</v>
+      </c>
+      <c r="BB143">
+        <v>4</v>
+      </c>
+      <c r="BC143">
+        <v>8</v>
+      </c>
+      <c r="BD143">
+        <v>1.65</v>
+      </c>
+      <c r="BE143">
+        <v>8.4</v>
+      </c>
+      <c r="BF143">
+        <v>2.55</v>
+      </c>
+      <c r="BG143">
+        <v>1.32</v>
+      </c>
+      <c r="BH143">
+        <v>2.98</v>
+      </c>
+      <c r="BI143">
+        <v>1.64</v>
+      </c>
+      <c r="BJ143">
+        <v>2.24</v>
+      </c>
+      <c r="BK143">
+        <v>2.05</v>
+      </c>
+      <c r="BL143">
+        <v>1.76</v>
+      </c>
+      <c r="BM143">
+        <v>2.64</v>
+      </c>
+      <c r="BN143">
+        <v>1.4</v>
+      </c>
+      <c r="BO143">
+        <v>3.65</v>
+      </c>
+      <c r="BP143">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7364271</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45405.58333333334</v>
+      </c>
+      <c r="F144">
+        <v>19</v>
+      </c>
+      <c r="G144" t="s">
+        <v>76</v>
+      </c>
+      <c r="H144" t="s">
+        <v>85</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>128</v>
+      </c>
+      <c r="P144" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q144">
+        <v>4</v>
+      </c>
+      <c r="R144">
+        <v>1.95</v>
+      </c>
+      <c r="S144">
+        <v>2.88</v>
+      </c>
+      <c r="T144">
+        <v>1.53</v>
+      </c>
+      <c r="U144">
+        <v>2.35</v>
+      </c>
+      <c r="V144">
+        <v>3.35</v>
+      </c>
+      <c r="W144">
+        <v>1.28</v>
+      </c>
+      <c r="X144">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y144">
+        <v>1.04</v>
+      </c>
+      <c r="Z144">
+        <v>3.2</v>
+      </c>
+      <c r="AA144">
+        <v>3.25</v>
+      </c>
+      <c r="AB144">
+        <v>2.1</v>
+      </c>
+      <c r="AC144">
+        <v>1.09</v>
+      </c>
+      <c r="AD144">
+        <v>6.5</v>
+      </c>
+      <c r="AE144">
+        <v>1.45</v>
+      </c>
+      <c r="AF144">
+        <v>2.6</v>
+      </c>
+      <c r="AG144">
+        <v>2.35</v>
+      </c>
+      <c r="AH144">
+        <v>1.57</v>
+      </c>
+      <c r="AI144">
+        <v>2.1</v>
+      </c>
+      <c r="AJ144">
+        <v>1.67</v>
+      </c>
+      <c r="AK144">
+        <v>1.62</v>
+      </c>
+      <c r="AL144">
+        <v>1.3</v>
+      </c>
+      <c r="AM144">
+        <v>1.28</v>
+      </c>
+      <c r="AN144">
+        <v>0.86</v>
+      </c>
+      <c r="AO144">
+        <v>1.57</v>
+      </c>
+      <c r="AP144">
+        <v>0.75</v>
+      </c>
+      <c r="AQ144">
+        <v>1.75</v>
+      </c>
+      <c r="AR144">
+        <v>1.46</v>
+      </c>
+      <c r="AS144">
+        <v>1.1</v>
+      </c>
+      <c r="AT144">
+        <v>2.56</v>
+      </c>
+      <c r="AU144">
+        <v>6</v>
+      </c>
+      <c r="AV144">
+        <v>6</v>
+      </c>
+      <c r="AW144">
+        <v>9</v>
+      </c>
+      <c r="AX144">
+        <v>2</v>
+      </c>
+      <c r="AY144">
+        <v>15</v>
+      </c>
+      <c r="AZ144">
+        <v>8</v>
+      </c>
+      <c r="BA144">
+        <v>12</v>
+      </c>
+      <c r="BB144">
+        <v>5</v>
+      </c>
+      <c r="BC144">
+        <v>17</v>
+      </c>
+      <c r="BD144">
+        <v>2.08</v>
+      </c>
+      <c r="BE144">
+        <v>8.1</v>
+      </c>
+      <c r="BF144">
+        <v>1.95</v>
+      </c>
+      <c r="BG144">
+        <v>1.35</v>
+      </c>
+      <c r="BH144">
+        <v>2.84</v>
+      </c>
+      <c r="BI144">
+        <v>1.71</v>
+      </c>
+      <c r="BJ144">
+        <v>2.12</v>
+      </c>
+      <c r="BK144">
+        <v>2.15</v>
+      </c>
+      <c r="BL144">
+        <v>1.69</v>
+      </c>
+      <c r="BM144">
+        <v>2.79</v>
+      </c>
+      <c r="BN144">
+        <v>1.36</v>
+      </c>
+      <c r="BO144">
+        <v>3.68</v>
+      </c>
+      <c r="BP144">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,9 @@
     <t>['32', '42', '49', '82']</t>
   </si>
   <si>
+    <t>['90+7']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -752,9 +755,6 @@
   </si>
   <si>
     <t>['20', '69']</t>
-  </si>
-  <si>
-    <t>['90+7']</t>
   </si>
   <si>
     <t>['2', '74', '90+1']</t>
@@ -1134,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP144"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -2092,7 +2092,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ5">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2629,7 +2629,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3041,7 +3041,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3247,7 +3247,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3453,7 +3453,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3659,7 +3659,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3865,7 +3865,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4895,7 +4895,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5307,7 +5307,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5513,7 +5513,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5719,7 +5719,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5925,7 +5925,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6003,7 +6003,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ24">
         <v>1.71</v>
@@ -6131,7 +6131,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6418,7 +6418,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>2.1</v>
@@ -6543,7 +6543,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>1.91</v>
@@ -7161,7 +7161,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7367,7 +7367,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7573,7 +7573,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7779,7 +7779,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7985,7 +7985,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8397,7 +8397,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8809,7 +8809,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9015,7 +9015,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9221,7 +9221,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9505,7 +9505,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9839,7 +9839,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10045,7 +10045,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10251,7 +10251,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10869,7 +10869,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11075,7 +11075,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11362,7 +11362,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ50">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
         <v>1.07</v>
@@ -11487,7 +11487,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11693,7 +11693,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11899,7 +11899,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12311,7 +12311,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12723,7 +12723,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13213,7 +13213,7 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ59">
         <v>1.63</v>
@@ -13341,7 +13341,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13547,7 +13547,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13959,7 +13959,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14165,7 +14165,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14371,7 +14371,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14577,7 +14577,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14783,7 +14783,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -14864,7 +14864,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ67">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>1.71</v>
@@ -15195,7 +15195,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15607,7 +15607,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>1.8</v>
@@ -16225,7 +16225,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16431,7 +16431,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16509,7 +16509,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ75">
         <v>0.9</v>
@@ -16843,7 +16843,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -16924,7 +16924,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ77">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
         <v>1.32</v>
@@ -17049,7 +17049,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17255,7 +17255,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17461,7 +17461,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18157,7 +18157,7 @@
         <v>2.2</v>
       </c>
       <c r="AP83">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ83">
         <v>1.7</v>
@@ -18491,7 +18491,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18697,7 +18697,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18903,7 +18903,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19315,7 +19315,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19396,7 +19396,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ89">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR89">
         <v>1.19</v>
@@ -19521,7 +19521,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -20139,7 +20139,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20963,7 +20963,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21581,7 +21581,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21993,7 +21993,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22199,7 +22199,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22898,7 +22898,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ106">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR106">
         <v>2.1</v>
@@ -23023,7 +23023,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23435,7 +23435,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23641,7 +23641,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>3.5</v>
@@ -24259,7 +24259,7 @@
         <v>161</v>
       </c>
       <c r="P113" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24543,7 +24543,7 @@
         <v>0.17</v>
       </c>
       <c r="AP114">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ114">
         <v>0.33</v>
@@ -25289,7 +25289,7 @@
         <v>105</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25495,7 +25495,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25701,7 +25701,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -26319,7 +26319,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -26525,7 +26525,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -26731,7 +26731,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27143,7 +27143,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27349,7 +27349,7 @@
         <v>94</v>
       </c>
       <c r="P128" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q128">
         <v>3.4</v>
@@ -27761,7 +27761,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -30802,6 +30802,212 @@
       </c>
       <c r="BP144">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7364273</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45406.45833333334</v>
+      </c>
+      <c r="F145">
+        <v>19</v>
+      </c>
+      <c r="G145" t="s">
+        <v>70</v>
+      </c>
+      <c r="H145" t="s">
+        <v>83</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
+        <v>180</v>
+      </c>
+      <c r="P145" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q145">
+        <v>3.4</v>
+      </c>
+      <c r="R145">
+        <v>1.8</v>
+      </c>
+      <c r="S145">
+        <v>4</v>
+      </c>
+      <c r="T145">
+        <v>1.66</v>
+      </c>
+      <c r="U145">
+        <v>2.18</v>
+      </c>
+      <c r="V145">
+        <v>3.96</v>
+      </c>
+      <c r="W145">
+        <v>1.21</v>
+      </c>
+      <c r="X145">
+        <v>9.6</v>
+      </c>
+      <c r="Y145">
+        <v>1.01</v>
+      </c>
+      <c r="Z145">
+        <v>2.5</v>
+      </c>
+      <c r="AA145">
+        <v>2.5</v>
+      </c>
+      <c r="AB145">
+        <v>3</v>
+      </c>
+      <c r="AC145">
+        <v>1.15</v>
+      </c>
+      <c r="AD145">
+        <v>5.27</v>
+      </c>
+      <c r="AE145">
+        <v>1.57</v>
+      </c>
+      <c r="AF145">
+        <v>2.15</v>
+      </c>
+      <c r="AG145">
+        <v>2.94</v>
+      </c>
+      <c r="AH145">
+        <v>1.35</v>
+      </c>
+      <c r="AI145">
+        <v>2.38</v>
+      </c>
+      <c r="AJ145">
+        <v>1.53</v>
+      </c>
+      <c r="AK145">
+        <v>1.3</v>
+      </c>
+      <c r="AL145">
+        <v>1.44</v>
+      </c>
+      <c r="AM145">
+        <v>1.43</v>
+      </c>
+      <c r="AN145">
+        <v>1.57</v>
+      </c>
+      <c r="AO145">
+        <v>1.71</v>
+      </c>
+      <c r="AP145">
+        <v>1.75</v>
+      </c>
+      <c r="AQ145">
+        <v>1.5</v>
+      </c>
+      <c r="AR145">
+        <v>1.48</v>
+      </c>
+      <c r="AS145">
+        <v>1.48</v>
+      </c>
+      <c r="AT145">
+        <v>2.96</v>
+      </c>
+      <c r="AU145">
+        <v>6</v>
+      </c>
+      <c r="AV145">
+        <v>2</v>
+      </c>
+      <c r="AW145">
+        <v>4</v>
+      </c>
+      <c r="AX145">
+        <v>6</v>
+      </c>
+      <c r="AY145">
+        <v>10</v>
+      </c>
+      <c r="AZ145">
+        <v>8</v>
+      </c>
+      <c r="BA145">
+        <v>2</v>
+      </c>
+      <c r="BB145">
+        <v>4</v>
+      </c>
+      <c r="BC145">
+        <v>6</v>
+      </c>
+      <c r="BD145">
+        <v>1.74</v>
+      </c>
+      <c r="BE145">
+        <v>6.85</v>
+      </c>
+      <c r="BF145">
+        <v>2.52</v>
+      </c>
+      <c r="BG145">
+        <v>1.52</v>
+      </c>
+      <c r="BH145">
+        <v>2.48</v>
+      </c>
+      <c r="BI145">
+        <v>1.89</v>
+      </c>
+      <c r="BJ145">
+        <v>1.9</v>
+      </c>
+      <c r="BK145">
+        <v>2.43</v>
+      </c>
+      <c r="BL145">
+        <v>1.54</v>
+      </c>
+      <c r="BM145">
+        <v>3.34</v>
+      </c>
+      <c r="BN145">
+        <v>1.26</v>
+      </c>
+      <c r="BO145">
+        <v>4</v>
+      </c>
+      <c r="BP145">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="257">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,12 @@
     <t>['90+7']</t>
   </si>
   <si>
+    <t>['45+4', '55', '74']</t>
+  </si>
+  <si>
+    <t>['74', '90+4']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -773,6 +779,12 @@
   </si>
   <si>
     <t>['4', '54']</t>
+  </si>
+  <si>
+    <t>['50', '52']</t>
+  </si>
+  <si>
+    <t>['19', '67', '74']</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,7 +1486,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2217,7 +2229,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2629,7 +2641,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3041,7 +3053,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3119,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ10">
         <v>1.14</v>
@@ -3247,7 +3259,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3453,7 +3465,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3659,7 +3671,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3737,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>0.78</v>
@@ -3865,7 +3877,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4355,10 +4367,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4770,7 +4782,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ18">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4895,7 +4907,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5307,7 +5319,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5513,7 +5525,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5719,7 +5731,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5925,7 +5937,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6131,7 +6143,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6415,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ26">
         <v>1.5</v>
@@ -6543,7 +6555,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q27">
         <v>1.91</v>
@@ -7161,7 +7173,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7239,10 +7251,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR30">
         <v>1.5</v>
@@ -7367,7 +7379,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7448,7 +7460,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR31">
         <v>0.38</v>
@@ -7573,7 +7585,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7779,7 +7791,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7860,7 +7872,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ33">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR33">
         <v>1.31</v>
@@ -7985,7 +7997,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8397,7 +8409,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8475,7 +8487,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ36">
         <v>1.75</v>
@@ -8809,7 +8821,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9015,7 +9027,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9221,7 +9233,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9839,7 +9851,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10045,7 +10057,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10126,7 +10138,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10251,7 +10263,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10332,7 +10344,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -10741,7 +10753,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
         <v>0.33</v>
@@ -10869,7 +10881,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11075,7 +11087,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11153,7 +11165,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>0.67</v>
@@ -11487,7 +11499,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11693,7 +11705,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11774,7 +11786,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR52">
         <v>1.27</v>
@@ -11899,7 +11911,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12183,7 +12195,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
         <v>1.75</v>
@@ -12311,7 +12323,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12389,7 +12401,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ55">
         <v>0.5600000000000001</v>
@@ -12723,7 +12735,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13010,7 +13022,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ58">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR58">
         <v>1.7</v>
@@ -13341,7 +13353,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13547,7 +13559,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13959,7 +13971,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14165,7 +14177,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14371,7 +14383,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14449,7 +14461,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>1.44</v>
@@ -14577,7 +14589,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14658,7 +14670,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR66">
         <v>1.54</v>
@@ -14783,7 +14795,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15195,7 +15207,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15607,7 +15619,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>1.8</v>
@@ -15685,7 +15697,7 @@
         <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ71">
         <v>1.13</v>
@@ -16225,7 +16237,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16306,7 +16318,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ74">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16431,7 +16443,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16843,7 +16855,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -16921,7 +16933,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77">
         <v>1.5</v>
@@ -17049,7 +17061,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17127,10 +17139,10 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR78">
         <v>1.22</v>
@@ -17255,7 +17267,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17461,7 +17473,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18160,7 +18172,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ83">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR83">
         <v>1.49</v>
@@ -18491,7 +18503,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18572,7 +18584,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ85">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR85">
         <v>0.83</v>
@@ -18697,7 +18709,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18903,7 +18915,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -18981,7 +18993,7 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>1.75</v>
@@ -19190,7 +19202,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR88">
         <v>1.62</v>
@@ -19315,7 +19327,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19521,7 +19533,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -20011,7 +20023,7 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
         <v>1.71</v>
@@ -20139,7 +20151,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20632,7 +20644,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR95">
         <v>1.2</v>
@@ -20835,10 +20847,10 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ96">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR96">
         <v>2.02</v>
@@ -20963,7 +20975,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21581,7 +21593,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21993,7 +22005,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22071,7 +22083,7 @@
         <v>0.83</v>
       </c>
       <c r="AP102">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -22199,7 +22211,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22486,7 +22498,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR104">
         <v>1.48</v>
@@ -22689,7 +22701,7 @@
         <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ105">
         <v>0.5600000000000001</v>
@@ -23023,7 +23035,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23435,7 +23447,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23641,7 +23653,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>3.5</v>
@@ -23722,7 +23734,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR110">
         <v>1.38</v>
@@ -24259,7 +24271,7 @@
         <v>161</v>
       </c>
       <c r="P113" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24340,7 +24352,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ113">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR113">
         <v>1.07</v>
@@ -24955,7 +24967,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ116">
         <v>0.67</v>
@@ -25164,7 +25176,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ117">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR117">
         <v>1.16</v>
@@ -25289,7 +25301,7 @@
         <v>105</v>
       </c>
       <c r="P118" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25367,7 +25379,7 @@
         <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ118">
         <v>1.63</v>
@@ -25495,7 +25507,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25701,7 +25713,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -26319,7 +26331,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -26525,7 +26537,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -26731,7 +26743,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26809,7 +26821,7 @@
         <v>1.33</v>
       </c>
       <c r="AP125">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125">
         <v>1.14</v>
@@ -27143,7 +27155,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27224,7 +27236,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ127">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR127">
         <v>1.82</v>
@@ -27349,7 +27361,7 @@
         <v>94</v>
       </c>
       <c r="P128" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q128">
         <v>3.4</v>
@@ -27427,7 +27439,7 @@
         <v>0.75</v>
       </c>
       <c r="AP128">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ128">
         <v>0.9</v>
@@ -27967,7 +27979,7 @@
         <v>171</v>
       </c>
       <c r="P131" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28048,7 +28060,7 @@
         <v>2</v>
       </c>
       <c r="AQ131">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR131">
         <v>1.35</v>
@@ -28251,7 +28263,7 @@
         <v>1.29</v>
       </c>
       <c r="AP132">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ132">
         <v>1.44</v>
@@ -28457,7 +28469,7 @@
         <v>0.88</v>
       </c>
       <c r="AP133">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ133">
         <v>0.78</v>
@@ -28791,7 +28803,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q135">
         <v>3.2</v>
@@ -28997,7 +29009,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q136">
         <v>2.63</v>
@@ -29078,7 +29090,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ136">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR136">
         <v>1.76</v>
@@ -29203,7 +29215,7 @@
         <v>108</v>
       </c>
       <c r="P137" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29284,7 +29296,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ137">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR137">
         <v>1.42</v>
@@ -29693,7 +29705,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ139">
         <v>0.9</v>
@@ -30233,7 +30245,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30645,7 +30657,7 @@
         <v>128</v>
       </c>
       <c r="P144" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -30818,7 +30830,7 @@
         <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>45406.45833333334</v>
+        <v>45406.47916666666</v>
       </c>
       <c r="F145">
         <v>19</v>
@@ -31008,6 +31020,624 @@
       </c>
       <c r="BP145">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7364275</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45406.58333333334</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>78</v>
+      </c>
+      <c r="H146" t="s">
+        <v>79</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+      <c r="N146">
+        <v>5</v>
+      </c>
+      <c r="O146" t="s">
+        <v>181</v>
+      </c>
+      <c r="P146" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q146">
+        <v>1.91</v>
+      </c>
+      <c r="R146">
+        <v>2.3</v>
+      </c>
+      <c r="S146">
+        <v>6.5</v>
+      </c>
+      <c r="T146">
+        <v>1.36</v>
+      </c>
+      <c r="U146">
+        <v>3.08</v>
+      </c>
+      <c r="V146">
+        <v>2.82</v>
+      </c>
+      <c r="W146">
+        <v>1.42</v>
+      </c>
+      <c r="X146">
+        <v>6.63</v>
+      </c>
+      <c r="Y146">
+        <v>1.08</v>
+      </c>
+      <c r="Z146">
+        <v>1.4</v>
+      </c>
+      <c r="AA146">
+        <v>4.33</v>
+      </c>
+      <c r="AB146">
+        <v>7</v>
+      </c>
+      <c r="AC146">
+        <v>1.01</v>
+      </c>
+      <c r="AD146">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE146">
+        <v>1.28</v>
+      </c>
+      <c r="AF146">
+        <v>3.54</v>
+      </c>
+      <c r="AG146">
+        <v>1.8</v>
+      </c>
+      <c r="AH146">
+        <v>2</v>
+      </c>
+      <c r="AI146">
+        <v>2</v>
+      </c>
+      <c r="AJ146">
+        <v>1.73</v>
+      </c>
+      <c r="AK146">
+        <v>1.06</v>
+      </c>
+      <c r="AL146">
+        <v>1.18</v>
+      </c>
+      <c r="AM146">
+        <v>2.67</v>
+      </c>
+      <c r="AN146">
+        <v>2</v>
+      </c>
+      <c r="AO146">
+        <v>1</v>
+      </c>
+      <c r="AP146">
+        <v>2.11</v>
+      </c>
+      <c r="AQ146">
+        <v>0.89</v>
+      </c>
+      <c r="AR146">
+        <v>2.03</v>
+      </c>
+      <c r="AS146">
+        <v>1.37</v>
+      </c>
+      <c r="AT146">
+        <v>3.4</v>
+      </c>
+      <c r="AU146">
+        <v>8</v>
+      </c>
+      <c r="AV146">
+        <v>6</v>
+      </c>
+      <c r="AW146">
+        <v>2</v>
+      </c>
+      <c r="AX146">
+        <v>8</v>
+      </c>
+      <c r="AY146">
+        <v>10</v>
+      </c>
+      <c r="AZ146">
+        <v>14</v>
+      </c>
+      <c r="BA146">
+        <v>3</v>
+      </c>
+      <c r="BB146">
+        <v>9</v>
+      </c>
+      <c r="BC146">
+        <v>12</v>
+      </c>
+      <c r="BD146">
+        <v>1.36</v>
+      </c>
+      <c r="BE146">
+        <v>9</v>
+      </c>
+      <c r="BF146">
+        <v>3.68</v>
+      </c>
+      <c r="BG146">
+        <v>1.21</v>
+      </c>
+      <c r="BH146">
+        <v>3.74</v>
+      </c>
+      <c r="BI146">
+        <v>1.41</v>
+      </c>
+      <c r="BJ146">
+        <v>2.6</v>
+      </c>
+      <c r="BK146">
+        <v>2.38</v>
+      </c>
+      <c r="BL146">
+        <v>2.05</v>
+      </c>
+      <c r="BM146">
+        <v>2.22</v>
+      </c>
+      <c r="BN146">
+        <v>1.64</v>
+      </c>
+      <c r="BO146">
+        <v>2.84</v>
+      </c>
+      <c r="BP146">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7364276</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45409.41666666666</v>
+      </c>
+      <c r="F147">
+        <v>20</v>
+      </c>
+      <c r="G147" t="s">
+        <v>81</v>
+      </c>
+      <c r="H147" t="s">
+        <v>71</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>92</v>
+      </c>
+      <c r="P147" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q147">
+        <v>4</v>
+      </c>
+      <c r="R147">
+        <v>1.95</v>
+      </c>
+      <c r="S147">
+        <v>2.88</v>
+      </c>
+      <c r="T147">
+        <v>1.48</v>
+      </c>
+      <c r="U147">
+        <v>2.45</v>
+      </c>
+      <c r="V147">
+        <v>3.2</v>
+      </c>
+      <c r="W147">
+        <v>1.3</v>
+      </c>
+      <c r="X147">
+        <v>8.4</v>
+      </c>
+      <c r="Y147">
+        <v>1.05</v>
+      </c>
+      <c r="Z147">
+        <v>3.4</v>
+      </c>
+      <c r="AA147">
+        <v>2.9</v>
+      </c>
+      <c r="AB147">
+        <v>2.15</v>
+      </c>
+      <c r="AC147">
+        <v>1.07</v>
+      </c>
+      <c r="AD147">
+        <v>7.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.4</v>
+      </c>
+      <c r="AF147">
+        <v>2.8</v>
+      </c>
+      <c r="AG147">
+        <v>2.35</v>
+      </c>
+      <c r="AH147">
+        <v>1.57</v>
+      </c>
+      <c r="AI147">
+        <v>2</v>
+      </c>
+      <c r="AJ147">
+        <v>1.73</v>
+      </c>
+      <c r="AK147">
+        <v>1.73</v>
+      </c>
+      <c r="AL147">
+        <v>1.3</v>
+      </c>
+      <c r="AM147">
+        <v>1.25</v>
+      </c>
+      <c r="AN147">
+        <v>1.11</v>
+      </c>
+      <c r="AO147">
+        <v>1.7</v>
+      </c>
+      <c r="AP147">
+        <v>1</v>
+      </c>
+      <c r="AQ147">
+        <v>1.82</v>
+      </c>
+      <c r="AR147">
+        <v>1.29</v>
+      </c>
+      <c r="AS147">
+        <v>1.32</v>
+      </c>
+      <c r="AT147">
+        <v>2.61</v>
+      </c>
+      <c r="AU147">
+        <v>4</v>
+      </c>
+      <c r="AV147">
+        <v>6</v>
+      </c>
+      <c r="AW147">
+        <v>4</v>
+      </c>
+      <c r="AX147">
+        <v>6</v>
+      </c>
+      <c r="AY147">
+        <v>8</v>
+      </c>
+      <c r="AZ147">
+        <v>12</v>
+      </c>
+      <c r="BA147">
+        <v>2</v>
+      </c>
+      <c r="BB147">
+        <v>3</v>
+      </c>
+      <c r="BC147">
+        <v>5</v>
+      </c>
+      <c r="BD147">
+        <v>2.21</v>
+      </c>
+      <c r="BE147">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF147">
+        <v>1.83</v>
+      </c>
+      <c r="BG147">
+        <v>1.3</v>
+      </c>
+      <c r="BH147">
+        <v>3.08</v>
+      </c>
+      <c r="BI147">
+        <v>1.56</v>
+      </c>
+      <c r="BJ147">
+        <v>2.21</v>
+      </c>
+      <c r="BK147">
+        <v>1.95</v>
+      </c>
+      <c r="BL147">
+        <v>1.72</v>
+      </c>
+      <c r="BM147">
+        <v>2.6</v>
+      </c>
+      <c r="BN147">
+        <v>1.41</v>
+      </c>
+      <c r="BO147">
+        <v>3.56</v>
+      </c>
+      <c r="BP147">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7364277</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45409.54166666666</v>
+      </c>
+      <c r="F148">
+        <v>20</v>
+      </c>
+      <c r="G148" t="s">
+        <v>84</v>
+      </c>
+      <c r="H148" t="s">
+        <v>77</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>182</v>
+      </c>
+      <c r="P148" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q148">
+        <v>3.4</v>
+      </c>
+      <c r="R148">
+        <v>2.05</v>
+      </c>
+      <c r="S148">
+        <v>3</v>
+      </c>
+      <c r="T148">
+        <v>1.48</v>
+      </c>
+      <c r="U148">
+        <v>2.5</v>
+      </c>
+      <c r="V148">
+        <v>3.1</v>
+      </c>
+      <c r="W148">
+        <v>1.33</v>
+      </c>
+      <c r="X148">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y148">
+        <v>1.05</v>
+      </c>
+      <c r="Z148">
+        <v>2.75</v>
+      </c>
+      <c r="AA148">
+        <v>3.25</v>
+      </c>
+      <c r="AB148">
+        <v>2.38</v>
+      </c>
+      <c r="AC148">
+        <v>1.08</v>
+      </c>
+      <c r="AD148">
+        <v>7</v>
+      </c>
+      <c r="AE148">
+        <v>1.4</v>
+      </c>
+      <c r="AF148">
+        <v>2.8</v>
+      </c>
+      <c r="AG148">
+        <v>2.05</v>
+      </c>
+      <c r="AH148">
+        <v>1.75</v>
+      </c>
+      <c r="AI148">
+        <v>1.83</v>
+      </c>
+      <c r="AJ148">
+        <v>1.83</v>
+      </c>
+      <c r="AK148">
+        <v>1.5</v>
+      </c>
+      <c r="AL148">
+        <v>1.3</v>
+      </c>
+      <c r="AM148">
+        <v>1.38</v>
+      </c>
+      <c r="AN148">
+        <v>1.33</v>
+      </c>
+      <c r="AO148">
+        <v>1.75</v>
+      </c>
+      <c r="AP148">
+        <v>1.5</v>
+      </c>
+      <c r="AQ148">
+        <v>1.56</v>
+      </c>
+      <c r="AR148">
+        <v>1.37</v>
+      </c>
+      <c r="AS148">
+        <v>1.26</v>
+      </c>
+      <c r="AT148">
+        <v>2.63</v>
+      </c>
+      <c r="AU148">
+        <v>6</v>
+      </c>
+      <c r="AV148">
+        <v>2</v>
+      </c>
+      <c r="AW148">
+        <v>4</v>
+      </c>
+      <c r="AX148">
+        <v>2</v>
+      </c>
+      <c r="AY148">
+        <v>10</v>
+      </c>
+      <c r="AZ148">
+        <v>4</v>
+      </c>
+      <c r="BA148">
+        <v>4</v>
+      </c>
+      <c r="BB148">
+        <v>1</v>
+      </c>
+      <c r="BC148">
+        <v>5</v>
+      </c>
+      <c r="BD148">
+        <v>2.1</v>
+      </c>
+      <c r="BE148">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF148">
+        <v>1.92</v>
+      </c>
+      <c r="BG148">
+        <v>1.23</v>
+      </c>
+      <c r="BH148">
+        <v>3.56</v>
+      </c>
+      <c r="BI148">
+        <v>1.44</v>
+      </c>
+      <c r="BJ148">
+        <v>2.51</v>
+      </c>
+      <c r="BK148">
+        <v>1.77</v>
+      </c>
+      <c r="BL148">
+        <v>1.9</v>
+      </c>
+      <c r="BM148">
+        <v>2.28</v>
+      </c>
+      <c r="BN148">
+        <v>1.53</v>
+      </c>
+      <c r="BO148">
+        <v>3.04</v>
+      </c>
+      <c r="BP148">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="257">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1146,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP148"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ6">
         <v>1.13</v>
@@ -3752,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ14">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ17">
         <v>0.67</v>
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ28">
         <v>1.44</v>
@@ -7048,7 +7048,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ29">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7666,7 +7666,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ32">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.53</v>
@@ -7869,7 +7869,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ33">
         <v>1.82</v>
@@ -9108,7 +9108,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ39">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.93</v>
@@ -10756,7 +10756,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR47">
         <v>1.07</v>
@@ -10959,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ48">
         <v>1.75</v>
@@ -11783,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ52">
         <v>0.89</v>
@@ -12610,7 +12610,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ56">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.78</v>
@@ -15079,10 +15079,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ68">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR68">
         <v>1.07</v>
@@ -15903,7 +15903,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ72">
         <v>1.14</v>
@@ -16112,7 +16112,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ73">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR73">
         <v>0.83</v>
@@ -17554,7 +17554,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ80">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR80">
         <v>2.17</v>
@@ -18787,7 +18787,7 @@
         <v>0.2</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ86">
         <v>0.5600000000000001</v>
@@ -19405,7 +19405,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ89">
         <v>1.5</v>
@@ -20438,7 +20438,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ94">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.11</v>
@@ -21877,7 +21877,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ101">
         <v>1.13</v>
@@ -23113,7 +23113,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ107">
         <v>1.75</v>
@@ -23322,7 +23322,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ108">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR108">
         <v>1.52</v>
@@ -24558,7 +24558,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ114">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR114">
         <v>1.53</v>
@@ -24761,10 +24761,10 @@
         <v>1.17</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ115">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>1.36</v>
@@ -25585,7 +25585,7 @@
         <v>0.43</v>
       </c>
       <c r="AP119">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ119">
         <v>0.5600000000000001</v>
@@ -27030,7 +27030,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ126">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR126">
         <v>1.4</v>
@@ -27648,7 +27648,7 @@
         <v>1</v>
       </c>
       <c r="AQ129">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR129">
         <v>1.42</v>
@@ -28057,7 +28057,7 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ131">
         <v>1.56</v>
@@ -28472,7 +28472,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ133">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR133">
         <v>1.42</v>
@@ -28678,7 +28678,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ134">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR134">
         <v>1.15</v>
@@ -31638,6 +31638,418 @@
       </c>
       <c r="BP148">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7364278</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45410.41666666666</v>
+      </c>
+      <c r="F149">
+        <v>20</v>
+      </c>
+      <c r="G149" t="s">
+        <v>85</v>
+      </c>
+      <c r="H149" t="s">
+        <v>73</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149" t="s">
+        <v>128</v>
+      </c>
+      <c r="P149" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q149">
+        <v>2.2</v>
+      </c>
+      <c r="R149">
+        <v>2.05</v>
+      </c>
+      <c r="S149">
+        <v>6.5</v>
+      </c>
+      <c r="T149">
+        <v>1.45</v>
+      </c>
+      <c r="U149">
+        <v>2.55</v>
+      </c>
+      <c r="V149">
+        <v>3.1</v>
+      </c>
+      <c r="W149">
+        <v>1.33</v>
+      </c>
+      <c r="X149">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y149">
+        <v>1.05</v>
+      </c>
+      <c r="Z149">
+        <v>1.53</v>
+      </c>
+      <c r="AA149">
+        <v>3.3</v>
+      </c>
+      <c r="AB149">
+        <v>6.5</v>
+      </c>
+      <c r="AC149">
+        <v>1.06</v>
+      </c>
+      <c r="AD149">
+        <v>8</v>
+      </c>
+      <c r="AE149">
+        <v>1.38</v>
+      </c>
+      <c r="AF149">
+        <v>2.9</v>
+      </c>
+      <c r="AG149">
+        <v>2.3</v>
+      </c>
+      <c r="AH149">
+        <v>1.6</v>
+      </c>
+      <c r="AI149">
+        <v>2.38</v>
+      </c>
+      <c r="AJ149">
+        <v>1.53</v>
+      </c>
+      <c r="AK149">
+        <v>1.07</v>
+      </c>
+      <c r="AL149">
+        <v>1.2</v>
+      </c>
+      <c r="AM149">
+        <v>2.45</v>
+      </c>
+      <c r="AN149">
+        <v>2</v>
+      </c>
+      <c r="AO149">
+        <v>0.33</v>
+      </c>
+      <c r="AP149">
+        <v>2.11</v>
+      </c>
+      <c r="AQ149">
+        <v>0.3</v>
+      </c>
+      <c r="AR149">
+        <v>1.46</v>
+      </c>
+      <c r="AS149">
+        <v>0.98</v>
+      </c>
+      <c r="AT149">
+        <v>2.44</v>
+      </c>
+      <c r="AU149">
+        <v>6</v>
+      </c>
+      <c r="AV149">
+        <v>4</v>
+      </c>
+      <c r="AW149">
+        <v>9</v>
+      </c>
+      <c r="AX149">
+        <v>5</v>
+      </c>
+      <c r="AY149">
+        <v>15</v>
+      </c>
+      <c r="AZ149">
+        <v>9</v>
+      </c>
+      <c r="BA149">
+        <v>6</v>
+      </c>
+      <c r="BB149">
+        <v>2</v>
+      </c>
+      <c r="BC149">
+        <v>8</v>
+      </c>
+      <c r="BD149">
+        <v>1.38</v>
+      </c>
+      <c r="BE149">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF149">
+        <v>3.5</v>
+      </c>
+      <c r="BG149">
+        <v>1.28</v>
+      </c>
+      <c r="BH149">
+        <v>3.18</v>
+      </c>
+      <c r="BI149">
+        <v>1.53</v>
+      </c>
+      <c r="BJ149">
+        <v>2.27</v>
+      </c>
+      <c r="BK149">
+        <v>1.92</v>
+      </c>
+      <c r="BL149">
+        <v>1.75</v>
+      </c>
+      <c r="BM149">
+        <v>2.51</v>
+      </c>
+      <c r="BN149">
+        <v>1.44</v>
+      </c>
+      <c r="BO149">
+        <v>3.42</v>
+      </c>
+      <c r="BP149">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7364279</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45410.54166666666</v>
+      </c>
+      <c r="F150">
+        <v>20</v>
+      </c>
+      <c r="G150" t="s">
+        <v>74</v>
+      </c>
+      <c r="H150" t="s">
+        <v>75</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>1</v>
+      </c>
+      <c r="O150" t="s">
+        <v>92</v>
+      </c>
+      <c r="P150" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q150">
+        <v>3.25</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>3.4</v>
+      </c>
+      <c r="T150">
+        <v>1.54</v>
+      </c>
+      <c r="U150">
+        <v>2.38</v>
+      </c>
+      <c r="V150">
+        <v>3.54</v>
+      </c>
+      <c r="W150">
+        <v>1.27</v>
+      </c>
+      <c r="X150">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y150">
+        <v>1.03</v>
+      </c>
+      <c r="Z150">
+        <v>2.5</v>
+      </c>
+      <c r="AA150">
+        <v>3</v>
+      </c>
+      <c r="AB150">
+        <v>2.6</v>
+      </c>
+      <c r="AC150">
+        <v>1.06</v>
+      </c>
+      <c r="AD150">
+        <v>6.55</v>
+      </c>
+      <c r="AE150">
+        <v>1.46</v>
+      </c>
+      <c r="AF150">
+        <v>2.45</v>
+      </c>
+      <c r="AG150">
+        <v>2.25</v>
+      </c>
+      <c r="AH150">
+        <v>1.62</v>
+      </c>
+      <c r="AI150">
+        <v>1.91</v>
+      </c>
+      <c r="AJ150">
+        <v>1.8</v>
+      </c>
+      <c r="AK150">
+        <v>1.42</v>
+      </c>
+      <c r="AL150">
+        <v>1.33</v>
+      </c>
+      <c r="AM150">
+        <v>1.42</v>
+      </c>
+      <c r="AN150">
+        <v>0.43</v>
+      </c>
+      <c r="AO150">
+        <v>0.78</v>
+      </c>
+      <c r="AP150">
+        <v>0.38</v>
+      </c>
+      <c r="AQ150">
+        <v>1</v>
+      </c>
+      <c r="AR150">
+        <v>1.27</v>
+      </c>
+      <c r="AS150">
+        <v>1.41</v>
+      </c>
+      <c r="AT150">
+        <v>2.68</v>
+      </c>
+      <c r="AU150">
+        <v>3</v>
+      </c>
+      <c r="AV150">
+        <v>5</v>
+      </c>
+      <c r="AW150">
+        <v>5</v>
+      </c>
+      <c r="AX150">
+        <v>3</v>
+      </c>
+      <c r="AY150">
+        <v>8</v>
+      </c>
+      <c r="AZ150">
+        <v>8</v>
+      </c>
+      <c r="BA150">
+        <v>7</v>
+      </c>
+      <c r="BB150">
+        <v>4</v>
+      </c>
+      <c r="BC150">
+        <v>11</v>
+      </c>
+      <c r="BD150">
+        <v>2.05</v>
+      </c>
+      <c r="BE150">
+        <v>8.5</v>
+      </c>
+      <c r="BF150">
+        <v>1.95</v>
+      </c>
+      <c r="BG150">
+        <v>1.24</v>
+      </c>
+      <c r="BH150">
+        <v>3.48</v>
+      </c>
+      <c r="BI150">
+        <v>1.46</v>
+      </c>
+      <c r="BJ150">
+        <v>2.45</v>
+      </c>
+      <c r="BK150">
+        <v>2.38</v>
+      </c>
+      <c r="BL150">
+        <v>1.85</v>
+      </c>
+      <c r="BM150">
+        <v>2.32</v>
+      </c>
+      <c r="BN150">
+        <v>1.51</v>
+      </c>
+      <c r="BO150">
+        <v>3.14</v>
+      </c>
+      <c r="BP150">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>
